--- a/statsDataset.xlsx
+++ b/statsDataset.xlsx
@@ -5,11 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Negatives" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="ExtraIms" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="ResultsLC" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="MoreNegs" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="resultsCNN" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Sheet8" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="ExtraNegObjs" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="169">
   <si>
     <t xml:space="preserve">SN</t>
   </si>
@@ -269,6 +276,15 @@
     <t xml:space="preserve">Ims with neg crds to search</t>
   </si>
   <si>
+    <t xml:space="preserve">Not available ims with neg crds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final ims with neg crds to search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to search neighs</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lost ims with neg crds</t>
   </si>
   <si>
@@ -293,38 +309,244 @@
     <t xml:space="preserve">TOTAL POT Ims</t>
   </si>
   <si>
-    <t xml:space="preserve">Estimated times</t>
-  </si>
-  <si>
     <t xml:space="preserve">factor 1N</t>
   </si>
   <si>
+    <t xml:space="preserve">Ims with neg crds to search (h)</t>
+  </si>
+  <si>
     <t xml:space="preserve">factor 3N</t>
   </si>
   <si>
     <t xml:space="preserve">Ims with neg crds to search (D)</t>
   </si>
   <si>
+    <t xml:space="preserve">1 neighbor to search (h)</t>
+  </si>
+  <si>
     <t xml:space="preserve">1 neighbor to search (D)</t>
   </si>
   <si>
+    <t xml:space="preserve">3 neighbor to search (h)</t>
+  </si>
+  <si>
     <t xml:space="preserve">3 neighbor to search (D)</t>
   </si>
   <si>
+    <t xml:space="preserve">Solo servidor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neighbors to search of ims with neg crds retrieved</t>
+  </si>
+  <si>
     <t xml:space="preserve">Negative search: using ims from all season +less negs (2negDF) sin guardar</t>
   </si>
   <si>
     <t xml:space="preserve">AO after restriccion of cutouts YYMMDD and any observation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">incomplete search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Running</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falta ROI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total ims with pos crds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Original objs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discover date &lt;2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">algunos ya están</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*identificarlos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objs to search years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">searchAndDownload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN 3 neighs en ExtraIms_neighs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV 3 neighs en ExtraIms_neighs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samples train</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samples test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPR (recall)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">non transient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary </t>
+  </si>
+  <si>
+    <t xml:space="preserve">original LC in 3 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">falta contar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">running</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">one </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 SN desde 800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 AGN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 SN found hasta 800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neigh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 SN hasta 700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 SN desde 700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DenseNet121 finuted with 3D images from pngs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRP (recall)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DenseNet121 finuted with 3D images from max bright png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-tran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ims 9 consec w image max bright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 consec images (no restr in max bright)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 Neigh OTHEr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 neigh BZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 neigh AGN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neigh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 neigh SN 0:700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 SN 700:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 neigh ast</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.00"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -356,7 +578,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,6 +617,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFCC66FF"/>
+        <bgColor rgb="FF9999FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF99"/>
+        <bgColor rgb="FF99FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFDCFFDC"/>
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
@@ -409,6 +649,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFEEC591"/>
         <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3333"/>
+        <bgColor rgb="FFFF6600"/>
       </patternFill>
     </fill>
   </fills>
@@ -551,7 +797,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="117">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -736,6 +982,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -752,7 +1002,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -760,11 +1010,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -784,7 +1050,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -792,7 +1066,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -808,27 +1098,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -836,15 +1126,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -852,11 +1142,127 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -873,7 +1279,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFFF3333"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -909,10 +1315,10 @@
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF9999"/>
-      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFCC66FF"/>
       <rgbColor rgb="FFEEC591"/>
       <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF66FF99"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
@@ -937,18 +1343,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O209"/>
+  <dimension ref="A1:O225"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A154" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D171" activeCellId="0" sqref="D171"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.8214285714286"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4002,7 +4409,7 @@
         <f aca="false">SUM(G122+G119+G118+G106+G103+G102+G66+G63+G62-G65-G68-G105-G108-G121-G124)</f>
         <v>75257</v>
       </c>
-      <c r="H133" s="15" t="n">
+      <c r="H133" s="46" t="n">
         <f aca="false">SUM(B133:G133)</f>
         <v>390659</v>
       </c>
@@ -4073,7 +4480,7 @@
         <v>41326</v>
       </c>
       <c r="G141" s="5"/>
-      <c r="H141" s="46"/>
+      <c r="H141" s="47"/>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="s">
@@ -4085,7 +4492,7 @@
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
       <c r="G142" s="5"/>
-      <c r="H142" s="46"/>
+      <c r="H142" s="47"/>
     </row>
     <row r="143" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="s">
@@ -4105,7 +4512,7 @@
         <v>8449</v>
       </c>
       <c r="G143" s="5"/>
-      <c r="H143" s="46"/>
+      <c r="H143" s="47"/>
     </row>
     <row r="144" customFormat="false" ht="21.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="s">
@@ -4125,7 +4532,7 @@
         <v>12333</v>
       </c>
       <c r="G144" s="5"/>
-      <c r="H144" s="46"/>
+      <c r="H144" s="47"/>
     </row>
     <row r="145" customFormat="false" ht="20.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="10" t="s">
@@ -4137,7 +4544,7 @@
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
       <c r="G145" s="5"/>
-      <c r="H145" s="46"/>
+      <c r="H145" s="47"/>
     </row>
     <row r="146" customFormat="false" ht="16.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="10" t="s">
@@ -4149,7 +4556,7 @@
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
       <c r="G146" s="5"/>
-      <c r="H146" s="46"/>
+      <c r="H146" s="47"/>
     </row>
     <row r="147" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="s">
@@ -4169,7 +4576,7 @@
         <v>4058</v>
       </c>
       <c r="G147" s="5"/>
-      <c r="H147" s="46"/>
+      <c r="H147" s="47"/>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="10" t="s">
@@ -4181,7 +4588,7 @@
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
       <c r="G148" s="5"/>
-      <c r="H148" s="46"/>
+      <c r="H148" s="47"/>
     </row>
     <row r="149" customFormat="false" ht="20.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="10" t="s">
@@ -4193,7 +4600,7 @@
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
       <c r="G149" s="5"/>
-      <c r="H149" s="46"/>
+      <c r="H149" s="47"/>
     </row>
     <row r="150" customFormat="false" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="s">
@@ -4213,13 +4620,13 @@
         <v>8740</v>
       </c>
       <c r="G150" s="5"/>
-      <c r="H150" s="46"/>
+      <c r="H150" s="47"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="B151" s="47"/>
+      <c r="B151" s="48"/>
       <c r="C151" s="14" t="n">
         <v>1</v>
       </c>
@@ -4232,20 +4639,20 @@
       <c r="F151" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="G151" s="47"/>
-      <c r="H151" s="48"/>
+      <c r="G151" s="48"/>
+      <c r="H151" s="49"/>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="49" t="s">
+      <c r="A153" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="B153" s="49"/>
-      <c r="C153" s="49"/>
-      <c r="D153" s="49"/>
-      <c r="E153" s="49"/>
-      <c r="F153" s="49"/>
-      <c r="G153" s="49"/>
-      <c r="H153" s="49"/>
+      <c r="B153" s="50"/>
+      <c r="C153" s="50"/>
+      <c r="D153" s="50"/>
+      <c r="E153" s="50"/>
+      <c r="F153" s="50"/>
+      <c r="G153" s="50"/>
+      <c r="H153" s="50"/>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="18"/>
@@ -4275,13 +4682,28 @@
       <c r="A155" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
-      <c r="F155" s="2"/>
-      <c r="G155" s="2"/>
-      <c r="H155" s="3"/>
+      <c r="B155" s="33" t="n">
+        <v>1372</v>
+      </c>
+      <c r="C155" s="33" t="n">
+        <v>776</v>
+      </c>
+      <c r="D155" s="33" t="n">
+        <v>239</v>
+      </c>
+      <c r="E155" s="33" t="n">
+        <v>24</v>
+      </c>
+      <c r="F155" s="33" t="n">
+        <v>606</v>
+      </c>
+      <c r="G155" s="33" t="n">
+        <v>821</v>
+      </c>
+      <c r="H155" s="22" t="n">
+        <f aca="false">SUM(B155:G155)</f>
+        <v>3838</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="s">
@@ -4305,7 +4727,7 @@
       <c r="G156" s="5" t="n">
         <v>44442</v>
       </c>
-      <c r="H156" s="46" t="n">
+      <c r="H156" s="51" t="n">
         <f aca="false">SUM(B156:G156)</f>
         <v>233994</v>
       </c>
@@ -4332,7 +4754,7 @@
       <c r="G157" s="5" t="n">
         <v>22330</v>
       </c>
-      <c r="H157" s="46" t="n">
+      <c r="H157" s="47" t="n">
         <f aca="false">SUM(B157:G157)</f>
         <v>116725</v>
       </c>
@@ -4344,22 +4766,22 @@
       <c r="B158" s="25" t="n">
         <v>42538</v>
       </c>
-      <c r="C158" s="25" t="n">
+      <c r="C158" s="30" t="n">
         <v>22031</v>
       </c>
-      <c r="D158" s="50" t="n">
+      <c r="D158" s="52" t="n">
         <v>6812</v>
       </c>
-      <c r="E158" s="51" t="n">
+      <c r="E158" s="52" t="n">
         <v>736</v>
       </c>
-      <c r="F158" s="50" t="n">
+      <c r="F158" s="52" t="n">
         <v>19614</v>
       </c>
-      <c r="G158" s="50" t="n">
+      <c r="G158" s="53" t="n">
         <v>21128</v>
       </c>
-      <c r="H158" s="52" t="n">
+      <c r="H158" s="54" t="n">
         <f aca="false">SUM(B158:G158)</f>
         <v>112859</v>
       </c>
@@ -4368,745 +4790,760 @@
       <c r="A159" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B159" s="7" t="n">
-        <v>1596</v>
-      </c>
-      <c r="C159" s="7" t="n">
-        <v>987</v>
-      </c>
+      <c r="B159" s="7"/>
+      <c r="C159" s="7"/>
       <c r="D159" s="5" t="n">
-        <v>182</v>
+        <v>1672</v>
       </c>
       <c r="E159" s="5" t="n">
-        <v>141</v>
-      </c>
-      <c r="F159" s="5" t="n">
-        <v>520</v>
-      </c>
-      <c r="G159" s="5" t="n">
-        <v>984</v>
-      </c>
-      <c r="H159" s="46"/>
+        <v>231</v>
+      </c>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
+      <c r="H159" s="47"/>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="6" t="s">
-        <v>77</v>
+      <c r="A160" s="55" t="s">
+        <v>83</v>
       </c>
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
-      <c r="D160" s="5"/>
-      <c r="E160" s="5"/>
+      <c r="D160" s="5" t="n">
+        <f aca="false">D157+D158-D159</f>
+        <v>12314</v>
+      </c>
+      <c r="E160" s="5" t="n">
+        <f aca="false">E157+E158-E159</f>
+        <v>1025</v>
+      </c>
       <c r="F160" s="5"/>
       <c r="G160" s="5"/>
-      <c r="H160" s="46"/>
+      <c r="H160" s="47"/>
+      <c r="I160" s="56" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="6" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="B161" s="7" t="n">
-        <v>18771</v>
+        <v>1596</v>
       </c>
       <c r="C161" s="7" t="n">
-        <v>10243</v>
+        <v>987</v>
       </c>
       <c r="D161" s="5" t="n">
-        <v>2932</v>
+        <v>182</v>
       </c>
       <c r="E161" s="5" t="n">
-        <v>231</v>
+        <v>141</v>
       </c>
       <c r="F161" s="5" t="n">
-        <v>8606</v>
+        <v>520</v>
       </c>
       <c r="G161" s="5" t="n">
-        <v>10057</v>
-      </c>
-      <c r="H161" s="46" t="n">
-        <f aca="false">SUM(B161:G161)</f>
-        <v>50840</v>
-      </c>
+        <v>984</v>
+      </c>
+      <c r="H161" s="47"/>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="B162" s="33" t="n">
-        <v>27791</v>
-      </c>
-      <c r="C162" s="33" t="n">
-        <v>14396</v>
-      </c>
-      <c r="D162" s="2" t="n">
-        <v>4514</v>
-      </c>
-      <c r="E162" s="2" t="n">
-        <v>403</v>
-      </c>
-      <c r="F162" s="2" t="n">
-        <v>13025</v>
-      </c>
-      <c r="G162" s="2" t="n">
-        <v>14834</v>
-      </c>
-      <c r="H162" s="3" t="n">
-        <f aca="false">SUM(B162:G162)</f>
-        <v>74963</v>
-      </c>
+      <c r="A162" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B162" s="7"/>
+      <c r="C162" s="7"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
+      <c r="H162" s="47"/>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="6" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="B163" s="7" t="n">
+        <v>18771</v>
+      </c>
+      <c r="C163" s="7" t="n">
+        <v>10243</v>
+      </c>
+      <c r="D163" s="5" t="n">
+        <v>2932</v>
+      </c>
+      <c r="E163" s="52" t="n">
+        <v>231</v>
+      </c>
+      <c r="F163" s="5" t="n">
+        <v>8606</v>
+      </c>
+      <c r="G163" s="5" t="n">
+        <v>10057</v>
+      </c>
+      <c r="H163" s="51" t="n">
+        <f aca="false">SUM(B163:G163)</f>
+        <v>50840</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="B164" s="33" t="n">
+        <v>27791</v>
+      </c>
+      <c r="C164" s="33" t="n">
+        <v>14396</v>
+      </c>
+      <c r="D164" s="2" t="n">
+        <v>4514</v>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>403</v>
+      </c>
+      <c r="F164" s="2" t="n">
+        <v>13025</v>
+      </c>
+      <c r="G164" s="2" t="n">
+        <v>14834</v>
+      </c>
+      <c r="H164" s="3" t="n">
+        <f aca="false">SUM(B164:G164)</f>
+        <v>74963</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B165" s="7" t="n">
         <v>9717</v>
       </c>
-      <c r="C163" s="7" t="n">
+      <c r="C165" s="7" t="n">
         <v>4949</v>
       </c>
-      <c r="D163" s="5" t="n">
+      <c r="D165" s="5" t="n">
         <v>1642</v>
       </c>
-      <c r="E163" s="5" t="n">
+      <c r="E165" s="5" t="n">
         <v>123</v>
       </c>
-      <c r="F163" s="5" t="n">
+      <c r="F165" s="5" t="n">
         <v>4805</v>
       </c>
-      <c r="G163" s="5" t="n">
+      <c r="G165" s="5" t="n">
         <v>5299</v>
       </c>
-      <c r="H163" s="46" t="n">
-        <f aca="false">SUM(B163:G163)</f>
+      <c r="H165" s="51" t="n">
+        <f aca="false">SUM(B165:G165)</f>
         <v>26535</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B164" s="25" t="n">
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B166" s="25" t="n">
         <v>18074</v>
       </c>
-      <c r="C164" s="25" t="n">
+      <c r="C166" s="58" t="n">
         <v>9447</v>
       </c>
-      <c r="D164" s="50" t="n">
+      <c r="D166" s="52" t="n">
         <v>2872</v>
       </c>
-      <c r="E164" s="50" t="n">
+      <c r="E166" s="52" t="n">
         <v>280</v>
       </c>
-      <c r="F164" s="50" t="n">
+      <c r="F166" s="53" t="n">
         <v>8220</v>
       </c>
-      <c r="G164" s="50" t="n">
+      <c r="G166" s="53" t="n">
         <v>9535</v>
       </c>
-      <c r="H164" s="52" t="n">
-        <f aca="false">SUM(B164:G164)</f>
+      <c r="H166" s="54" t="n">
+        <f aca="false">SUM(B166:G166)</f>
         <v>48428</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="10" t="s">
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B165" s="7"/>
-      <c r="C165" s="7"/>
-      <c r="D165" s="5"/>
-      <c r="E165" s="5"/>
-      <c r="F165" s="5"/>
-      <c r="G165" s="5"/>
-      <c r="H165" s="46"/>
-    </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="13" t="s">
+      <c r="B167" s="7"/>
+      <c r="C167" s="7"/>
+      <c r="D167" s="5" t="n">
+        <v>225</v>
+      </c>
+      <c r="E167" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="F167" s="5"/>
+      <c r="G167" s="5"/>
+      <c r="H167" s="47"/>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B166" s="14"/>
-      <c r="C166" s="14"/>
-      <c r="D166" s="54"/>
-      <c r="E166" s="54"/>
-      <c r="F166" s="54"/>
-      <c r="G166" s="54"/>
-      <c r="H166" s="55"/>
-    </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="53" t="s">
+      <c r="B168" s="14"/>
+      <c r="C168" s="14"/>
+      <c r="D168" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="E168" s="59" t="n">
+        <v>6</v>
+      </c>
+      <c r="F168" s="59"/>
+      <c r="G168" s="59"/>
+      <c r="H168" s="60"/>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="B167" s="33" t="n">
+      <c r="B169" s="33" t="n">
         <v>8699</v>
       </c>
-      <c r="C167" s="33" t="n">
+      <c r="C169" s="33" t="n">
         <v>4473</v>
       </c>
-      <c r="D167" s="2" t="n">
+      <c r="D169" s="2" t="n">
         <v>1439</v>
       </c>
-      <c r="E167" s="2" t="n">
+      <c r="E169" s="2" t="n">
         <v>207</v>
       </c>
-      <c r="F167" s="2" t="n">
+      <c r="F169" s="2" t="n">
         <v>4057</v>
       </c>
-      <c r="G167" s="2" t="n">
+      <c r="G169" s="2" t="n">
         <v>4859</v>
       </c>
-      <c r="H167" s="3" t="n">
-        <f aca="false">SUM(B167:G167)</f>
+      <c r="H169" s="3" t="n">
+        <f aca="false">SUM(B169:G169)</f>
         <v>23734</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B168" s="7" t="n">
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B170" s="7" t="n">
         <v>1196</v>
       </c>
-      <c r="C168" s="7" t="n">
+      <c r="C170" s="7" t="n">
         <v>592</v>
       </c>
-      <c r="D168" s="5" t="n">
+      <c r="D170" s="5" t="n">
         <v>216</v>
       </c>
-      <c r="E168" s="5" t="n">
+      <c r="E170" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="F168" s="5" t="n">
+      <c r="F170" s="5" t="n">
         <v>580</v>
       </c>
-      <c r="G168" s="5" t="n">
+      <c r="G170" s="5" t="n">
         <v>702</v>
       </c>
-      <c r="H168" s="46" t="n">
-        <f aca="false">SUM(B168:G168)</f>
+      <c r="H170" s="51" t="n">
+        <f aca="false">SUM(B170:G170)</f>
         <v>3298</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B169" s="25" t="n">
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B171" s="25" t="n">
         <v>7503</v>
       </c>
-      <c r="C169" s="25" t="n">
+      <c r="C171" s="25" t="n">
         <v>3881</v>
       </c>
-      <c r="D169" s="50" t="n">
+      <c r="D171" s="53" t="n">
         <v>1223</v>
       </c>
-      <c r="E169" s="50" t="n">
+      <c r="E171" s="52" t="n">
         <v>195</v>
       </c>
-      <c r="F169" s="50" t="n">
+      <c r="F171" s="53" t="n">
         <v>3477</v>
       </c>
-      <c r="G169" s="50" t="n">
+      <c r="G171" s="53" t="n">
         <v>4157</v>
       </c>
-      <c r="H169" s="52" t="n">
-        <f aca="false">SUM(B169:G169)</f>
+      <c r="H171" s="54" t="n">
+        <f aca="false">SUM(B171:G171)</f>
         <v>20436</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="10" t="s">
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B170" s="7"/>
-      <c r="C170" s="7"/>
-      <c r="D170" s="5"/>
-      <c r="E170" s="5"/>
-      <c r="F170" s="5"/>
-      <c r="G170" s="5"/>
-      <c r="H170" s="46"/>
-    </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="13" t="s">
+      <c r="B172" s="7"/>
+      <c r="C172" s="7"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="F172" s="5"/>
+      <c r="G172" s="5"/>
+      <c r="H172" s="47"/>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B171" s="14"/>
-      <c r="C171" s="14"/>
-      <c r="D171" s="54"/>
-      <c r="E171" s="54"/>
-      <c r="F171" s="54"/>
-      <c r="G171" s="54"/>
-      <c r="H171" s="55"/>
-    </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="6" t="s">
+      <c r="B173" s="14"/>
+      <c r="C173" s="14"/>
+      <c r="D173" s="59"/>
+      <c r="E173" s="59" t="n">
+        <v>9</v>
+      </c>
+      <c r="F173" s="59"/>
+      <c r="G173" s="59"/>
+      <c r="H173" s="60"/>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B172" s="7" t="n">
+      <c r="B174" s="7" t="n">
         <v>20101</v>
       </c>
-      <c r="C172" s="7" t="n">
+      <c r="C174" s="7" t="n">
         <v>10081</v>
       </c>
-      <c r="D172" s="5" t="n">
+      <c r="D174" s="5" t="n">
         <v>3227</v>
       </c>
-      <c r="E172" s="5" t="n">
+      <c r="E174" s="5" t="n">
         <v>234</v>
       </c>
-      <c r="F172" s="5" t="n">
+      <c r="F174" s="5" t="n">
         <v>9171</v>
       </c>
-      <c r="G172" s="5" t="n">
+      <c r="G174" s="5" t="n">
         <v>10448</v>
       </c>
-      <c r="H172" s="46" t="n">
-        <f aca="false">SUM(B172:G172)</f>
+      <c r="H174" s="47" t="n">
+        <f aca="false">SUM(B174:G174)</f>
         <v>53262</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="35" t="s">
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="B173" s="14" t="n">
+      <c r="B175" s="14" t="n">
         <v>19</v>
       </c>
-      <c r="C173" s="14" t="n">
+      <c r="C175" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="D173" s="14" t="n">
+      <c r="D175" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="E173" s="14" t="n">
+      <c r="E175" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="F173" s="14"/>
-      <c r="G173" s="14" t="n">
+      <c r="F175" s="14"/>
+      <c r="G175" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="H173" s="48"/>
-    </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B174" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="C174" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="D174" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="E174" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="F174" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="G174" s="0" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F175" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="H175" s="31" t="n">
-        <f aca="false">SUM(H158+H164+H169)</f>
+      <c r="H175" s="49"/>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B176" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C176" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D176" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="E176" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="F176" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="G176" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F177" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H177" s="31" t="n">
+        <f aca="false">SUM(H158+H166+H171)</f>
         <v>181723</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F176" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="H176" s="0" t="n">
-        <f aca="false">SUM(H157+H163+H168+H175)</f>
-        <v>328281</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="B177" s="56"/>
-      <c r="C177" s="56"/>
-      <c r="D177" s="56"/>
-      <c r="E177" s="56"/>
-      <c r="F177" s="56"/>
-      <c r="G177" s="56"/>
-      <c r="H177" s="56"/>
-    </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="18"/>
-      <c r="B178" s="19" t="s">
+      <c r="F178" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="H178" s="0" t="n">
+        <f aca="false">SUM(H163+H157+H165+H170+H177)</f>
+        <v>379121</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B179" s="61"/>
+      <c r="C179" s="61"/>
+      <c r="D179" s="61"/>
+      <c r="E179" s="61"/>
+      <c r="F179" s="61"/>
+      <c r="G179" s="61"/>
+      <c r="H179" s="61"/>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="18"/>
+      <c r="B180" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C178" s="19" t="s">
+      <c r="C180" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D178" s="19" t="s">
+      <c r="D180" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E178" s="19" t="s">
+      <c r="E180" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F178" s="19" t="s">
+      <c r="F180" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G178" s="20" t="s">
+      <c r="G180" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H178" s="21" t="s">
+      <c r="H180" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="J178" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="K178" s="57" t="n">
+      <c r="J180" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="K180" s="62" t="n">
         <f aca="false">4.8/737</f>
         <v>0.00651289009497965</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B179" s="58" t="n">
-        <f aca="false">B158*K178</f>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B181" s="63" t="n">
+        <f aca="false">B158*K180</f>
         <v>277.045318860244</v>
       </c>
-      <c r="C179" s="58" t="n">
-        <f aca="false">C158*K178</f>
+      <c r="C181" s="64" t="n">
+        <f aca="false">C158*K180</f>
         <v>143.485481682497</v>
       </c>
-      <c r="D179" s="58" t="n">
-        <f aca="false">D158*K178</f>
+      <c r="D181" s="65" t="n">
+        <f aca="false">D158*K180</f>
         <v>44.3658073270014</v>
       </c>
-      <c r="E179" s="58" t="n">
-        <f aca="false">E158*K178</f>
+      <c r="E181" s="65" t="n">
+        <f aca="false">E158*K180</f>
         <v>4.79348710990502</v>
       </c>
-      <c r="F179" s="58" t="n">
-        <f aca="false">F158*K178</f>
+      <c r="F181" s="64" t="n">
+        <f aca="false">F158*K180</f>
         <v>127.743826322931</v>
       </c>
-      <c r="G179" s="58" t="n">
-        <f aca="false">G158*K178</f>
+      <c r="G181" s="63" t="n">
+        <f aca="false">G158*K180</f>
         <v>137.60434192673</v>
       </c>
-      <c r="H179" s="59"/>
-      <c r="J179" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="K179" s="57" t="n">
+      <c r="H181" s="66" t="n">
+        <f aca="false">SUM(B181:G181)</f>
+        <v>735.038263229308</v>
+      </c>
+      <c r="J181" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="K181" s="62" t="n">
         <f aca="false">6/378</f>
         <v>0.0158730158730159</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B180" s="58" t="n">
-        <f aca="false">B179/24</f>
-        <v>11.5435549525102</v>
-      </c>
-      <c r="C180" s="58" t="n">
-        <f aca="false">C179/24</f>
-        <v>5.97856173677069</v>
-      </c>
-      <c r="D180" s="58" t="n">
-        <f aca="false">D179/24</f>
-        <v>1.84857530529172</v>
-      </c>
-      <c r="E180" s="58" t="n">
-        <f aca="false">E179/24</f>
-        <v>0.199728629579376</v>
-      </c>
-      <c r="F180" s="58" t="n">
-        <f aca="false">F179/24</f>
-        <v>5.32265943012212</v>
-      </c>
-      <c r="G180" s="58" t="n">
-        <f aca="false">G179/24</f>
-        <v>5.73351424694708</v>
-      </c>
-      <c r="H180" s="59"/>
-    </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B181" s="58" t="n">
-        <f aca="false">B164*K178</f>
-        <v>117.713975576662</v>
-      </c>
-      <c r="C181" s="58" t="n">
-        <f aca="false">C164*K178</f>
-        <v>61.5272727272727</v>
-      </c>
-      <c r="D181" s="58" t="n">
-        <f aca="false">D164*K178</f>
-        <v>18.7050203527815</v>
-      </c>
-      <c r="E181" s="58" t="n">
-        <f aca="false">E164*K178</f>
-        <v>1.8236092265943</v>
-      </c>
-      <c r="F181" s="58" t="n">
-        <f aca="false">F164*K178</f>
-        <v>53.5359565807327</v>
-      </c>
-      <c r="G181" s="58" t="n">
-        <f aca="false">G164*K178</f>
-        <v>62.1004070556309</v>
-      </c>
-      <c r="H181" s="59"/>
-    </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B182" s="58" t="n">
+        <v>96</v>
+      </c>
+      <c r="B182" s="67" t="n">
         <f aca="false">B181/24</f>
-        <v>4.90474898236092</v>
-      </c>
-      <c r="C182" s="58" t="n">
+        <v>11.5435549525102</v>
+      </c>
+      <c r="C182" s="67" t="n">
         <f aca="false">C181/24</f>
-        <v>2.56363636363636</v>
-      </c>
-      <c r="D182" s="58" t="n">
+        <v>5.97856173677069</v>
+      </c>
+      <c r="D182" s="67" t="n">
         <f aca="false">D181/24</f>
-        <v>0.779375848032564</v>
-      </c>
-      <c r="E182" s="58" t="n">
+        <v>1.84857530529172</v>
+      </c>
+      <c r="E182" s="67" t="n">
         <f aca="false">E181/24</f>
-        <v>0.0759837177747626</v>
-      </c>
-      <c r="F182" s="58" t="n">
+        <v>0.199728629579376</v>
+      </c>
+      <c r="F182" s="67" t="n">
         <f aca="false">F181/24</f>
-        <v>2.23066485753053</v>
-      </c>
-      <c r="G182" s="58" t="n">
+        <v>5.32265943012212</v>
+      </c>
+      <c r="G182" s="67" t="n">
         <f aca="false">G181/24</f>
-        <v>2.58751696065129</v>
-      </c>
-      <c r="H182" s="59"/>
+        <v>5.73351424694708</v>
+      </c>
+      <c r="H182" s="66" t="n">
+        <f aca="false">SUM(B182:G182)</f>
+        <v>30.6265943012212</v>
+      </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B183" s="58" t="n">
-        <f aca="false">B169*K179</f>
+        <v>97</v>
+      </c>
+      <c r="B183" s="68" t="n">
+        <f aca="false">B166*K180</f>
+        <v>117.713975576662</v>
+      </c>
+      <c r="C183" s="64" t="n">
+        <f aca="false">C166*K180</f>
+        <v>61.5272727272727</v>
+      </c>
+      <c r="D183" s="65" t="n">
+        <f aca="false">D166*K180</f>
+        <v>18.7050203527815</v>
+      </c>
+      <c r="E183" s="65" t="n">
+        <f aca="false">E166*K180</f>
+        <v>1.8236092265943</v>
+      </c>
+      <c r="F183" s="63" t="n">
+        <f aca="false">F166*K180</f>
+        <v>53.5359565807327</v>
+      </c>
+      <c r="G183" s="68" t="n">
+        <f aca="false">G166*K180</f>
+        <v>62.1004070556309</v>
+      </c>
+      <c r="H183" s="66" t="n">
+        <f aca="false">SUM(B183:G183)</f>
+        <v>315.406241519674</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B184" s="67" t="n">
+        <f aca="false">B183/24</f>
+        <v>4.90474898236092</v>
+      </c>
+      <c r="C184" s="67" t="n">
+        <f aca="false">C183/24</f>
+        <v>2.56363636363636</v>
+      </c>
+      <c r="D184" s="67" t="n">
+        <f aca="false">D183/24</f>
+        <v>0.779375848032564</v>
+      </c>
+      <c r="E184" s="67" t="n">
+        <f aca="false">E183/24</f>
+        <v>0.0759837177747626</v>
+      </c>
+      <c r="F184" s="67" t="n">
+        <f aca="false">F183/24</f>
+        <v>2.23066485753053</v>
+      </c>
+      <c r="G184" s="67" t="n">
+        <f aca="false">G183/24</f>
+        <v>2.58751696065129</v>
+      </c>
+      <c r="H184" s="66" t="n">
+        <f aca="false">SUM(B184:G184)</f>
+        <v>13.1419267299864</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B185" s="67" t="n">
+        <f aca="false">B171*K181</f>
         <v>119.095238095238</v>
       </c>
-      <c r="C183" s="58" t="n">
-        <f aca="false">C169*K179</f>
+      <c r="C185" s="68" t="n">
+        <f aca="false">C171*K181</f>
         <v>61.6031746031746</v>
       </c>
-      <c r="D183" s="58" t="n">
-        <f aca="false">D169*K179</f>
+      <c r="D185" s="63" t="n">
+        <f aca="false">D171*K181</f>
         <v>19.4126984126984</v>
       </c>
-      <c r="E183" s="58" t="n">
-        <f aca="false">E169*K179</f>
+      <c r="E185" s="65" t="n">
+        <f aca="false">E171*K181</f>
         <v>3.09523809523809</v>
       </c>
-      <c r="F183" s="58" t="n">
-        <f aca="false">F169*K179</f>
+      <c r="F185" s="67" t="n">
+        <f aca="false">F171*K181</f>
         <v>55.1904761904762</v>
       </c>
-      <c r="G183" s="58" t="n">
-        <f aca="false">G169*K179</f>
+      <c r="G185" s="68" t="n">
+        <f aca="false">G171*K181</f>
         <v>65.984126984127</v>
       </c>
-      <c r="H183" s="59"/>
-    </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="B184" s="60" t="n">
-        <f aca="false">B183/24</f>
+      <c r="H185" s="66" t="n">
+        <f aca="false">SUM(B185:G185)</f>
+        <v>324.380952380952</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B186" s="69" t="n">
+        <f aca="false">B185/24</f>
         <v>4.96230158730159</v>
       </c>
-      <c r="C184" s="60" t="n">
-        <f aca="false">C183/24</f>
+      <c r="C186" s="69" t="n">
+        <f aca="false">C185/24</f>
         <v>2.56679894179894</v>
       </c>
-      <c r="D184" s="60" t="n">
-        <f aca="false">D183/24</f>
+      <c r="D186" s="69" t="n">
+        <f aca="false">D185/24</f>
         <v>0.808862433862434</v>
       </c>
-      <c r="E184" s="60" t="n">
-        <f aca="false">E183/24</f>
+      <c r="E186" s="69" t="n">
+        <f aca="false">E185/24</f>
         <v>0.128968253968254</v>
       </c>
-      <c r="F184" s="60" t="n">
-        <f aca="false">F183/24</f>
+      <c r="F186" s="69" t="n">
+        <f aca="false">F185/24</f>
         <v>2.29960317460317</v>
       </c>
-      <c r="G184" s="60" t="n">
-        <f aca="false">G183/24</f>
+      <c r="G186" s="69" t="n">
+        <f aca="false">G185/24</f>
         <v>2.74933862433862</v>
       </c>
-      <c r="H184" s="48"/>
+      <c r="H186" s="66" t="n">
+        <f aca="false">SUM(B186:G186)</f>
+        <v>13.515873015873</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B187" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="H187" s="0" t="n">
+        <f aca="false">SUM(H182+H184+H186)</f>
+        <v>57.2843940470806</v>
+      </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B188" s="17"/>
-      <c r="C188" s="17"/>
-      <c r="D188" s="17"/>
-      <c r="E188" s="17"/>
-      <c r="F188" s="17"/>
-      <c r="G188" s="17"/>
-      <c r="H188" s="17"/>
-    </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="18"/>
-      <c r="B189" s="19" t="s">
+      <c r="H188" s="0" t="n">
+        <f aca="false">H187/7</f>
+        <v>8.18348486386866</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B190" s="37"/>
+      <c r="C190" s="37"/>
+      <c r="D190" s="37"/>
+      <c r="E190" s="37"/>
+      <c r="F190" s="37"/>
+      <c r="G190" s="37"/>
+      <c r="H190" s="37"/>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="18"/>
+      <c r="B191" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C189" s="19" t="s">
+      <c r="C191" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D189" s="19" t="s">
+      <c r="D191" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E189" s="19" t="s">
+      <c r="E191" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F189" s="19" t="s">
+      <c r="F191" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G189" s="20" t="s">
+      <c r="G191" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H189" s="21" t="s">
+      <c r="H191" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B190" s="7"/>
-      <c r="C190" s="7"/>
-      <c r="D190" s="7"/>
-      <c r="E190" s="7"/>
-      <c r="F190" s="7"/>
-      <c r="G190" s="7"/>
-      <c r="H190" s="8"/>
-    </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B191" s="7" t="n">
-        <v>88000</v>
-      </c>
-      <c r="C191" s="7" t="n">
-        <v>46046</v>
-      </c>
-      <c r="D191" s="7" t="n">
-        <v>13758</v>
-      </c>
-      <c r="E191" s="7" t="n">
-        <v>1385</v>
-      </c>
-      <c r="F191" s="7" t="n">
-        <v>40202</v>
-      </c>
-      <c r="G191" s="7" t="n">
-        <v>44798</v>
-      </c>
-      <c r="H191" s="8" t="n">
-        <f aca="false">SUM(B191:G191)</f>
-        <v>234189</v>
-      </c>
-    </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B192" s="7" t="n">
-        <v>44258</v>
-      </c>
-      <c r="C192" s="7" t="n">
-        <v>22479</v>
-      </c>
-      <c r="D192" s="7" t="n">
-        <v>7164</v>
-      </c>
-      <c r="E192" s="7" t="n">
-        <v>505</v>
-      </c>
-      <c r="F192" s="7" t="n">
-        <v>19958</v>
-      </c>
-      <c r="G192" s="7" t="n">
-        <v>22426</v>
-      </c>
-      <c r="H192" s="8"/>
+      <c r="A192" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="B192" s="33"/>
+      <c r="C192" s="33"/>
+      <c r="D192" s="71" t="n">
+        <f aca="false">SUM(D193+D194+D197+D200)</f>
+        <v>12316</v>
+      </c>
+      <c r="E192" s="33" t="n">
+        <f aca="false">SUM(E193+E194+E197+E200)</f>
+        <v>1025</v>
+      </c>
+      <c r="F192" s="33"/>
+      <c r="G192" s="33"/>
+      <c r="H192" s="22"/>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B193" s="25" t="n">
-        <v>42136</v>
-      </c>
-      <c r="C193" s="25" t="n">
-        <v>22605</v>
-      </c>
-      <c r="D193" s="25" t="n">
-        <v>6412</v>
-      </c>
-      <c r="E193" s="25" t="n">
-        <v>739</v>
-      </c>
-      <c r="F193" s="25" t="n">
-        <v>19689</v>
-      </c>
-      <c r="G193" s="25" t="n">
-        <v>21350</v>
-      </c>
-      <c r="H193" s="61" t="n">
-        <f aca="false">SUM(B193:G193)</f>
-        <v>112931</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B193" s="7"/>
+      <c r="C193" s="33"/>
+      <c r="D193" s="7" t="n">
+        <v>2213</v>
+      </c>
+      <c r="E193" s="7" t="n">
+        <v>168</v>
+      </c>
+      <c r="F193" s="7"/>
+      <c r="G193" s="7"/>
+      <c r="H193" s="8"/>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B194" s="7" t="n">
-        <v>1606</v>
-      </c>
-      <c r="C194" s="7" t="n">
-        <v>962</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B194" s="7"/>
+      <c r="C194" s="7"/>
       <c r="D194" s="7" t="n">
-        <v>182</v>
+        <v>4647</v>
       </c>
       <c r="E194" s="7" t="n">
-        <v>141</v>
-      </c>
-      <c r="F194" s="7" t="n">
-        <v>555</v>
-      </c>
-      <c r="G194" s="7" t="n">
-        <v>1022</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="F194" s="7"/>
+      <c r="G194" s="7"/>
       <c r="H194" s="8"/>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="6" t="s">
-        <v>77</v>
+      <c r="A195" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="B195" s="7"/>
       <c r="C195" s="7"/>
@@ -5117,291 +5554,521 @@
       <c r="H195" s="8"/>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B196" s="14" t="n">
-        <v>18758</v>
-      </c>
-      <c r="C196" s="14" t="n">
-        <v>9957</v>
-      </c>
-      <c r="D196" s="14" t="n">
-        <v>3073</v>
-      </c>
-      <c r="E196" s="14" t="n">
-        <v>273</v>
-      </c>
-      <c r="F196" s="14" t="n">
-        <v>8598</v>
-      </c>
-      <c r="G196" s="14" t="n">
-        <v>9980</v>
-      </c>
-      <c r="H196" s="15" t="n">
-        <f aca="false">SUM(B196:G196)</f>
-        <v>50639</v>
-      </c>
+      <c r="A196" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B196" s="7"/>
+      <c r="C196" s="7"/>
+      <c r="D196" s="7"/>
+      <c r="E196" s="7"/>
+      <c r="F196" s="7"/>
+      <c r="G196" s="7"/>
+      <c r="H196" s="8"/>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="B197" s="7" t="n">
-        <v>27799</v>
-      </c>
-      <c r="C197" s="7" t="n">
-        <v>14365</v>
-      </c>
+      <c r="A197" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B197" s="7"/>
+      <c r="C197" s="7"/>
       <c r="D197" s="7" t="n">
-        <v>4689</v>
+        <v>1928</v>
       </c>
       <c r="E197" s="7" t="n">
-        <v>409</v>
-      </c>
-      <c r="F197" s="7" t="n">
-        <v>12860</v>
-      </c>
-      <c r="G197" s="7" t="n">
-        <v>14752</v>
-      </c>
-      <c r="H197" s="8" t="n">
-        <f aca="false">SUM(B197:G197)</f>
-        <v>74874</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="F197" s="7"/>
+      <c r="G197" s="7"/>
+      <c r="H197" s="8"/>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B198" s="7" t="n">
-        <v>9614</v>
-      </c>
-      <c r="C198" s="7" t="n">
-        <v>5039</v>
-      </c>
-      <c r="D198" s="7" t="n">
-        <v>1741</v>
-      </c>
-      <c r="E198" s="7" t="n">
-        <v>118</v>
-      </c>
-      <c r="F198" s="7" t="n">
-        <v>4652</v>
-      </c>
-      <c r="G198" s="7" t="n">
-        <v>5218</v>
-      </c>
-      <c r="H198" s="8" t="n">
-        <f aca="false">SUM(B198:G198)</f>
-        <v>26382</v>
-      </c>
+      <c r="A198" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B198" s="7"/>
+      <c r="C198" s="7"/>
+      <c r="D198" s="7"/>
+      <c r="E198" s="7"/>
+      <c r="F198" s="7"/>
+      <c r="G198" s="7"/>
+      <c r="H198" s="8"/>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B199" s="25" t="n">
-        <v>18185</v>
-      </c>
-      <c r="C199" s="25" t="n">
-        <v>9326</v>
-      </c>
-      <c r="D199" s="25" t="n">
-        <v>2948</v>
-      </c>
-      <c r="E199" s="25" t="n">
-        <v>291</v>
-      </c>
-      <c r="F199" s="25" t="n">
-        <v>8208</v>
-      </c>
-      <c r="G199" s="25" t="n">
-        <v>9534</v>
-      </c>
-      <c r="H199" s="61" t="n">
-        <f aca="false">SUM(B199:G199)</f>
-        <v>48492</v>
-      </c>
+      <c r="A199" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B199" s="7"/>
+      <c r="C199" s="7"/>
+      <c r="D199" s="7"/>
+      <c r="E199" s="7"/>
+      <c r="F199" s="7"/>
+      <c r="G199" s="7"/>
+      <c r="H199" s="8"/>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B200" s="7"/>
-      <c r="C200" s="7"/>
-      <c r="D200" s="7"/>
-      <c r="E200" s="7"/>
-      <c r="F200" s="7"/>
-      <c r="G200" s="7"/>
-      <c r="H200" s="8"/>
-    </row>
-    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B201" s="14"/>
-      <c r="C201" s="14"/>
-      <c r="D201" s="14"/>
-      <c r="E201" s="14"/>
-      <c r="F201" s="14"/>
-      <c r="G201" s="14"/>
-      <c r="H201" s="15"/>
-    </row>
-    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B202" s="7" t="n">
-        <v>8931</v>
-      </c>
-      <c r="C202" s="7" t="n">
-        <v>4475</v>
-      </c>
-      <c r="D202" s="7" t="n">
-        <v>1521</v>
-      </c>
-      <c r="E202" s="7" t="n">
-        <v>178</v>
-      </c>
-      <c r="F202" s="7" t="n">
-        <v>4040</v>
-      </c>
-      <c r="G202" s="7" t="n">
-        <v>14752</v>
-      </c>
-      <c r="H202" s="8" t="n">
-        <f aca="false">SUM(B202:G202)</f>
-        <v>33897</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B203" s="7" t="n">
-        <v>1129</v>
-      </c>
-      <c r="C203" s="7" t="n">
-        <v>628</v>
-      </c>
-      <c r="D203" s="7" t="n">
-        <v>224</v>
-      </c>
-      <c r="E203" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="F203" s="7" t="n">
-        <v>578</v>
-      </c>
-      <c r="G203" s="7" t="n">
-        <v>709</v>
-      </c>
-      <c r="H203" s="8" t="n">
-        <f aca="false">SUM(B203:G203)</f>
-        <v>3276</v>
-      </c>
+      <c r="A200" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B200" s="14"/>
+      <c r="C200" s="14"/>
+      <c r="D200" s="14" t="n">
+        <v>3528</v>
+      </c>
+      <c r="E200" s="14" t="n">
+        <v>371</v>
+      </c>
+      <c r="F200" s="14"/>
+      <c r="G200" s="14"/>
+      <c r="H200" s="15"/>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B204" s="25" t="n">
-        <v>7802</v>
-      </c>
-      <c r="C204" s="25" t="n">
-        <v>3847</v>
-      </c>
-      <c r="D204" s="25" t="n">
-        <v>1297</v>
-      </c>
-      <c r="E204" s="25" t="n">
-        <v>170</v>
-      </c>
-      <c r="F204" s="25" t="n">
-        <v>3462</v>
-      </c>
-      <c r="G204" s="25" t="n">
-        <v>4160</v>
-      </c>
-      <c r="H204" s="61" t="n">
-        <f aca="false">SUM(B204:G204)</f>
-        <v>20738</v>
-      </c>
+      <c r="A204" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B204" s="17"/>
+      <c r="C204" s="17"/>
+      <c r="D204" s="17"/>
+      <c r="E204" s="17"/>
+      <c r="F204" s="17"/>
+      <c r="G204" s="17"/>
+      <c r="H204" s="17"/>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B205" s="7"/>
-      <c r="C205" s="7"/>
-      <c r="D205" s="7"/>
-      <c r="E205" s="7"/>
-      <c r="F205" s="7"/>
-      <c r="G205" s="7"/>
-      <c r="H205" s="8"/>
+      <c r="A205" s="18"/>
+      <c r="B205" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C205" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D205" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E205" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F205" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G205" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H205" s="21" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B206" s="14"/>
-      <c r="C206" s="14"/>
-      <c r="D206" s="14"/>
-      <c r="E206" s="14"/>
-      <c r="F206" s="14"/>
-      <c r="G206" s="14"/>
-      <c r="H206" s="15"/>
+      <c r="A206" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B206" s="7"/>
+      <c r="C206" s="7"/>
+      <c r="D206" s="7"/>
+      <c r="E206" s="7"/>
+      <c r="F206" s="7"/>
+      <c r="G206" s="7"/>
+      <c r="H206" s="8"/>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="6" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="B207" s="7" t="n">
-        <v>20087</v>
+        <v>88000</v>
       </c>
       <c r="C207" s="7" t="n">
-        <v>10077</v>
+        <v>46046</v>
       </c>
       <c r="D207" s="7" t="n">
-        <v>3239</v>
+        <v>13758</v>
       </c>
       <c r="E207" s="7" t="n">
-        <v>227</v>
+        <v>1385</v>
       </c>
       <c r="F207" s="7" t="n">
-        <v>9206</v>
+        <v>40202</v>
       </c>
       <c r="G207" s="7" t="n">
-        <v>10241</v>
+        <v>44798</v>
       </c>
       <c r="H207" s="8" t="n">
         <f aca="false">SUM(B207:G207)</f>
+        <v>234189</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B208" s="7" t="n">
+        <v>44258</v>
+      </c>
+      <c r="C208" s="7" t="n">
+        <v>22479</v>
+      </c>
+      <c r="D208" s="7" t="n">
+        <v>7164</v>
+      </c>
+      <c r="E208" s="7" t="n">
+        <v>505</v>
+      </c>
+      <c r="F208" s="7" t="n">
+        <v>19958</v>
+      </c>
+      <c r="G208" s="7" t="n">
+        <v>22426</v>
+      </c>
+      <c r="H208" s="8"/>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B209" s="25" t="n">
+        <v>42136</v>
+      </c>
+      <c r="C209" s="25" t="n">
+        <v>22605</v>
+      </c>
+      <c r="D209" s="25" t="n">
+        <v>6412</v>
+      </c>
+      <c r="E209" s="25" t="n">
+        <v>739</v>
+      </c>
+      <c r="F209" s="25" t="n">
+        <v>19689</v>
+      </c>
+      <c r="G209" s="25" t="n">
+        <v>21350</v>
+      </c>
+      <c r="H209" s="72" t="n">
+        <f aca="false">SUM(B209:G209)</f>
+        <v>112931</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B210" s="7" t="n">
+        <v>1606</v>
+      </c>
+      <c r="C210" s="7" t="n">
+        <v>962</v>
+      </c>
+      <c r="D210" s="7" t="n">
+        <v>182</v>
+      </c>
+      <c r="E210" s="7" t="n">
+        <v>141</v>
+      </c>
+      <c r="F210" s="7" t="n">
+        <v>555</v>
+      </c>
+      <c r="G210" s="7" t="n">
+        <v>1022</v>
+      </c>
+      <c r="H210" s="8"/>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B211" s="7"/>
+      <c r="C211" s="7"/>
+      <c r="D211" s="7"/>
+      <c r="E211" s="7"/>
+      <c r="F211" s="7"/>
+      <c r="G211" s="7"/>
+      <c r="H211" s="8"/>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B212" s="14" t="n">
+        <v>18758</v>
+      </c>
+      <c r="C212" s="14" t="n">
+        <v>9957</v>
+      </c>
+      <c r="D212" s="14" t="n">
+        <v>3073</v>
+      </c>
+      <c r="E212" s="14" t="n">
+        <v>273</v>
+      </c>
+      <c r="F212" s="14" t="n">
+        <v>8598</v>
+      </c>
+      <c r="G212" s="14" t="n">
+        <v>9980</v>
+      </c>
+      <c r="H212" s="15" t="n">
+        <f aca="false">SUM(B212:G212)</f>
+        <v>50639</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="B213" s="7" t="n">
+        <v>27799</v>
+      </c>
+      <c r="C213" s="7" t="n">
+        <v>14365</v>
+      </c>
+      <c r="D213" s="7" t="n">
+        <v>4689</v>
+      </c>
+      <c r="E213" s="7" t="n">
+        <v>409</v>
+      </c>
+      <c r="F213" s="7" t="n">
+        <v>12860</v>
+      </c>
+      <c r="G213" s="7" t="n">
+        <v>14752</v>
+      </c>
+      <c r="H213" s="8" t="n">
+        <f aca="false">SUM(B213:G213)</f>
+        <v>74874</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B214" s="7" t="n">
+        <v>9614</v>
+      </c>
+      <c r="C214" s="7" t="n">
+        <v>5039</v>
+      </c>
+      <c r="D214" s="7" t="n">
+        <v>1741</v>
+      </c>
+      <c r="E214" s="7" t="n">
+        <v>118</v>
+      </c>
+      <c r="F214" s="7" t="n">
+        <v>4652</v>
+      </c>
+      <c r="G214" s="7" t="n">
+        <v>5218</v>
+      </c>
+      <c r="H214" s="8" t="n">
+        <f aca="false">SUM(B214:G214)</f>
+        <v>26382</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B215" s="25" t="n">
+        <v>18185</v>
+      </c>
+      <c r="C215" s="25" t="n">
+        <v>9326</v>
+      </c>
+      <c r="D215" s="25" t="n">
+        <v>2948</v>
+      </c>
+      <c r="E215" s="25" t="n">
+        <v>291</v>
+      </c>
+      <c r="F215" s="25" t="n">
+        <v>8208</v>
+      </c>
+      <c r="G215" s="25" t="n">
+        <v>9534</v>
+      </c>
+      <c r="H215" s="72" t="n">
+        <f aca="false">SUM(B215:G215)</f>
+        <v>48492</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B216" s="7"/>
+      <c r="C216" s="7"/>
+      <c r="D216" s="7"/>
+      <c r="E216" s="7"/>
+      <c r="F216" s="7"/>
+      <c r="G216" s="7"/>
+      <c r="H216" s="8"/>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B217" s="14"/>
+      <c r="C217" s="14"/>
+      <c r="D217" s="14"/>
+      <c r="E217" s="14"/>
+      <c r="F217" s="14"/>
+      <c r="G217" s="14"/>
+      <c r="H217" s="15"/>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="B218" s="7" t="n">
+        <v>8931</v>
+      </c>
+      <c r="C218" s="7" t="n">
+        <v>4475</v>
+      </c>
+      <c r="D218" s="7" t="n">
+        <v>1521</v>
+      </c>
+      <c r="E218" s="7" t="n">
+        <v>178</v>
+      </c>
+      <c r="F218" s="7" t="n">
+        <v>4040</v>
+      </c>
+      <c r="G218" s="7" t="n">
+        <v>14752</v>
+      </c>
+      <c r="H218" s="8" t="n">
+        <f aca="false">SUM(B218:G218)</f>
+        <v>33897</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B219" s="7" t="n">
+        <v>1129</v>
+      </c>
+      <c r="C219" s="7" t="n">
+        <v>628</v>
+      </c>
+      <c r="D219" s="7" t="n">
+        <v>224</v>
+      </c>
+      <c r="E219" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="F219" s="7" t="n">
+        <v>578</v>
+      </c>
+      <c r="G219" s="7" t="n">
+        <v>709</v>
+      </c>
+      <c r="H219" s="8" t="n">
+        <f aca="false">SUM(B219:G219)</f>
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B220" s="25" t="n">
+        <v>7802</v>
+      </c>
+      <c r="C220" s="25" t="n">
+        <v>3847</v>
+      </c>
+      <c r="D220" s="25" t="n">
+        <v>1297</v>
+      </c>
+      <c r="E220" s="25" t="n">
+        <v>170</v>
+      </c>
+      <c r="F220" s="25" t="n">
+        <v>3462</v>
+      </c>
+      <c r="G220" s="25" t="n">
+        <v>4160</v>
+      </c>
+      <c r="H220" s="72" t="n">
+        <f aca="false">SUM(B220:G220)</f>
+        <v>20738</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B221" s="7"/>
+      <c r="C221" s="7"/>
+      <c r="D221" s="7"/>
+      <c r="E221" s="7"/>
+      <c r="F221" s="7"/>
+      <c r="G221" s="7"/>
+      <c r="H221" s="8"/>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B222" s="14"/>
+      <c r="C222" s="14"/>
+      <c r="D222" s="14"/>
+      <c r="E222" s="14"/>
+      <c r="F222" s="14"/>
+      <c r="G222" s="14"/>
+      <c r="H222" s="15"/>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B223" s="7" t="n">
+        <v>20087</v>
+      </c>
+      <c r="C223" s="7" t="n">
+        <v>10077</v>
+      </c>
+      <c r="D223" s="7" t="n">
+        <v>3239</v>
+      </c>
+      <c r="E223" s="7" t="n">
+        <v>227</v>
+      </c>
+      <c r="F223" s="7" t="n">
+        <v>9206</v>
+      </c>
+      <c r="G223" s="7" t="n">
+        <v>10241</v>
+      </c>
+      <c r="H223" s="8" t="n">
+        <f aca="false">SUM(B223:G223)</f>
         <v>53077</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="35" t="s">
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="B208" s="14"/>
-      <c r="C208" s="14"/>
-      <c r="D208" s="14" t="n">
+      <c r="B224" s="14"/>
+      <c r="C224" s="14"/>
+      <c r="D224" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="E208" s="14" t="n">
+      <c r="E224" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="F208" s="14"/>
-      <c r="G208" s="14"/>
-      <c r="H208" s="15"/>
-    </row>
-    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F209" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="H209" s="0" t="n">
-        <f aca="false">SUM(H193+H199+H204)</f>
+      <c r="F224" s="14"/>
+      <c r="G224" s="14"/>
+      <c r="H224" s="15"/>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F225" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="H225" s="0" t="n">
+        <f aca="false">SUM(H209+H215+H220)</f>
         <v>182161</v>
       </c>
     </row>
@@ -5417,8 +6084,8 @@
     <mergeCell ref="A130:H130"/>
     <mergeCell ref="A138:H138"/>
     <mergeCell ref="A153:H153"/>
-    <mergeCell ref="A177:H177"/>
-    <mergeCell ref="A188:H188"/>
+    <mergeCell ref="A190:H190"/>
+    <mergeCell ref="A204:H204"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -5437,18 +6104,19 @@
   </sheetPr>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8265306122449"/>
     <col collapsed="false" hidden="false" max="6" min="2" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="62"/>
+      <c r="A1" s="73"/>
       <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
@@ -5473,7 +6141,7 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>1588</v>
@@ -5493,31 +6161,31 @@
       <c r="G2" s="5" t="n">
         <v>917</v>
       </c>
-      <c r="H2" s="46" t="n">
+      <c r="H2" s="47" t="n">
         <f aca="false">SUM(B2:G2)</f>
         <v>4266</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="63" t="n">
+      <c r="B3" s="74" t="n">
         <v>6167</v>
       </c>
-      <c r="C3" s="63" t="n">
+      <c r="C3" s="74" t="n">
         <v>3439</v>
       </c>
-      <c r="D3" s="63" t="n">
+      <c r="D3" s="74" t="n">
         <v>953</v>
       </c>
-      <c r="E3" s="63" t="n">
+      <c r="E3" s="74" t="n">
         <v>95</v>
       </c>
-      <c r="F3" s="63" t="n">
+      <c r="F3" s="74" t="n">
         <v>2376</v>
       </c>
-      <c r="G3" s="63" t="n">
+      <c r="G3" s="74" t="n">
         <v>3610</v>
       </c>
       <c r="H3" s="8" t="n">
@@ -5525,55 +6193,55 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="65" t="n">
+      <c r="B4" s="76" t="n">
         <v>1211</v>
       </c>
-      <c r="C4" s="65" t="n">
+      <c r="C4" s="76" t="n">
         <v>699</v>
       </c>
-      <c r="D4" s="65" t="n">
+      <c r="D4" s="76" t="n">
         <v>159</v>
       </c>
-      <c r="E4" s="65" t="n">
+      <c r="E4" s="76" t="n">
         <v>20</v>
       </c>
-      <c r="F4" s="65" t="n">
+      <c r="F4" s="76" t="n">
         <v>457</v>
       </c>
-      <c r="G4" s="65" t="n">
+      <c r="G4" s="76" t="n">
         <v>675</v>
       </c>
-      <c r="H4" s="66" t="n">
+      <c r="H4" s="77" t="n">
         <f aca="false">SUM(B4:G4)</f>
         <v>3221</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="68" t="n">
+      <c r="B5" s="79" t="n">
         <v>2221</v>
       </c>
-      <c r="C5" s="68" t="n">
+      <c r="C5" s="79" t="n">
         <v>1250</v>
       </c>
-      <c r="D5" s="68" t="n">
+      <c r="D5" s="79" t="n">
         <v>477</v>
       </c>
-      <c r="E5" s="68" t="n">
+      <c r="E5" s="79" t="n">
         <v>59</v>
       </c>
-      <c r="F5" s="68" t="n">
+      <c r="F5" s="79" t="n">
         <v>1110</v>
       </c>
-      <c r="G5" s="68" t="n">
+      <c r="G5" s="79" t="n">
         <v>1338</v>
       </c>
-      <c r="H5" s="69" t="n">
+      <c r="H5" s="80" t="n">
         <f aca="false">SUM(B5:G5)</f>
         <v>6455</v>
       </c>
@@ -5630,7 +6298,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="81" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="25" t="n">
@@ -5651,7 +6319,7 @@
       <c r="G8" s="25" t="n">
         <v>550</v>
       </c>
-      <c r="H8" s="61" t="n">
+      <c r="H8" s="72" t="n">
         <f aca="false">SUM(B8:G8)</f>
         <v>3057</v>
       </c>
@@ -5708,28 +6376,28 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="72" t="n">
+      <c r="B11" s="83" t="n">
         <v>1816</v>
       </c>
-      <c r="C11" s="72" t="n">
+      <c r="C11" s="83" t="n">
         <v>996</v>
       </c>
-      <c r="D11" s="72" t="n">
+      <c r="D11" s="83" t="n">
         <v>15</v>
       </c>
-      <c r="E11" s="72" t="n">
+      <c r="E11" s="83" t="n">
         <v>2</v>
       </c>
-      <c r="F11" s="72" t="n">
+      <c r="F11" s="83" t="n">
         <v>31</v>
       </c>
-      <c r="G11" s="72" t="n">
+      <c r="G11" s="83" t="n">
         <v>1047</v>
       </c>
-      <c r="H11" s="73" t="n">
+      <c r="H11" s="84" t="n">
         <f aca="false">SUM(B11:G11)</f>
         <v>3907</v>
       </c>
@@ -5748,7 +6416,7 @@
       <c r="H13" s="44"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="62"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="19" t="s">
         <v>0</v>
       </c>
@@ -5773,7 +6441,7 @@
     </row>
     <row r="15" customFormat="false" ht="35.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B15" s="5" t="n">
         <v>1588</v>
@@ -5793,7 +6461,7 @@
       <c r="G15" s="5" t="n">
         <v>917</v>
       </c>
-      <c r="H15" s="46" t="n">
+      <c r="H15" s="47" t="n">
         <f aca="false">SUM(B15:G15)</f>
         <v>4266</v>
       </c>
@@ -5904,7 +6572,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="85" t="s">
         <v>49</v>
       </c>
       <c r="B23" s="7" t="n">
@@ -5930,55 +6598,55 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="76" t="n">
+      <c r="B24" s="87" t="n">
         <v>11761</v>
       </c>
-      <c r="C24" s="76" t="n">
+      <c r="C24" s="87" t="n">
         <v>5617</v>
       </c>
-      <c r="D24" s="76" t="n">
+      <c r="D24" s="87" t="n">
         <v>1548</v>
       </c>
-      <c r="E24" s="76" t="n">
+      <c r="E24" s="87" t="n">
         <v>182</v>
       </c>
-      <c r="F24" s="76" t="n">
+      <c r="F24" s="87" t="n">
         <v>4466</v>
       </c>
-      <c r="G24" s="76" t="n">
+      <c r="G24" s="87" t="n">
         <v>5679</v>
       </c>
-      <c r="H24" s="66" t="n">
+      <c r="H24" s="77" t="n">
         <f aca="false">SUM(B24:G24)</f>
         <v>29253</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="67" t="s">
+      <c r="A25" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="68" t="n">
+      <c r="B25" s="79" t="n">
         <v>22316</v>
       </c>
-      <c r="C25" s="68" t="n">
+      <c r="C25" s="79" t="n">
         <v>11460</v>
       </c>
-      <c r="D25" s="68" t="n">
+      <c r="D25" s="79" t="n">
         <v>3136</v>
       </c>
-      <c r="E25" s="68" t="n">
+      <c r="E25" s="79" t="n">
         <v>336</v>
       </c>
-      <c r="F25" s="68" t="n">
+      <c r="F25" s="79" t="n">
         <v>8558</v>
       </c>
-      <c r="G25" s="68" t="n">
+      <c r="G25" s="79" t="n">
         <v>10809</v>
       </c>
-      <c r="H25" s="69" t="n">
+      <c r="H25" s="80" t="n">
         <f aca="false">SUM(B25:G25)</f>
         <v>56615</v>
       </c>
@@ -6035,7 +6703,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="70" t="s">
+      <c r="A28" s="81" t="s">
         <v>43</v>
       </c>
       <c r="B28" s="25" t="n">
@@ -6056,7 +6724,7 @@
       <c r="G28" s="25" t="n">
         <v>4597</v>
       </c>
-      <c r="H28" s="61" t="n">
+      <c r="H28" s="72" t="n">
         <f aca="false">SUM(B28:G28)</f>
         <v>25304</v>
       </c>
@@ -6113,28 +6781,28 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="71" t="s">
+      <c r="A31" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="72" t="n">
+      <c r="B31" s="83" t="n">
         <v>18098</v>
       </c>
-      <c r="C31" s="72" t="n">
+      <c r="C31" s="83" t="n">
         <v>9219</v>
       </c>
-      <c r="D31" s="72" t="n">
+      <c r="D31" s="83" t="n">
         <v>2347</v>
       </c>
-      <c r="E31" s="72" t="n">
+      <c r="E31" s="83" t="n">
         <v>232</v>
       </c>
-      <c r="F31" s="72" t="n">
+      <c r="F31" s="83" t="n">
         <v>7200</v>
       </c>
-      <c r="G31" s="72" t="n">
+      <c r="G31" s="83" t="n">
         <v>8497</v>
       </c>
-      <c r="H31" s="73" t="n">
+      <c r="H31" s="84" t="n">
         <f aca="false">SUM(B31:G31)</f>
         <v>45593</v>
       </c>
@@ -6157,4 +6825,5834 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K70"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="21.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="33" t="n">
+        <v>1372</v>
+      </c>
+      <c r="C3" s="33" t="n">
+        <v>776</v>
+      </c>
+      <c r="D3" s="33" t="n">
+        <v>239</v>
+      </c>
+      <c r="E3" s="33" t="n">
+        <v>24</v>
+      </c>
+      <c r="F3" s="33" t="n">
+        <v>606</v>
+      </c>
+      <c r="G3" s="33" t="n">
+        <v>821</v>
+      </c>
+      <c r="H3" s="22" t="n">
+        <f aca="false">SUM(B3:G3)</f>
+        <v>3838</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="7" t="n">
+        <v>73045</v>
+      </c>
+      <c r="C4" s="7" t="n">
+        <v>35770</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>11997</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1042</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>35077</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>38014</v>
+      </c>
+      <c r="H4" s="47" t="n">
+        <f aca="false">SUM(B4:G4)</f>
+        <v>194945</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="7" t="n">
+        <v>43620</v>
+      </c>
+      <c r="C5" s="7" t="n">
+        <v>22243</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>7575</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>608</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>20315</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>22736</v>
+      </c>
+      <c r="H5" s="47" t="n">
+        <f aca="false">SUM(B5:G5)</f>
+        <v>117097</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="30" t="n">
+        <v>28256</v>
+      </c>
+      <c r="C6" s="30" t="n">
+        <v>12995</v>
+      </c>
+      <c r="D6" s="52" t="n">
+        <v>4273</v>
+      </c>
+      <c r="E6" s="52" t="n">
+        <v>370</v>
+      </c>
+      <c r="F6" s="52" t="n">
+        <v>14322</v>
+      </c>
+      <c r="G6" s="52" t="n">
+        <v>14494</v>
+      </c>
+      <c r="H6" s="54" t="n">
+        <f aca="false">SUM(B6:G6)</f>
+        <v>74710</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="7" t="n">
+        <v>3851</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <v>1577</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>575</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>2218</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>2179</v>
+      </c>
+      <c r="H7" s="47"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="58" t="n">
+        <f aca="false">B5+B6-B7</f>
+        <v>68025</v>
+      </c>
+      <c r="C8" s="58" t="n">
+        <f aca="false">C5+C6-C7</f>
+        <v>33661</v>
+      </c>
+      <c r="D8" s="88" t="n">
+        <f aca="false">D5+D6-D7</f>
+        <v>11273</v>
+      </c>
+      <c r="E8" s="88" t="n">
+        <f aca="false">E5+E6-E7</f>
+        <v>944</v>
+      </c>
+      <c r="F8" s="88" t="n">
+        <f aca="false">F5+F6-F7</f>
+        <v>32419</v>
+      </c>
+      <c r="G8" s="88" t="n">
+        <f aca="false">G5+G6-G7</f>
+        <v>35051</v>
+      </c>
+      <c r="H8" s="89" t="n">
+        <f aca="false">SUM(B8:G8)</f>
+        <v>181373</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="7" t="n">
+        <v>1169</v>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>532</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>149</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>64</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>440</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>784</v>
+      </c>
+      <c r="H9" s="47" t="n">
+        <f aca="false">SUM(B9:G9)</f>
+        <v>3138</v>
+      </c>
+      <c r="J9" s="70" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="47"/>
+      <c r="J10" s="90" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="30" t="n">
+        <v>24090</v>
+      </c>
+      <c r="C11" s="30" t="n">
+        <v>13594</v>
+      </c>
+      <c r="D11" s="52" t="n">
+        <v>3793</v>
+      </c>
+      <c r="E11" s="52" t="n">
+        <v>348</v>
+      </c>
+      <c r="F11" s="52" t="n">
+        <v>10405</v>
+      </c>
+      <c r="G11" s="52" t="n">
+        <v>12620</v>
+      </c>
+      <c r="H11" s="47" t="n">
+        <f aca="false">SUM(B11:G11)</f>
+        <v>64850</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="33" t="n">
+        <v>32078</v>
+      </c>
+      <c r="C12" s="33" t="n">
+        <v>17939</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>5369</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>529</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>14916</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>16609</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <f aca="false">SUM(B12:G12)</f>
+        <v>87440</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="7" t="n">
+        <v>10616</v>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>6365</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1770</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>139</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>4386</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>5139</v>
+      </c>
+      <c r="H13" s="47" t="n">
+        <f aca="false">SUM(B13:G13)</f>
+        <v>28415</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="30" t="n">
+        <v>21462</v>
+      </c>
+      <c r="C14" s="30" t="n">
+        <v>11574</v>
+      </c>
+      <c r="D14" s="52" t="n">
+        <v>3599</v>
+      </c>
+      <c r="E14" s="52" t="n">
+        <v>390</v>
+      </c>
+      <c r="F14" s="52" t="n">
+        <v>10530</v>
+      </c>
+      <c r="G14" s="52" t="n">
+        <v>11470</v>
+      </c>
+      <c r="H14" s="54" t="n">
+        <f aca="false">SUM(B14:G14)</f>
+        <v>59025</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="7" t="n">
+        <v>1312</v>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>772</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>238</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>592</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>807</v>
+      </c>
+      <c r="H15" s="47"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="14" t="n">
+        <v>2945</v>
+      </c>
+      <c r="C16" s="14" t="n">
+        <v>95</v>
+      </c>
+      <c r="D16" s="59" t="n">
+        <v>43</v>
+      </c>
+      <c r="E16" s="59" t="n">
+        <v>13</v>
+      </c>
+      <c r="F16" s="59" t="n">
+        <v>57</v>
+      </c>
+      <c r="G16" s="59" t="n">
+        <v>130</v>
+      </c>
+      <c r="H16" s="60" t="n">
+        <f aca="false">SUM(B16:G16)</f>
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="33" t="n">
+        <v>9241</v>
+      </c>
+      <c r="C17" s="33" t="n">
+        <v>5114</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>1820</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>4981</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>5129</v>
+      </c>
+      <c r="H17" s="3" t="n">
+        <f aca="false">SUM(B17:G17)</f>
+        <v>26474</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="47" t="n">
+        <f aca="false">SUM(B18:G18)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="91" t="n">
+        <v>9241</v>
+      </c>
+      <c r="C19" s="30" t="n">
+        <v>5114</v>
+      </c>
+      <c r="D19" s="52" t="n">
+        <v>1819</v>
+      </c>
+      <c r="E19" s="52" t="n">
+        <v>189</v>
+      </c>
+      <c r="F19" s="52" t="n">
+        <v>4981</v>
+      </c>
+      <c r="G19" s="52" t="n">
+        <v>5129</v>
+      </c>
+      <c r="H19" s="54" t="n">
+        <f aca="false">SUM(B19:G19)</f>
+        <v>26473</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="7" t="n">
+        <v>1331</v>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>460</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>162</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>395</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>493</v>
+      </c>
+      <c r="H20" s="47"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="14" t="n">
+        <v>2491</v>
+      </c>
+      <c r="C21" s="14" t="n">
+        <v>314</v>
+      </c>
+      <c r="D21" s="59" t="n">
+        <v>89</v>
+      </c>
+      <c r="E21" s="59" t="n">
+        <v>9</v>
+      </c>
+      <c r="F21" s="59" t="n">
+        <v>164</v>
+      </c>
+      <c r="G21" s="59" t="n">
+        <v>363</v>
+      </c>
+      <c r="H21" s="60" t="n">
+        <f aca="false">SUM(B21:G21)</f>
+        <v>3430</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="7" t="n">
+        <v>25121</v>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>12503</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>3301</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>364</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>9527</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>12268</v>
+      </c>
+      <c r="H22" s="47" t="n">
+        <f aca="false">SUM(B22:G22)</f>
+        <v>63084</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="49"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G24" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="31" t="n">
+        <f aca="false">H11+H14-H16+H19-H21</f>
+        <v>143635</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="18"/>
+      <c r="B26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="K26" s="62" t="n">
+        <f aca="false">4.8/737</f>
+        <v>0.00651289009497965</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="92" t="n">
+        <f aca="false">B6*K26</f>
+        <v>184.028222523745</v>
+      </c>
+      <c r="C27" s="92" t="n">
+        <f aca="false">C6*K26</f>
+        <v>84.6350067842605</v>
+      </c>
+      <c r="D27" s="65" t="n">
+        <f aca="false">D6*K26</f>
+        <v>27.829579375848</v>
+      </c>
+      <c r="E27" s="65" t="n">
+        <f aca="false">E6*K26</f>
+        <v>2.40976933514247</v>
+      </c>
+      <c r="F27" s="92" t="n">
+        <f aca="false">F6*K26</f>
+        <v>93.2776119402985</v>
+      </c>
+      <c r="G27" s="92" t="n">
+        <f aca="false">G6*K26</f>
+        <v>94.397829036635</v>
+      </c>
+      <c r="H27" s="93" t="n">
+        <f aca="false">SUM(B27:G27)</f>
+        <v>486.578018995929</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="K27" s="62" t="n">
+        <f aca="false">6/378</f>
+        <v>0.0158730158730159</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="67" t="n">
+        <f aca="false">B27/24</f>
+        <v>7.66784260515604</v>
+      </c>
+      <c r="C28" s="67" t="n">
+        <f aca="false">C27/24</f>
+        <v>3.52645861601085</v>
+      </c>
+      <c r="D28" s="67" t="n">
+        <f aca="false">D27/24</f>
+        <v>1.159565807327</v>
+      </c>
+      <c r="E28" s="67" t="n">
+        <f aca="false">E27/24</f>
+        <v>0.100407055630936</v>
+      </c>
+      <c r="F28" s="67" t="n">
+        <f aca="false">F27/24</f>
+        <v>3.8865671641791</v>
+      </c>
+      <c r="G28" s="67" t="n">
+        <f aca="false">G27/24</f>
+        <v>3.93324287652646</v>
+      </c>
+      <c r="H28" s="93" t="n">
+        <f aca="false">SUM(B28:G28)</f>
+        <v>20.2740841248304</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="65" t="n">
+        <f aca="false">B14*K26</f>
+        <v>139.779647218453</v>
+      </c>
+      <c r="C29" s="65" t="n">
+        <f aca="false">C14*K26</f>
+        <v>75.3801899592944</v>
+      </c>
+      <c r="D29" s="65" t="n">
+        <f aca="false">D14*K26</f>
+        <v>23.4398914518317</v>
+      </c>
+      <c r="E29" s="65" t="n">
+        <f aca="false">E14*K26</f>
+        <v>2.54002713704206</v>
+      </c>
+      <c r="F29" s="65" t="n">
+        <f aca="false">F14*K26</f>
+        <v>68.5807327001357</v>
+      </c>
+      <c r="G29" s="65" t="n">
+        <f aca="false">G14*K26</f>
+        <v>74.7028493894166</v>
+      </c>
+      <c r="H29" s="93" t="n">
+        <f aca="false">SUM(B29:G29)</f>
+        <v>384.423337856174</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="67" t="n">
+        <f aca="false">B29/24</f>
+        <v>5.82415196743555</v>
+      </c>
+      <c r="C30" s="67" t="n">
+        <f aca="false">C29/24</f>
+        <v>3.14084124830393</v>
+      </c>
+      <c r="D30" s="67" t="n">
+        <f aca="false">D29/24</f>
+        <v>0.976662143826323</v>
+      </c>
+      <c r="E30" s="67" t="n">
+        <f aca="false">E29/24</f>
+        <v>0.105834464043419</v>
+      </c>
+      <c r="F30" s="67" t="n">
+        <f aca="false">F29/24</f>
+        <v>2.85753052917232</v>
+      </c>
+      <c r="G30" s="67" t="n">
+        <f aca="false">G29/24</f>
+        <v>3.11261872455902</v>
+      </c>
+      <c r="H30" s="93" t="n">
+        <f aca="false">SUM(B30:G30)</f>
+        <v>16.0176390773406</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="67" t="n">
+        <f aca="false">B19*K27</f>
+        <v>146.68253968254</v>
+      </c>
+      <c r="C31" s="67" t="n">
+        <f aca="false">C19*K27</f>
+        <v>81.1746031746032</v>
+      </c>
+      <c r="D31" s="65" t="n">
+        <f aca="false">C19*K27</f>
+        <v>81.1746031746032</v>
+      </c>
+      <c r="E31" s="65" t="n">
+        <f aca="false">E19*K27</f>
+        <v>3</v>
+      </c>
+      <c r="F31" s="67" t="n">
+        <f aca="false">F19*K26</f>
+        <v>32.4407055630936</v>
+      </c>
+      <c r="G31" s="67" t="n">
+        <f aca="false">G19*K27</f>
+        <v>81.4126984126984</v>
+      </c>
+      <c r="H31" s="93" t="n">
+        <f aca="false">SUM(B31:G31)</f>
+        <v>425.885150007538</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="69" t="n">
+        <f aca="false">B31/24</f>
+        <v>6.11177248677249</v>
+      </c>
+      <c r="C32" s="69" t="n">
+        <f aca="false">C31/24</f>
+        <v>3.38227513227513</v>
+      </c>
+      <c r="D32" s="69" t="n">
+        <f aca="false">D31/24</f>
+        <v>3.38227513227513</v>
+      </c>
+      <c r="E32" s="69" t="n">
+        <f aca="false">E31/24</f>
+        <v>0.125</v>
+      </c>
+      <c r="F32" s="69" t="n">
+        <f aca="false">F31/24</f>
+        <v>1.3516960651289</v>
+      </c>
+      <c r="G32" s="69" t="n">
+        <f aca="false">G31/24</f>
+        <v>3.39219576719577</v>
+      </c>
+      <c r="H32" s="94" t="n">
+        <f aca="false">SUM(B32:G32)</f>
+        <v>17.7452145836474</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H33" s="95" t="n">
+        <f aca="false">SUM(H28+H30+H32)</f>
+        <v>54.0369377858184</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <f aca="false">H33-D28-E28-D30-E30-D32-E32-C28/2-G28/3-G32/2-G30/2-G32/2</f>
+        <v>40.1643777863927</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="18"/>
+      <c r="B36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="33" t="n">
+        <f aca="false">SUM(B38+B39+B42+B45)</f>
+        <v>68029</v>
+      </c>
+      <c r="C37" s="96" t="n">
+        <f aca="false">SUM(C38+C39+C42+C45)</f>
+        <v>33664</v>
+      </c>
+      <c r="D37" s="33" t="n">
+        <f aca="false">SUM(D38+D39+D42+D45)</f>
+        <v>11274</v>
+      </c>
+      <c r="E37" s="33" t="n">
+        <f aca="false">E38+E39+E42+E45</f>
+        <v>944</v>
+      </c>
+      <c r="F37" s="33" t="n">
+        <f aca="false">F38+F39+F42+F45</f>
+        <v>32420</v>
+      </c>
+      <c r="G37" s="33" t="n">
+        <f aca="false">SUM(G38+G39+G42+G45)</f>
+        <v>35052</v>
+      </c>
+      <c r="H37" s="22"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="30" t="n">
+        <v>11899</v>
+      </c>
+      <c r="C38" s="97" t="n">
+        <v>5718</v>
+      </c>
+      <c r="D38" s="30" t="n">
+        <v>2168</v>
+      </c>
+      <c r="E38" s="30" t="n">
+        <v>193</v>
+      </c>
+      <c r="F38" s="30" t="n">
+        <v>6172</v>
+      </c>
+      <c r="G38" s="30" t="n">
+        <v>5697</v>
+      </c>
+      <c r="H38" s="8" t="n">
+        <f aca="false">SUM(B38:G38)</f>
+        <v>31847</v>
+      </c>
+      <c r="J38" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="30" t="n">
+        <v>27575</v>
+      </c>
+      <c r="C39" s="30" t="n">
+        <v>13419</v>
+      </c>
+      <c r="D39" s="30" t="n">
+        <v>4278</v>
+      </c>
+      <c r="E39" s="30" t="n">
+        <v>387</v>
+      </c>
+      <c r="F39" s="30" t="n">
+        <v>12481</v>
+      </c>
+      <c r="G39" s="30" t="n">
+        <v>13685</v>
+      </c>
+      <c r="H39" s="8" t="n">
+        <f aca="false">SUM(B39:G39)</f>
+        <v>71825</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="7" t="n">
+        <v>1237</v>
+      </c>
+      <c r="C40" s="7" t="n">
+        <v>767</v>
+      </c>
+      <c r="D40" s="7" t="n">
+        <v>235</v>
+      </c>
+      <c r="E40" s="7" t="n">
+        <v>24</v>
+      </c>
+      <c r="F40" s="7" t="n">
+        <v>598</v>
+      </c>
+      <c r="G40" s="7" t="n">
+        <v>807</v>
+      </c>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="7" t="n">
+        <v>6051</v>
+      </c>
+      <c r="C41" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D41" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="E41" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="7" t="n">
+        <v>16</v>
+      </c>
+      <c r="G41" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="H41" s="8" t="n">
+        <f aca="false">SUM(B41:G41)</f>
+        <v>6098</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="30" t="n">
+        <v>10545</v>
+      </c>
+      <c r="C42" s="30" t="n">
+        <v>5362</v>
+      </c>
+      <c r="D42" s="30" t="n">
+        <v>1731</v>
+      </c>
+      <c r="E42" s="30" t="n">
+        <v>152</v>
+      </c>
+      <c r="F42" s="30" t="n">
+        <v>5027</v>
+      </c>
+      <c r="G42" s="30" t="n">
+        <v>5855</v>
+      </c>
+      <c r="H42" s="8" t="n">
+        <f aca="false">SUM(B42:G42)</f>
+        <v>28672</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="7" t="n">
+        <v>1229</v>
+      </c>
+      <c r="C43" s="7" t="n">
+        <v>686</v>
+      </c>
+      <c r="D43" s="7" t="n">
+        <v>210</v>
+      </c>
+      <c r="E43" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="F43" s="7" t="n">
+        <v>561</v>
+      </c>
+      <c r="G43" s="7" t="n">
+        <v>724</v>
+      </c>
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="7" t="n">
+        <v>406</v>
+      </c>
+      <c r="C44" s="7" t="n">
+        <v>274</v>
+      </c>
+      <c r="D44" s="7" t="n">
+        <v>61</v>
+      </c>
+      <c r="E44" s="7" t="n">
+        <v>16</v>
+      </c>
+      <c r="F44" s="7" t="n">
+        <v>124</v>
+      </c>
+      <c r="G44" s="7" t="n">
+        <v>269</v>
+      </c>
+      <c r="H44" s="8" t="n">
+        <f aca="false">SUM(B44:G44)</f>
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="14" t="n">
+        <v>18010</v>
+      </c>
+      <c r="C45" s="14" t="n">
+        <v>9165</v>
+      </c>
+      <c r="D45" s="14" t="n">
+        <v>3097</v>
+      </c>
+      <c r="E45" s="14" t="n">
+        <v>212</v>
+      </c>
+      <c r="F45" s="14" t="n">
+        <v>8740</v>
+      </c>
+      <c r="G45" s="14" t="n">
+        <v>9815</v>
+      </c>
+      <c r="H45" s="15"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G46" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46" s="31" t="n">
+        <f aca="false">H38+H39-H41+H42-H44</f>
+        <v>125096</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J47" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="K47" s="62" t="n">
+        <f aca="false">4.8/737</f>
+        <v>0.00651289009497965</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="18"/>
+      <c r="B48" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="K48" s="62" t="n">
+        <f aca="false">6/378</f>
+        <v>0.0158730158730159</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="95" t="n">
+        <f aca="false">B39*K47</f>
+        <v>179.592944369064</v>
+      </c>
+      <c r="C49" s="95" t="n">
+        <f aca="false">C39*K47</f>
+        <v>87.3964721845319</v>
+      </c>
+      <c r="D49" s="95" t="n">
+        <f aca="false">D39*K47</f>
+        <v>27.8621438263229</v>
+      </c>
+      <c r="E49" s="95" t="n">
+        <f aca="false">E39*K47</f>
+        <v>2.52048846675712</v>
+      </c>
+      <c r="F49" s="95" t="n">
+        <f aca="false">F39*K47</f>
+        <v>81.287381275441</v>
+      </c>
+      <c r="G49" s="95" t="n">
+        <f aca="false">G39*K47</f>
+        <v>89.1289009497965</v>
+      </c>
+      <c r="H49" s="95"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="95" t="n">
+        <f aca="false">B49/24</f>
+        <v>7.48303934871099</v>
+      </c>
+      <c r="C50" s="95" t="n">
+        <f aca="false">C49/24</f>
+        <v>3.6415196743555</v>
+      </c>
+      <c r="D50" s="95" t="n">
+        <f aca="false">D49/24</f>
+        <v>1.16092265943012</v>
+      </c>
+      <c r="E50" s="95" t="n">
+        <f aca="false">E49/24</f>
+        <v>0.105020352781547</v>
+      </c>
+      <c r="F50" s="95" t="n">
+        <f aca="false">F49/24</f>
+        <v>3.38697421981004</v>
+      </c>
+      <c r="G50" s="95" t="n">
+        <f aca="false">G49/24</f>
+        <v>3.71370420624152</v>
+      </c>
+      <c r="H50" s="95"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="95" t="n">
+        <f aca="false">B42*K48</f>
+        <v>167.380952380952</v>
+      </c>
+      <c r="C51" s="95" t="n">
+        <f aca="false">C42*K47</f>
+        <v>34.9221166892809</v>
+      </c>
+      <c r="D51" s="95" t="n">
+        <f aca="false">D42*K48</f>
+        <v>27.4761904761905</v>
+      </c>
+      <c r="E51" s="95" t="n">
+        <f aca="false">E42*K47</f>
+        <v>0.989959294436906</v>
+      </c>
+      <c r="F51" s="95" t="n">
+        <f aca="false">F42*K48</f>
+        <v>79.7936507936508</v>
+      </c>
+      <c r="G51" s="95" t="n">
+        <f aca="false">G42*K48</f>
+        <v>92.9365079365079</v>
+      </c>
+      <c r="H51" s="95"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="95" t="n">
+        <f aca="false">B51/24</f>
+        <v>6.97420634920635</v>
+      </c>
+      <c r="C52" s="95" t="n">
+        <f aca="false">C51/24</f>
+        <v>1.4550881953867</v>
+      </c>
+      <c r="D52" s="95" t="n">
+        <f aca="false">D51/24</f>
+        <v>1.14484126984127</v>
+      </c>
+      <c r="E52" s="95" t="n">
+        <f aca="false">E51/24</f>
+        <v>0.0412483039348711</v>
+      </c>
+      <c r="F52" s="95" t="n">
+        <f aca="false">F51/24</f>
+        <v>3.32473544973545</v>
+      </c>
+      <c r="G52" s="95" t="n">
+        <f aca="false">G51/24</f>
+        <v>3.8723544973545</v>
+      </c>
+      <c r="H52" s="95"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="50"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="18"/>
+      <c r="B56" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G56" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H56" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" s="33" t="n">
+        <v>1372</v>
+      </c>
+      <c r="C57" s="33" t="n">
+        <v>776</v>
+      </c>
+      <c r="D57" s="33" t="n">
+        <v>239</v>
+      </c>
+      <c r="E57" s="33" t="n">
+        <v>24</v>
+      </c>
+      <c r="F57" s="33" t="n">
+        <v>606</v>
+      </c>
+      <c r="G57" s="33" t="n">
+        <v>821</v>
+      </c>
+      <c r="H57" s="22" t="n">
+        <f aca="false">SUM(B57:G57)</f>
+        <v>3838</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" s="7" t="n">
+        <v>73045</v>
+      </c>
+      <c r="C58" s="7" t="n">
+        <v>35770</v>
+      </c>
+      <c r="D58" s="5" t="n">
+        <v>11997</v>
+      </c>
+      <c r="E58" s="5" t="n">
+        <v>1042</v>
+      </c>
+      <c r="F58" s="5" t="n">
+        <v>35077</v>
+      </c>
+      <c r="G58" s="5" t="n">
+        <v>38014</v>
+      </c>
+      <c r="H58" s="47" t="n">
+        <f aca="false">SUM(B58:G58)</f>
+        <v>194945</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B59" s="30" t="n">
+        <v>43620</v>
+      </c>
+      <c r="C59" s="30" t="n">
+        <v>22243</v>
+      </c>
+      <c r="D59" s="52" t="n">
+        <v>7575</v>
+      </c>
+      <c r="E59" s="52" t="n">
+        <v>608</v>
+      </c>
+      <c r="F59" s="52" t="n">
+        <v>20315</v>
+      </c>
+      <c r="G59" s="52" t="n">
+        <v>22736</v>
+      </c>
+      <c r="H59" s="98" t="n">
+        <f aca="false">SUM(B59:G59)</f>
+        <v>117097</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="99" t="s">
+        <v>81</v>
+      </c>
+      <c r="B60" s="25" t="n">
+        <v>28256</v>
+      </c>
+      <c r="C60" s="25" t="n">
+        <v>12995</v>
+      </c>
+      <c r="D60" s="53" t="n">
+        <v>4273</v>
+      </c>
+      <c r="E60" s="53" t="n">
+        <v>370</v>
+      </c>
+      <c r="F60" s="53" t="n">
+        <v>14322</v>
+      </c>
+      <c r="G60" s="53" t="n">
+        <v>14494</v>
+      </c>
+      <c r="H60" s="54" t="n">
+        <f aca="false">SUM(B60:G60)</f>
+        <v>74710</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61" s="7" t="n">
+        <v>1169</v>
+      </c>
+      <c r="C61" s="7" t="n">
+        <v>532</v>
+      </c>
+      <c r="D61" s="5" t="n">
+        <v>149</v>
+      </c>
+      <c r="E61" s="5" t="n">
+        <v>64</v>
+      </c>
+      <c r="F61" s="5" t="n">
+        <v>440</v>
+      </c>
+      <c r="G61" s="5" t="n">
+        <v>784</v>
+      </c>
+      <c r="H61" s="47" t="n">
+        <f aca="false">SUM(B61:G61)</f>
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B62" s="7" t="n">
+        <f aca="false">B63+B64+B67+B70</f>
+        <v>90530</v>
+      </c>
+      <c r="C62" s="7" t="n">
+        <f aca="false">C63+C64+C67+C70</f>
+        <v>49150</v>
+      </c>
+      <c r="D62" s="7" t="n">
+        <f aca="false">D63+D64+D67+D70</f>
+        <v>14283</v>
+      </c>
+      <c r="E62" s="7" t="n">
+        <f aca="false">E63+E64+E67+E70</f>
+        <v>1430</v>
+      </c>
+      <c r="F62" s="7" t="n">
+        <f aca="false">F63+F64+F67+F70</f>
+        <v>39829</v>
+      </c>
+      <c r="G62" s="7" t="n">
+        <f aca="false">G63+G64+G67+G70</f>
+        <v>46626</v>
+      </c>
+      <c r="H62" s="47" t="n">
+        <f aca="false">SUM(B62:G62)</f>
+        <v>241848</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" s="7" t="n">
+        <v>24090</v>
+      </c>
+      <c r="C63" s="7" t="n">
+        <v>13594</v>
+      </c>
+      <c r="D63" s="5" t="n">
+        <v>3793</v>
+      </c>
+      <c r="E63" s="5" t="n">
+        <v>348</v>
+      </c>
+      <c r="F63" s="5" t="n">
+        <v>10405</v>
+      </c>
+      <c r="G63" s="5" t="n">
+        <v>12620</v>
+      </c>
+      <c r="H63" s="47" t="n">
+        <f aca="false">SUM(B63:G63)</f>
+        <v>64850</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64" s="33" t="n">
+        <v>32078</v>
+      </c>
+      <c r="C64" s="33" t="n">
+        <v>17939</v>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>5369</v>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>529</v>
+      </c>
+      <c r="F64" s="2" t="n">
+        <v>14916</v>
+      </c>
+      <c r="G64" s="2" t="n">
+        <v>16609</v>
+      </c>
+      <c r="H64" s="3" t="n">
+        <f aca="false">SUM(B64:G64)</f>
+        <v>87440</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B65" s="30" t="n">
+        <v>10616</v>
+      </c>
+      <c r="C65" s="30" t="n">
+        <v>6365</v>
+      </c>
+      <c r="D65" s="52" t="n">
+        <v>1770</v>
+      </c>
+      <c r="E65" s="52" t="n">
+        <v>139</v>
+      </c>
+      <c r="F65" s="52" t="n">
+        <v>4386</v>
+      </c>
+      <c r="G65" s="52" t="n">
+        <v>5139</v>
+      </c>
+      <c r="H65" s="98" t="n">
+        <f aca="false">SUM(B65:G65)</f>
+        <v>28415</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="99" t="s">
+        <v>87</v>
+      </c>
+      <c r="B66" s="25" t="n">
+        <v>21462</v>
+      </c>
+      <c r="C66" s="25" t="n">
+        <v>11574</v>
+      </c>
+      <c r="D66" s="53" t="n">
+        <v>3599</v>
+      </c>
+      <c r="E66" s="53" t="n">
+        <v>390</v>
+      </c>
+      <c r="F66" s="53" t="n">
+        <v>10530</v>
+      </c>
+      <c r="G66" s="53" t="n">
+        <v>11470</v>
+      </c>
+      <c r="H66" s="54" t="n">
+        <f aca="false">SUM(B66:G66)</f>
+        <v>59025</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="B67" s="33" t="n">
+        <v>9241</v>
+      </c>
+      <c r="C67" s="33" t="n">
+        <v>5114</v>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>1820</v>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="F67" s="2" t="n">
+        <v>4981</v>
+      </c>
+      <c r="G67" s="2" t="n">
+        <v>5129</v>
+      </c>
+      <c r="H67" s="3" t="n">
+        <f aca="false">SUM(B67:G67)</f>
+        <v>26474</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B68" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C68" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" s="98" t="n">
+        <f aca="false">SUM(B68:G68)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="B69" s="25" t="n">
+        <v>9241</v>
+      </c>
+      <c r="C69" s="25" t="n">
+        <v>5114</v>
+      </c>
+      <c r="D69" s="53" t="n">
+        <v>1819</v>
+      </c>
+      <c r="E69" s="53" t="n">
+        <v>189</v>
+      </c>
+      <c r="F69" s="53" t="n">
+        <v>4981</v>
+      </c>
+      <c r="G69" s="53" t="n">
+        <v>5129</v>
+      </c>
+      <c r="H69" s="54" t="n">
+        <f aca="false">SUM(B69:G69)</f>
+        <v>26473</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" s="14" t="n">
+        <v>25121</v>
+      </c>
+      <c r="C70" s="14" t="n">
+        <v>12503</v>
+      </c>
+      <c r="D70" s="59" t="n">
+        <v>3301</v>
+      </c>
+      <c r="E70" s="59" t="n">
+        <v>364</v>
+      </c>
+      <c r="F70" s="59" t="n">
+        <v>9527</v>
+      </c>
+      <c r="G70" s="59" t="n">
+        <v>12268</v>
+      </c>
+      <c r="H70" s="60" t="n">
+        <f aca="false">SUM(B70:G70)</f>
+        <v>63084</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A55:H55"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="18"/>
+      <c r="B1" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="7" t="n">
+        <v>24</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>239</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>606</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>776</v>
+      </c>
+      <c r="F2" s="7" t="n">
+        <v>821</v>
+      </c>
+      <c r="G2" s="7" t="n">
+        <v>1372</v>
+      </c>
+      <c r="H2" s="47" t="n">
+        <f aca="false">SUM(B2:G2)</f>
+        <v>3838</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="n">
+        <v>90</v>
+      </c>
+      <c r="D3" s="7" t="n">
+        <v>110</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>372</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>121</v>
+      </c>
+      <c r="G3" s="7" t="n">
+        <v>397</v>
+      </c>
+      <c r="H3" s="100" t="n">
+        <f aca="false">SUM(B3:G3)</f>
+        <v>1090</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <f aca="false">H3-H4</f>
+        <v>442</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="30" t="n">
+        <v>54</v>
+      </c>
+      <c r="D4" s="30" t="n">
+        <v>99</v>
+      </c>
+      <c r="E4" s="30" t="n">
+        <v>210</v>
+      </c>
+      <c r="F4" s="30" t="n">
+        <v>78</v>
+      </c>
+      <c r="G4" s="30" t="n">
+        <v>207</v>
+      </c>
+      <c r="H4" s="47" t="n">
+        <f aca="false">SUM(B4:G4)</f>
+        <v>648</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="66"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="101"/>
+      <c r="H6" s="66"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="n">
+        <f aca="false">SUM(C8+C9+C12+C15)</f>
+        <v>5940</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <f aca="false">SUM(D8+D9+D12+D15)</f>
+        <v>11597</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <f aca="false">E8+E9+E12+E15</f>
+        <v>25221</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <f aca="false">SUM(F8+F9+F12+F15)</f>
+        <v>8185</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <f aca="false">SUM(G8+G9+G12+G15)</f>
+        <v>26079</v>
+      </c>
+      <c r="H7" s="47" t="n">
+        <f aca="false">SUM(B7:G7)</f>
+        <v>77022</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="30" t="n">
+        <v>1095</v>
+      </c>
+      <c r="D8" s="30" t="n">
+        <v>2106</v>
+      </c>
+      <c r="E8" s="30" t="n">
+        <v>4740</v>
+      </c>
+      <c r="F8" s="30" t="n">
+        <v>1511</v>
+      </c>
+      <c r="G8" s="30" t="n">
+        <v>4790</v>
+      </c>
+      <c r="H8" s="47" t="n">
+        <f aca="false">SUM(B8:G8)</f>
+        <v>14242</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="30" t="n">
+        <v>2224</v>
+      </c>
+      <c r="D9" s="30" t="n">
+        <v>4287</v>
+      </c>
+      <c r="E9" s="30" t="n">
+        <v>9022</v>
+      </c>
+      <c r="F9" s="30" t="n">
+        <v>2996</v>
+      </c>
+      <c r="G9" s="30" t="n">
+        <v>9648</v>
+      </c>
+      <c r="H9" s="47" t="n">
+        <f aca="false">SUM(B9:G9)</f>
+        <v>28177</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <v>99</v>
+      </c>
+      <c r="E10" s="7" t="n">
+        <v>210</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <v>78</v>
+      </c>
+      <c r="G10" s="7" t="n">
+        <v>207</v>
+      </c>
+      <c r="H10" s="47" t="n">
+        <f aca="false">SUM(B10:G10)</f>
+        <v>648</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="E11" s="7" t="n">
+        <v>37</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <f aca="false">G9-9622</f>
+        <v>26</v>
+      </c>
+      <c r="H11" s="47" t="n">
+        <f aca="false">SUM(B11:G11)</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="52" t="n">
+        <v>920</v>
+      </c>
+      <c r="D12" s="52" t="n">
+        <v>1919</v>
+      </c>
+      <c r="E12" s="30" t="n">
+        <v>3968</v>
+      </c>
+      <c r="F12" s="52" t="n">
+        <v>1297</v>
+      </c>
+      <c r="G12" s="52" t="n">
+        <v>4242</v>
+      </c>
+      <c r="H12" s="47" t="n">
+        <f aca="false">SUM(B12:G12)</f>
+        <v>12346</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D13" s="7" t="n">
+        <v>99</v>
+      </c>
+      <c r="E13" s="7" t="n">
+        <v>204</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>178</v>
+      </c>
+      <c r="H13" s="47" t="n">
+        <f aca="false">SUM(B13:G13)</f>
+        <v>612</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="25.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <f aca="false">D12-1842</f>
+        <v>77</v>
+      </c>
+      <c r="E14" s="7" t="n">
+        <f aca="false">E12-3674</f>
+        <v>294</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <f aca="false">F12-1185</f>
+        <v>112</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <f aca="false">G12-3483</f>
+        <v>759</v>
+      </c>
+      <c r="H14" s="47" t="n">
+        <f aca="false">SUM(B14:G14)</f>
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59" t="n">
+        <v>1701</v>
+      </c>
+      <c r="D15" s="59" t="n">
+        <v>3285</v>
+      </c>
+      <c r="E15" s="14" t="n">
+        <v>7491</v>
+      </c>
+      <c r="F15" s="59" t="n">
+        <v>2381</v>
+      </c>
+      <c r="G15" s="59" t="n">
+        <v>7399</v>
+      </c>
+      <c r="H15" s="60" t="n">
+        <f aca="false">SUM(B15:G15)</f>
+        <v>22257</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="K15" s="62" t="n">
+        <f aca="false">4.8/737</f>
+        <v>0.00651289009497965</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G16" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="44" t="n">
+        <f aca="false">H8+H9-H11+H12-H14</f>
+        <v>53381</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="K16" s="62" t="n">
+        <f aca="false">6/378</f>
+        <v>0.0158730158730159</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="96"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="74"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="102"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="74"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="102"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="74"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="102"/>
+      <c r="J21" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="74"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="102"/>
+      <c r="J22" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H23" s="104"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="18"/>
+      <c r="B25" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="7" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" s="7" t="n">
+        <v>239</v>
+      </c>
+      <c r="D26" s="7" t="n">
+        <v>606</v>
+      </c>
+      <c r="E26" s="7" t="n">
+        <v>776</v>
+      </c>
+      <c r="F26" s="7" t="n">
+        <v>821</v>
+      </c>
+      <c r="G26" s="7" t="n">
+        <v>1372</v>
+      </c>
+      <c r="H26" s="47" t="n">
+        <f aca="false">SUM(B26:G26)</f>
+        <v>3838</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="7" t="n">
+        <v>90</v>
+      </c>
+      <c r="D27" s="7" t="n">
+        <v>110</v>
+      </c>
+      <c r="E27" s="7" t="n">
+        <v>372</v>
+      </c>
+      <c r="F27" s="7" t="n">
+        <v>121</v>
+      </c>
+      <c r="G27" s="7" t="n">
+        <v>397</v>
+      </c>
+      <c r="H27" s="100" t="n">
+        <f aca="false">SUM(B27:G27)</f>
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="7" t="n">
+        <v>54</v>
+      </c>
+      <c r="D28" s="7" t="n">
+        <v>99</v>
+      </c>
+      <c r="E28" s="7" t="n">
+        <v>210</v>
+      </c>
+      <c r="F28" s="7" t="n">
+        <v>78</v>
+      </c>
+      <c r="G28" s="7" t="n">
+        <v>207</v>
+      </c>
+      <c r="H28" s="47" t="n">
+        <f aca="false">SUM(B28:G28)</f>
+        <v>648</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="5" t="n">
+        <f aca="false">SUM(C30+C31+C32+C33)</f>
+        <v>5940</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <f aca="false">SUM(D30+D31+D32+D33)</f>
+        <v>11597</v>
+      </c>
+      <c r="E29" s="7" t="n">
+        <f aca="false">E30+E31+E32+E33</f>
+        <v>25221</v>
+      </c>
+      <c r="F29" s="5" t="n">
+        <f aca="false">SUM(F30+F31+F32+F33)</f>
+        <v>8185</v>
+      </c>
+      <c r="G29" s="5" t="n">
+        <f aca="false">SUM(G30+G31+G32+G33)</f>
+        <v>26079</v>
+      </c>
+      <c r="H29" s="47" t="n">
+        <f aca="false">SUM(B29:G29)</f>
+        <v>77022</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="7" t="n">
+        <v>1095</v>
+      </c>
+      <c r="D30" s="7" t="n">
+        <v>2106</v>
+      </c>
+      <c r="E30" s="7" t="n">
+        <v>4740</v>
+      </c>
+      <c r="F30" s="7" t="n">
+        <v>1511</v>
+      </c>
+      <c r="G30" s="7" t="n">
+        <v>4790</v>
+      </c>
+      <c r="H30" s="47" t="n">
+        <f aca="false">SUM(B30:G30)</f>
+        <v>14242</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="7" t="n">
+        <v>2224</v>
+      </c>
+      <c r="D31" s="7" t="n">
+        <v>4287</v>
+      </c>
+      <c r="E31" s="7" t="n">
+        <v>9022</v>
+      </c>
+      <c r="F31" s="7" t="n">
+        <v>2996</v>
+      </c>
+      <c r="G31" s="7" t="n">
+        <v>9648</v>
+      </c>
+      <c r="H31" s="47" t="n">
+        <f aca="false">SUM(B31:G31)</f>
+        <v>28177</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="5" t="n">
+        <v>920</v>
+      </c>
+      <c r="D32" s="5" t="n">
+        <v>1919</v>
+      </c>
+      <c r="E32" s="7" t="n">
+        <v>3968</v>
+      </c>
+      <c r="F32" s="5" t="n">
+        <v>1297</v>
+      </c>
+      <c r="G32" s="5" t="n">
+        <v>4242</v>
+      </c>
+      <c r="H32" s="47" t="n">
+        <f aca="false">SUM(B32:G32)</f>
+        <v>12346</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="59" t="n">
+        <v>1701</v>
+      </c>
+      <c r="D33" s="59" t="n">
+        <v>3285</v>
+      </c>
+      <c r="E33" s="14" t="n">
+        <v>7491</v>
+      </c>
+      <c r="F33" s="59" t="n">
+        <v>2381</v>
+      </c>
+      <c r="G33" s="59" t="n">
+        <v>7399</v>
+      </c>
+      <c r="H33" s="60" t="n">
+        <f aca="false">SUM(B33:G33)</f>
+        <v>22257</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A3:I58"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.50510204081633"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>43493</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="105" t="n">
+        <v>0.542169</v>
+      </c>
+      <c r="C6" s="105" t="n">
+        <v>0.739078</v>
+      </c>
+      <c r="D6" s="105" t="n">
+        <v>0.714895</v>
+      </c>
+      <c r="E6" s="105" t="n">
+        <v>0.847464</v>
+      </c>
+      <c r="F6" s="105" t="n">
+        <v>0.788177</v>
+      </c>
+      <c r="G6" s="105" t="n">
+        <v>0.925912</v>
+      </c>
+      <c r="H6" s="105" t="n">
+        <f aca="false">SUM(B6:G6)/6</f>
+        <v>0.759615833333333</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="105" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="105" t="n">
+        <v>0.993475</v>
+      </c>
+      <c r="D7" s="105" t="n">
+        <v>0.731441</v>
+      </c>
+      <c r="E7" s="105" t="n">
+        <v>0.992363</v>
+      </c>
+      <c r="F7" s="105" t="n">
+        <v>0.981595</v>
+      </c>
+      <c r="G7" s="105" t="n">
+        <v>0.744211</v>
+      </c>
+      <c r="H7" s="105" t="n">
+        <f aca="false">SUM(B7:G7)/6</f>
+        <v>0.907180833333333</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="105" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="105" t="n">
+        <v>0.000294638</v>
+      </c>
+      <c r="D8" s="105" t="n">
+        <v>0.0510077</v>
+      </c>
+      <c r="E8" s="105" t="n">
+        <v>0.00154639</v>
+      </c>
+      <c r="F8" s="105" t="n">
+        <v>0.00396301</v>
+      </c>
+      <c r="G8" s="105" t="n">
+        <v>0.187852</v>
+      </c>
+      <c r="H8" s="105" t="n">
+        <f aca="false">SUM(B8:G8)/6</f>
+        <v>0.0407772896666667</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="105" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="C9" s="105" t="n">
+        <v>0.847599</v>
+      </c>
+      <c r="D9" s="105" t="n">
+        <v>0.723074</v>
+      </c>
+      <c r="E9" s="105" t="n">
+        <v>0.914208</v>
+      </c>
+      <c r="F9" s="105" t="n">
+        <v>0.874317</v>
+      </c>
+      <c r="G9" s="105" t="n">
+        <v>0.825177</v>
+      </c>
+      <c r="H9" s="105" t="n">
+        <f aca="false">SUM(B9:G9)/6</f>
+        <v>0.814583333333333</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>20683</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>6867</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="105" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="105" t="n">
+        <v>0.868512</v>
+      </c>
+      <c r="D15" s="105" t="n">
+        <v>0.948357</v>
+      </c>
+      <c r="E15" s="105" t="n">
+        <v>0.955648</v>
+      </c>
+      <c r="F15" s="105" t="n">
+        <v>0.915682</v>
+      </c>
+      <c r="G15" s="105" t="n">
+        <v>0.951774</v>
+      </c>
+      <c r="H15" s="105" t="n">
+        <f aca="false">SUM(B15:G15)/6</f>
+        <v>0.9399955</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="105" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="105" t="n">
+        <v>0.990138</v>
+      </c>
+      <c r="D16" s="105" t="n">
+        <v>0.865891</v>
+      </c>
+      <c r="E16" s="105" t="n">
+        <v>0.998147</v>
+      </c>
+      <c r="F16" s="105" t="n">
+        <v>0.992314</v>
+      </c>
+      <c r="G16" s="105" t="n">
+        <v>0.90226</v>
+      </c>
+      <c r="H16" s="105" t="n">
+        <f aca="false">SUM(B16:G16)/6</f>
+        <v>0.958125</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="105" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="105" t="n">
+        <v>0.000795039</v>
+      </c>
+      <c r="D17" s="105" t="n">
+        <v>0.0407366</v>
+      </c>
+      <c r="E17" s="105" t="n">
+        <v>0.000579598</v>
+      </c>
+      <c r="F17" s="105" t="n">
+        <v>0.00160772</v>
+      </c>
+      <c r="G17" s="105" t="n">
+        <v>0.0367371</v>
+      </c>
+      <c r="H17" s="105" t="n">
+        <f aca="false">SUM(B17:G17)/6</f>
+        <v>0.0134093428333333</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="105" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="105" t="n">
+        <v>0.925346</v>
+      </c>
+      <c r="D18" s="105" t="n">
+        <v>0.90525</v>
+      </c>
+      <c r="E18" s="105" t="n">
+        <v>0.976435</v>
+      </c>
+      <c r="F18" s="105" t="n">
+        <v>0.952459</v>
+      </c>
+      <c r="G18" s="105" t="n">
+        <v>0.926356</v>
+      </c>
+      <c r="H18" s="105" t="n">
+        <f aca="false">SUM(B18:G18)/6</f>
+        <v>0.947641</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>84461</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>28536</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="105" t="n">
+        <v>0.416667</v>
+      </c>
+      <c r="C23" s="105" t="n">
+        <v>0.730404</v>
+      </c>
+      <c r="D23" s="105" t="n">
+        <v>0.688268</v>
+      </c>
+      <c r="E23" s="105" t="n">
+        <v>0.835673</v>
+      </c>
+      <c r="F23" s="105" t="n">
+        <v>0.768281</v>
+      </c>
+      <c r="G23" s="105" t="n">
+        <v>0.876955</v>
+      </c>
+      <c r="H23" s="105" t="n">
+        <v>0.971252</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <f aca="false">SUM(B23:H23)/7</f>
+        <v>0.755357142857143</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" s="105" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="105" t="n">
+        <v>0.995146</v>
+      </c>
+      <c r="D24" s="105" t="n">
+        <v>0.706522</v>
+      </c>
+      <c r="E24" s="105" t="n">
+        <v>0.985466</v>
+      </c>
+      <c r="F24" s="105" t="n">
+        <v>0.977263</v>
+      </c>
+      <c r="G24" s="105" t="n">
+        <v>0.718798</v>
+      </c>
+      <c r="H24" s="105" t="n">
+        <v>0.953796</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <f aca="false">SUM(B24:H24)/7</f>
+        <v>0.905284428571428</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="105" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="105" t="n">
+        <v>0.000108327</v>
+      </c>
+      <c r="D25" s="105" t="n">
+        <v>0.025788</v>
+      </c>
+      <c r="E25" s="105" t="n">
+        <v>0.00140543</v>
+      </c>
+      <c r="F25" s="105" t="n">
+        <v>0.00216034</v>
+      </c>
+      <c r="G25" s="105" t="n">
+        <v>0.0795631</v>
+      </c>
+      <c r="H25" s="105" t="n">
+        <v>0.0445521</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <f aca="false">SUM(B25:H25)/7</f>
+        <v>0.0219396138571429</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" s="105" t="n">
+        <v>0.588235</v>
+      </c>
+      <c r="C26" s="105" t="n">
+        <v>0.842466</v>
+      </c>
+      <c r="D26" s="105" t="n">
+        <v>0.697275</v>
+      </c>
+      <c r="E26" s="105" t="n">
+        <v>0.904409</v>
+      </c>
+      <c r="F26" s="105" t="n">
+        <v>0.860262</v>
+      </c>
+      <c r="G26" s="105" t="n">
+        <v>0.790039</v>
+      </c>
+      <c r="H26" s="105" t="n">
+        <v>0.962445</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <f aca="false">SUM(B26:H26)/7</f>
+        <v>0.806447285714286</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="17"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>84646</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>28351</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>0.945738656727</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0.0280555555556</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0.957856909507</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0.970289748492</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="5" t="n">
+        <v>14026</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="5" t="n">
+        <v>4635</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41" s="105" t="n">
+        <v>0.934783</v>
+      </c>
+      <c r="C41" s="105" t="n">
+        <v>0.919149</v>
+      </c>
+      <c r="D41" s="105" t="n">
+        <v>0.971687</v>
+      </c>
+      <c r="E41" s="105" t="n">
+        <v>0.967254</v>
+      </c>
+      <c r="F41" s="105" t="n">
+        <v>0.968421</v>
+      </c>
+      <c r="G41" s="105" t="n">
+        <v>0.911</v>
+      </c>
+      <c r="H41" s="105" t="n">
+        <f aca="false">SUM(B41:G41)/6</f>
+        <v>0.945382333333333</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="105" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="105" t="n">
+        <v>0.984055</v>
+      </c>
+      <c r="D42" s="105" t="n">
+        <v>0.828986</v>
+      </c>
+      <c r="E42" s="105" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="105" t="n">
+        <v>0.986355</v>
+      </c>
+      <c r="G42" s="105" t="n">
+        <v>0.969149</v>
+      </c>
+      <c r="H42" s="105" t="n">
+        <f aca="false">SUM(B42:G42)/6</f>
+        <v>0.961424166666667</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" s="105" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" s="105" t="n">
+        <v>0.00168067</v>
+      </c>
+      <c r="D43" s="105" t="n">
+        <v>0.0471748</v>
+      </c>
+      <c r="E43" s="105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="105" t="n">
+        <v>0.00389972</v>
+      </c>
+      <c r="G43" s="105" t="n">
+        <v>0.00797799</v>
+      </c>
+      <c r="H43" s="105" t="n">
+        <f aca="false">SUM(B43:G43)/6</f>
+        <v>0.0101221966666667</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" s="105" t="n">
+        <v>0.966292</v>
+      </c>
+      <c r="C44" s="105" t="n">
+        <v>0.950495</v>
+      </c>
+      <c r="D44" s="105" t="n">
+        <v>0.894682</v>
+      </c>
+      <c r="E44" s="105" t="n">
+        <v>0.983355</v>
+      </c>
+      <c r="F44" s="105" t="n">
+        <v>0.977306</v>
+      </c>
+      <c r="G44" s="105" t="n">
+        <v>0.939175</v>
+      </c>
+      <c r="H44" s="105" t="n">
+        <f aca="false">SUM(B44:G44)/6</f>
+        <v>0.951884166666667</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" s="5" t="n">
+        <v>31283</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B52" s="5" t="n">
+        <v>10357</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" s="105" t="n">
+        <v>0.824324</v>
+      </c>
+      <c r="C54" s="105" t="n">
+        <v>0.735816</v>
+      </c>
+      <c r="D54" s="105" t="n">
+        <v>0.757152</v>
+      </c>
+      <c r="E54" s="105" t="n">
+        <v>0.86182</v>
+      </c>
+      <c r="F54" s="105" t="n">
+        <v>0.786758</v>
+      </c>
+      <c r="G54" s="105" t="n">
+        <v>0.931606</v>
+      </c>
+      <c r="H54" s="105" t="n">
+        <f aca="false">SUM(B54:G54)/6</f>
+        <v>0.816246</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" s="105" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" s="105" t="n">
+        <v>0.995204</v>
+      </c>
+      <c r="D55" s="105" t="n">
+        <v>0.739292</v>
+      </c>
+      <c r="E55" s="105" t="n">
+        <v>0.991141</v>
+      </c>
+      <c r="F55" s="105" t="n">
+        <v>0.9844</v>
+      </c>
+      <c r="G55" s="105" t="n">
+        <v>0.757549</v>
+      </c>
+      <c r="H55" s="105" t="n">
+        <f aca="false">SUM(B55:G55)/6</f>
+        <v>0.911264333333333</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" s="105" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" s="105" t="n">
+        <v>0.000204228</v>
+      </c>
+      <c r="D56" s="105" t="n">
+        <v>0.0478142</v>
+      </c>
+      <c r="E56" s="105" t="n">
+        <v>0.00193237</v>
+      </c>
+      <c r="F56" s="105" t="n">
+        <v>0.00361101</v>
+      </c>
+      <c r="G56" s="105" t="n">
+        <v>0.168733</v>
+      </c>
+      <c r="H56" s="105" t="n">
+        <f aca="false">SUM(B56:G56)/6</f>
+        <v>0.0370491346666667</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57" s="105" t="n">
+        <v>0.903704</v>
+      </c>
+      <c r="C57" s="105" t="n">
+        <v>0.846075</v>
+      </c>
+      <c r="D57" s="105" t="n">
+        <v>0.748116</v>
+      </c>
+      <c r="E57" s="105" t="n">
+        <v>0.921968</v>
+      </c>
+      <c r="F57" s="105" t="n">
+        <v>0.874552</v>
+      </c>
+      <c r="G57" s="105" t="n">
+        <v>0.83561</v>
+      </c>
+      <c r="H57" s="105" t="n">
+        <f aca="false">SUM(B57:G57)/6</f>
+        <v>0.855004166666667</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58" s="105" t="n">
+        <v>0.998745</v>
+      </c>
+      <c r="C58" s="105" t="n">
+        <v>0.98542</v>
+      </c>
+      <c r="D58" s="105" t="n">
+        <v>0.922564</v>
+      </c>
+      <c r="E58" s="105" t="n">
+        <v>0.970744</v>
+      </c>
+      <c r="F58" s="105" t="n">
+        <v>0.94931</v>
+      </c>
+      <c r="G58" s="105" t="n">
+        <v>0.867529</v>
+      </c>
+      <c r="H58" s="105" t="n">
+        <f aca="false">SUM(B58:G58)/6</f>
+        <v>0.949052</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A28:B28"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K40"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="33" t="n">
+        <v>1372</v>
+      </c>
+      <c r="C3" s="33" t="n">
+        <v>776</v>
+      </c>
+      <c r="D3" s="33" t="n">
+        <v>239</v>
+      </c>
+      <c r="E3" s="33" t="n">
+        <v>24</v>
+      </c>
+      <c r="F3" s="33" t="n">
+        <v>606</v>
+      </c>
+      <c r="G3" s="33" t="n">
+        <v>821</v>
+      </c>
+      <c r="H3" s="22" t="n">
+        <f aca="false">SUM(B3:G3)</f>
+        <v>3838</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="7" t="n">
+        <v>87280</v>
+      </c>
+      <c r="C4" s="7" t="n">
+        <v>46005</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>14330</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1216</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>41597</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>45483</v>
+      </c>
+      <c r="H4" s="47" t="n">
+        <f aca="false">SUM(B4:G4)</f>
+        <v>235911</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="7" t="n">
+        <v>43744</v>
+      </c>
+      <c r="C5" s="7" t="n">
+        <v>22103</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>7685</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>658</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>20466</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>22847</v>
+      </c>
+      <c r="H5" s="47" t="n">
+        <f aca="false">SUM(B5:G5)</f>
+        <v>117503</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="30" t="n">
+        <v>41927</v>
+      </c>
+      <c r="C6" s="30" t="n">
+        <v>22952</v>
+      </c>
+      <c r="D6" s="52" t="n">
+        <v>6538</v>
+      </c>
+      <c r="E6" s="52" t="n">
+        <v>521</v>
+      </c>
+      <c r="F6" s="52" t="n">
+        <v>20447</v>
+      </c>
+      <c r="G6" s="52" t="n">
+        <v>21778</v>
+      </c>
+      <c r="H6" s="54" t="n">
+        <f aca="false">SUM(B6:G6)</f>
+        <v>114163</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="7" t="n">
+        <v>10589</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <v>6324</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1863</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>103</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>5100</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>5727</v>
+      </c>
+      <c r="H7" s="47"/>
+      <c r="J7" s="38" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="58" t="n">
+        <f aca="false">B5+B6-B7</f>
+        <v>75082</v>
+      </c>
+      <c r="C8" s="58" t="n">
+        <f aca="false">C5+C6-C7</f>
+        <v>38731</v>
+      </c>
+      <c r="D8" s="88" t="n">
+        <f aca="false">D5+D6-D7</f>
+        <v>12360</v>
+      </c>
+      <c r="E8" s="88" t="n">
+        <f aca="false">E5+E6-E7</f>
+        <v>1076</v>
+      </c>
+      <c r="F8" s="88" t="n">
+        <f aca="false">F5+F6-F7</f>
+        <v>35813</v>
+      </c>
+      <c r="G8" s="88" t="n">
+        <f aca="false">G5+G6-G7</f>
+        <v>38898</v>
+      </c>
+      <c r="H8" s="89" t="n">
+        <f aca="false">SUM(B8:G8)</f>
+        <v>201960</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="7" t="n">
+        <v>1609</v>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>950</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>107</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>37</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>684</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>858</v>
+      </c>
+      <c r="H9" s="47" t="n">
+        <f aca="false">SUM(B9:G9)</f>
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="47"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="30" t="n">
+        <v>18330</v>
+      </c>
+      <c r="C11" s="30" t="n">
+        <v>8875</v>
+      </c>
+      <c r="D11" s="52" t="n">
+        <v>2848</v>
+      </c>
+      <c r="E11" s="52" t="n">
+        <v>274</v>
+      </c>
+      <c r="F11" s="52" t="n">
+        <v>7911</v>
+      </c>
+      <c r="G11" s="52" t="n">
+        <v>9381</v>
+      </c>
+      <c r="H11" s="47" t="n">
+        <f aca="false">SUM(B11:G11)</f>
+        <v>47619</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="33" t="n">
+        <v>27609</v>
+      </c>
+      <c r="C12" s="33" t="n">
+        <v>14146</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>4567</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>487</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>12313</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>14252</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <f aca="false">SUM(B12:G12)</f>
+        <v>73374</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="7" t="n">
+        <v>10909</v>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>5800</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1732</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>4283</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>5421</v>
+      </c>
+      <c r="H13" s="47" t="n">
+        <f aca="false">SUM(B13:G13)</f>
+        <v>28310</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="30" t="n">
+        <v>16700</v>
+      </c>
+      <c r="C14" s="30" t="n">
+        <v>8346</v>
+      </c>
+      <c r="D14" s="52" t="n">
+        <v>2835</v>
+      </c>
+      <c r="E14" s="52" t="n">
+        <v>322</v>
+      </c>
+      <c r="F14" s="52" t="n">
+        <v>8030</v>
+      </c>
+      <c r="G14" s="52" t="n">
+        <v>8831</v>
+      </c>
+      <c r="H14" s="54" t="n">
+        <f aca="false">SUM(B14:G14)</f>
+        <v>45064</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="7" t="n">
+        <v>1252</v>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>722</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>229</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>566</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>759</v>
+      </c>
+      <c r="H15" s="47"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="14" t="n">
+        <v>599</v>
+      </c>
+      <c r="C16" s="14" t="n">
+        <v>86</v>
+      </c>
+      <c r="D16" s="59" t="n">
+        <v>12</v>
+      </c>
+      <c r="E16" s="59" t="n">
+        <v>22</v>
+      </c>
+      <c r="F16" s="59" t="n">
+        <v>27</v>
+      </c>
+      <c r="G16" s="59" t="n">
+        <v>70</v>
+      </c>
+      <c r="H16" s="60" t="n">
+        <f aca="false">SUM(B16:G16)</f>
+        <v>816</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="106" t="n">
+        <v>9510</v>
+      </c>
+      <c r="C17" s="106" t="n">
+        <v>4899</v>
+      </c>
+      <c r="D17" s="107" t="n">
+        <v>1573</v>
+      </c>
+      <c r="E17" s="107" t="n">
+        <v>185</v>
+      </c>
+      <c r="F17" s="107" t="n">
+        <v>4422</v>
+      </c>
+      <c r="G17" s="107" t="n">
+        <v>4638</v>
+      </c>
+      <c r="H17" s="3" t="n">
+        <f aca="false">SUM(B17:G17)</f>
+        <v>25227</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="7" t="n">
+        <v>1678</v>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>1102</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>202</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>690</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>938</v>
+      </c>
+      <c r="H18" s="47" t="n">
+        <f aca="false">SUM(B18:G18)</f>
+        <v>4636</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="7" t="n">
+        <v>7832</v>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>3797</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>1371</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>159</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>3732</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>3700</v>
+      </c>
+      <c r="H19" s="54" t="n">
+        <f aca="false">SUM(B19:G19)</f>
+        <v>20591</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="7" t="n">
+        <v>871</v>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>504</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>407</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>513</v>
+      </c>
+      <c r="H20" s="47"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="14" t="n">
+        <v>337</v>
+      </c>
+      <c r="C21" s="14" t="n">
+        <v>345</v>
+      </c>
+      <c r="D21" s="59" t="n">
+        <v>78</v>
+      </c>
+      <c r="E21" s="59" t="n">
+        <v>43</v>
+      </c>
+      <c r="F21" s="59" t="n">
+        <v>130</v>
+      </c>
+      <c r="G21" s="59" t="n">
+        <v>280</v>
+      </c>
+      <c r="H21" s="60" t="n">
+        <f aca="false">SUM(B21:G21)</f>
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="7" t="n">
+        <v>20846</v>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>10995</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>2962</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>310</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>8663</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>10886</v>
+      </c>
+      <c r="H22" s="47" t="n">
+        <f aca="false">SUM(B22:G22)</f>
+        <v>54662</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="14" t="n">
+        <v>19</v>
+      </c>
+      <c r="C23" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="H23" s="49"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G24" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="31" t="n">
+        <f aca="false">H11+H14-H16+H19-H21+H13+H18</f>
+        <v>144191</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="18"/>
+      <c r="B30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="33" t="n">
+        <f aca="false">B8</f>
+        <v>75082</v>
+      </c>
+      <c r="C31" s="33" t="n">
+        <f aca="false">C8</f>
+        <v>38731</v>
+      </c>
+      <c r="D31" s="33" t="n">
+        <f aca="false">D8</f>
+        <v>12360</v>
+      </c>
+      <c r="E31" s="33" t="n">
+        <f aca="false">E8</f>
+        <v>1076</v>
+      </c>
+      <c r="F31" s="33" t="n">
+        <f aca="false">F8</f>
+        <v>35813</v>
+      </c>
+      <c r="G31" s="33" t="n">
+        <f aca="false">SUM(G32+G33+G36+G39)</f>
+        <v>38900</v>
+      </c>
+      <c r="H31" s="22"/>
+      <c r="J31" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="30" t="n">
+        <v>12910</v>
+      </c>
+      <c r="C32" s="97" t="n">
+        <v>6836</v>
+      </c>
+      <c r="D32" s="30" t="n">
+        <v>2304</v>
+      </c>
+      <c r="E32" s="30" t="n">
+        <v>181</v>
+      </c>
+      <c r="F32" s="30" t="n">
+        <v>6956</v>
+      </c>
+      <c r="G32" s="30" t="n">
+        <v>7105</v>
+      </c>
+      <c r="H32" s="8" t="n">
+        <f aca="false">SUM(B32:G32)</f>
+        <v>36292</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="30" t="n">
+        <v>28641</v>
+      </c>
+      <c r="C33" s="30" t="n">
+        <v>14365</v>
+      </c>
+      <c r="D33" s="30" t="n">
+        <v>4623</v>
+      </c>
+      <c r="E33" s="30" t="n">
+        <v>380</v>
+      </c>
+      <c r="F33" s="30" t="n">
+        <v>13535</v>
+      </c>
+      <c r="G33" s="30" t="n">
+        <v>14344</v>
+      </c>
+      <c r="H33" s="8" t="n">
+        <f aca="false">SUM(B33:G33)</f>
+        <v>75888</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="7" t="n">
+        <v>1331</v>
+      </c>
+      <c r="C34" s="7" t="n">
+        <v>756</v>
+      </c>
+      <c r="D34" s="7" t="n">
+        <v>222</v>
+      </c>
+      <c r="E34" s="7" t="n">
+        <v>23</v>
+      </c>
+      <c r="F34" s="7" t="n">
+        <v>595</v>
+      </c>
+      <c r="G34" s="7" t="n">
+        <v>802</v>
+      </c>
+      <c r="H34" s="8"/>
+      <c r="J34" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="7" t="n">
+        <v>29</v>
+      </c>
+      <c r="C35" s="7" t="n">
+        <v>58</v>
+      </c>
+      <c r="D35" s="7" t="n">
+        <v>805</v>
+      </c>
+      <c r="E35" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="7" t="n">
+        <v>50</v>
+      </c>
+      <c r="G35" s="7" t="n">
+        <v>66</v>
+      </c>
+      <c r="H35" s="8" t="n">
+        <f aca="false">SUM(B35:G35)</f>
+        <v>1009</v>
+      </c>
+      <c r="J35" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="30" t="n">
+        <v>12152</v>
+      </c>
+      <c r="C36" s="30" t="n">
+        <v>6196</v>
+      </c>
+      <c r="D36" s="30" t="n">
+        <v>1889</v>
+      </c>
+      <c r="E36" s="30" t="n">
+        <v>119</v>
+      </c>
+      <c r="F36" s="30" t="n">
+        <v>5570</v>
+      </c>
+      <c r="G36" s="30" t="n">
+        <v>6077</v>
+      </c>
+      <c r="H36" s="8" t="n">
+        <f aca="false">SUM(B36:G36)</f>
+        <v>32003</v>
+      </c>
+      <c r="J36" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="K36" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="7" t="n">
+        <v>1259</v>
+      </c>
+      <c r="C37" s="7" t="n">
+        <v>691</v>
+      </c>
+      <c r="D37" s="7" t="n">
+        <v>218</v>
+      </c>
+      <c r="E37" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="F37" s="7" t="n">
+        <v>550</v>
+      </c>
+      <c r="G37" s="7" t="n">
+        <v>734</v>
+      </c>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="7" t="n">
+        <v>411</v>
+      </c>
+      <c r="C38" s="7" t="n">
+        <v>448</v>
+      </c>
+      <c r="D38" s="7" t="n">
+        <v>99</v>
+      </c>
+      <c r="E38" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="F38" s="7" t="n">
+        <v>172</v>
+      </c>
+      <c r="G38" s="7" t="n">
+        <v>337</v>
+      </c>
+      <c r="H38" s="8" t="n">
+        <f aca="false">SUM(B38:G38)</f>
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="14" t="n">
+        <v>21382</v>
+      </c>
+      <c r="C39" s="14" t="n">
+        <v>11337</v>
+      </c>
+      <c r="D39" s="14" t="n">
+        <v>3545</v>
+      </c>
+      <c r="E39" s="14" t="n">
+        <v>396</v>
+      </c>
+      <c r="F39" s="14" t="n">
+        <v>9753</v>
+      </c>
+      <c r="G39" s="14" t="n">
+        <v>11374</v>
+      </c>
+      <c r="H39" s="15"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="n">
+        <f aca="false">SUM(B32+B33+B36+B39)</f>
+        <v>75085</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <f aca="false">SUM(C32+C33+C36+C39)</f>
+        <v>38734</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <f aca="false">SUM(D32+D33+D36+D39)</f>
+        <v>12361</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <f aca="false">SUM(E32+E33+E36+E39)</f>
+        <v>1076</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <f aca="false">SUM(F32+F33+F36+F39)</f>
+        <v>35814</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <f aca="false">SUM(G32+G33+G36+G39)</f>
+        <v>38900</v>
+      </c>
+      <c r="H40" s="31" t="n">
+        <f aca="false">H32+H33-H35+H36-H38</f>
+        <v>141690</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A29:H29"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A4:H24"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
+  </cols>
+  <sheetData>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="105" t="n">
+        <v>0.992218</v>
+      </c>
+      <c r="C6" s="105" t="n">
+        <v>0.909209</v>
+      </c>
+      <c r="D6" s="105" t="n">
+        <v>0.788586</v>
+      </c>
+      <c r="E6" s="105" t="n">
+        <v>0.857328</v>
+      </c>
+      <c r="F6" s="105" t="n">
+        <v>0.854734</v>
+      </c>
+      <c r="G6" s="105" t="n">
+        <v>0.687419</v>
+      </c>
+      <c r="H6" s="108" t="n">
+        <f aca="false">SUM(B6:G6)/6</f>
+        <v>0.848249</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="105" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="105" t="n">
+        <v>0.166667</v>
+      </c>
+      <c r="D7" s="105" t="n">
+        <v>0.407273</v>
+      </c>
+      <c r="E7" s="105" t="n">
+        <v>0.623288</v>
+      </c>
+      <c r="F7" s="105" t="n">
+        <v>0.656442</v>
+      </c>
+      <c r="G7" s="105" t="n">
+        <v>0.568873</v>
+      </c>
+      <c r="H7" s="108" t="n">
+        <f aca="false">SUM(B7:G7)/6</f>
+        <v>0.403757166666667</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="105" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="105" t="n">
+        <v>0.152174</v>
+      </c>
+      <c r="D8" s="105" t="n">
+        <v>0.455285</v>
+      </c>
+      <c r="E8" s="105" t="n">
+        <v>0.627586</v>
+      </c>
+      <c r="F8" s="105" t="n">
+        <v>0.622093</v>
+      </c>
+      <c r="G8" s="105" t="n">
+        <v>0.569892</v>
+      </c>
+      <c r="H8" s="108" t="n">
+        <f aca="false">SUM(B8:G8)/6</f>
+        <v>0.404505</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="109" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="110" t="n">
+        <v>0.184211</v>
+      </c>
+      <c r="D9" s="110" t="n">
+        <v>0.368421</v>
+      </c>
+      <c r="E9" s="110" t="n">
+        <v>0.619048</v>
+      </c>
+      <c r="F9" s="110" t="n">
+        <v>0.694805</v>
+      </c>
+      <c r="G9" s="110" t="n">
+        <v>0.567857</v>
+      </c>
+      <c r="H9" s="111" t="n">
+        <f aca="false">SUM(C9:G9)/5</f>
+        <v>0.4868684</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="47" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="105" t="n">
+        <v>0.992788</v>
+      </c>
+      <c r="C14" s="105" t="n">
+        <v>0.909856</v>
+      </c>
+      <c r="D14" s="105" t="n">
+        <v>0.805288</v>
+      </c>
+      <c r="E14" s="105" t="n">
+        <v>0.814904</v>
+      </c>
+      <c r="F14" s="105" t="n">
+        <v>0.830529</v>
+      </c>
+      <c r="G14" s="105" t="n">
+        <v>0.617788</v>
+      </c>
+      <c r="H14" s="108" t="n">
+        <f aca="false">SUM(B14:G14)/6</f>
+        <v>0.8285255</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="105" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="105" t="n">
+        <v>0.0740741</v>
+      </c>
+      <c r="D15" s="105" t="n">
+        <v>0.313559</v>
+      </c>
+      <c r="E15" s="105" t="n">
+        <v>0.483221</v>
+      </c>
+      <c r="F15" s="105" t="n">
+        <v>0.549521</v>
+      </c>
+      <c r="G15" s="105" t="n">
+        <v>0.564384</v>
+      </c>
+      <c r="H15" s="108" t="n">
+        <f aca="false">SUM(B15:G15)/6</f>
+        <v>0.330793183333333</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" s="105" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="105" t="n">
+        <v>0.0612245</v>
+      </c>
+      <c r="D16" s="105" t="n">
+        <v>0.280303</v>
+      </c>
+      <c r="E16" s="105" t="n">
+        <v>0.467532</v>
+      </c>
+      <c r="F16" s="105" t="n">
+        <v>0.447917</v>
+      </c>
+      <c r="G16" s="105" t="n">
+        <v>0.688963</v>
+      </c>
+      <c r="H16" s="108" t="n">
+        <f aca="false">SUM(B16:G16)/6</f>
+        <v>0.32432325</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="109" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="110" t="n">
+        <v>0.09375</v>
+      </c>
+      <c r="D17" s="110" t="n">
+        <v>0.355769</v>
+      </c>
+      <c r="E17" s="110" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="110" t="n">
+        <v>0.710744</v>
+      </c>
+      <c r="G17" s="110" t="n">
+        <v>0.477958</v>
+      </c>
+      <c r="H17" s="111" t="n">
+        <f aca="false">SUM(C17:G17)/5</f>
+        <v>0.4276442</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="47"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="47"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="47"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A12:H12"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A3:H13"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="2" style="0" width="6.0765306122449"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="7" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4" s="7" t="n">
+        <v>239</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <v>606</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>776</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>821</v>
+      </c>
+      <c r="G4" s="7" t="n">
+        <v>1372</v>
+      </c>
+      <c r="H4" s="8" t="n">
+        <f aca="false">SUM(B4:G4)</f>
+        <v>3838</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="7" t="n">
+        <v>24</v>
+      </c>
+      <c r="C5" s="7" t="n">
+        <v>236</v>
+      </c>
+      <c r="D5" s="7" t="n">
+        <v>606</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>768</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>811</v>
+      </c>
+      <c r="G5" s="7" t="n">
+        <v>1360</v>
+      </c>
+      <c r="H5" s="8" t="n">
+        <f aca="false">SUM(B5:G5)</f>
+        <v>3805</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="7" t="n">
+        <v>23</v>
+      </c>
+      <c r="C6" s="7" t="n">
+        <v>231</v>
+      </c>
+      <c r="D6" s="7" t="n">
+        <v>602</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <v>744</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <v>790</v>
+      </c>
+      <c r="G6" s="7" t="n">
+        <v>1349</v>
+      </c>
+      <c r="H6" s="8" t="n">
+        <f aca="false">SUM(B6:G6)</f>
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="7" t="n">
+        <v>23</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <v>224</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>595</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>720</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>767</v>
+      </c>
+      <c r="G7" s="7" t="n">
+        <v>1330</v>
+      </c>
+      <c r="H7" s="8" t="n">
+        <f aca="false">SUM(B7:G7)</f>
+        <v>3659</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="112" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="113" t="n">
+        <v>22</v>
+      </c>
+      <c r="C8" s="113" t="n">
+        <v>219</v>
+      </c>
+      <c r="D8" s="113" t="n">
+        <v>593</v>
+      </c>
+      <c r="E8" s="113" t="n">
+        <v>712</v>
+      </c>
+      <c r="F8" s="113" t="n">
+        <v>762</v>
+      </c>
+      <c r="G8" s="113" t="n">
+        <v>1322</v>
+      </c>
+      <c r="H8" s="46" t="n">
+        <f aca="false">SUM(B8:G8)</f>
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" s="7" t="n">
+        <v>22</v>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>215</v>
+      </c>
+      <c r="D9" s="7" t="n">
+        <v>586</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>685</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>728</v>
+      </c>
+      <c r="G9" s="7" t="n">
+        <v>1294</v>
+      </c>
+      <c r="H9" s="7" t="n">
+        <f aca="false">SUM(B9:G9)</f>
+        <v>3530</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>194</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <v>557</v>
+      </c>
+      <c r="E10" s="7" t="n">
+        <v>610</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <v>639</v>
+      </c>
+      <c r="G10" s="7" t="n">
+        <v>1218</v>
+      </c>
+      <c r="H10" s="7" t="n">
+        <f aca="false">SUM(B10:G10)</f>
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="35.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="114" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>185</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>521</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>563</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>716</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1156</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <f aca="false">SUM(B12:G12)</f>
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="46.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="114" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>239</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>606</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>774</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>821</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>1369</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <f aca="false">SUM(B13:G13)</f>
+        <v>3833</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L38"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G32" activeCellId="0" sqref="G32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="33" t="n">
+        <v>1372</v>
+      </c>
+      <c r="C3" s="33" t="n">
+        <v>776</v>
+      </c>
+      <c r="D3" s="33" t="n">
+        <v>239</v>
+      </c>
+      <c r="E3" s="33" t="n">
+        <v>24</v>
+      </c>
+      <c r="F3" s="33" t="n">
+        <v>606</v>
+      </c>
+      <c r="G3" s="33" t="n">
+        <v>821</v>
+      </c>
+      <c r="H3" s="22" t="n">
+        <f aca="false">SUM(B3:G3)</f>
+        <v>3838</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="7" t="n">
+        <v>85434</v>
+      </c>
+      <c r="C4" s="7" t="n">
+        <v>44563</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>14143</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>896</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>39936</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>44040</v>
+      </c>
+      <c r="H4" s="47" t="n">
+        <f aca="false">SUM(B4:G4)</f>
+        <v>229012</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="7" t="n">
+        <v>43330</v>
+      </c>
+      <c r="C5" s="7" t="n">
+        <v>23166</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>7180</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>474</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>19964</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>22025</v>
+      </c>
+      <c r="H5" s="47" t="n">
+        <f aca="false">SUM(B5:G5)</f>
+        <v>116139</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="30" t="n">
+        <v>40362</v>
+      </c>
+      <c r="C6" s="30" t="n">
+        <v>20598</v>
+      </c>
+      <c r="D6" s="52" t="n">
+        <v>6804</v>
+      </c>
+      <c r="E6" s="52" t="n">
+        <v>383</v>
+      </c>
+      <c r="F6" s="52" t="n">
+        <v>19414</v>
+      </c>
+      <c r="G6" s="52" t="n">
+        <v>21202</v>
+      </c>
+      <c r="H6" s="54" t="n">
+        <f aca="false">SUM(B6:G6)</f>
+        <v>108763</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="5" t="n">
+        <v>1751</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>99</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>5352</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="47"/>
+      <c r="J7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="88" t="n">
+        <f aca="false">B5+B6-B7</f>
+        <v>83692</v>
+      </c>
+      <c r="C8" s="88" t="n">
+        <f aca="false">C5+C6-C7</f>
+        <v>43764</v>
+      </c>
+      <c r="D8" s="88" t="n">
+        <f aca="false">D5+D6-D7</f>
+        <v>12233</v>
+      </c>
+      <c r="E8" s="88" t="n">
+        <f aca="false">E5+E6-E7</f>
+        <v>758</v>
+      </c>
+      <c r="F8" s="88" t="n">
+        <f aca="false">F5+F6-F7</f>
+        <v>34026</v>
+      </c>
+      <c r="G8" s="88" t="n">
+        <f aca="false">G5+G6-G7</f>
+        <v>43227</v>
+      </c>
+      <c r="H8" s="89" t="n">
+        <f aca="false">SUM(B8:G8)</f>
+        <v>217700</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="7" t="n">
+        <v>1742</v>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>799</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>159</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>558</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>813</v>
+      </c>
+      <c r="H9" s="47" t="n">
+        <f aca="false">SUM(B9:G9)</f>
+        <v>4110</v>
+      </c>
+      <c r="J9" s="115" t="s">
+        <v>164</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="47"/>
+      <c r="J10" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="7" t="n">
+        <v>18626</v>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>10099</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>2676</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>338</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>7412</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>9347</v>
+      </c>
+      <c r="H11" s="47" t="n">
+        <f aca="false">SUM(B11:G11)</f>
+        <v>48498</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="33" t="n">
+        <v>27505</v>
+      </c>
+      <c r="C12" s="33" t="n">
+        <v>14484</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>4096</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>602</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>11809</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>14282</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <f aca="false">SUM(B12:G12)</f>
+        <v>72778</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="7" t="n">
+        <v>10554</v>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>5568</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1514</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>276</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>3918</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>6170</v>
+      </c>
+      <c r="H13" s="47" t="n">
+        <f aca="false">SUM(B13:G13)</f>
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="30" t="n">
+        <v>16951</v>
+      </c>
+      <c r="C14" s="30" t="n">
+        <v>8916</v>
+      </c>
+      <c r="D14" s="30" t="n">
+        <v>2582</v>
+      </c>
+      <c r="E14" s="52" t="n">
+        <v>326</v>
+      </c>
+      <c r="F14" s="52" t="n">
+        <v>7891</v>
+      </c>
+      <c r="G14" s="52" t="n">
+        <v>8112</v>
+      </c>
+      <c r="H14" s="54" t="n">
+        <f aca="false">SUM(B14:G14)</f>
+        <v>44778</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="47"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="60" t="n">
+        <f aca="false">SUM(B16:G16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="33" t="n">
+        <v>9394</v>
+      </c>
+      <c r="C17" s="33" t="n">
+        <v>4847</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>1559</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>4272</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>4784</v>
+      </c>
+      <c r="H17" s="3" t="n">
+        <f aca="false">SUM(B17:G17)</f>
+        <v>25058</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="7" t="n">
+        <v>1808</v>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>892</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>242</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>572</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>1101</v>
+      </c>
+      <c r="H18" s="47" t="n">
+        <f aca="false">SUM(B18:G18)</f>
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="116" t="n">
+        <v>7586</v>
+      </c>
+      <c r="C19" s="30" t="n">
+        <v>3955</v>
+      </c>
+      <c r="D19" s="52" t="n">
+        <v>1317</v>
+      </c>
+      <c r="E19" s="52" t="n">
+        <v>163</v>
+      </c>
+      <c r="F19" s="52" t="n">
+        <v>3700</v>
+      </c>
+      <c r="G19" s="52" t="n">
+        <v>3683</v>
+      </c>
+      <c r="H19" s="54" t="n">
+        <f aca="false">SUM(B19:G19)</f>
+        <v>20404</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="47"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="60" t="n">
+        <f aca="false">SUM(B21:G21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="7" t="n">
+        <v>20185</v>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>10393</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>2815</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>310</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>8493</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>10837</v>
+      </c>
+      <c r="H22" s="47" t="n">
+        <f aca="false">SUM(B22:G22)</f>
+        <v>53033</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="14" t="n">
+        <v>19</v>
+      </c>
+      <c r="C23" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="H23" s="49"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G24" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="31" t="n">
+        <f aca="false">H11+H14-H16+H19-H21+H13+H18</f>
+        <v>146334</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="18"/>
+      <c r="B28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33" t="n">
+        <f aca="false">D8</f>
+        <v>12233</v>
+      </c>
+      <c r="E29" s="33" t="n">
+        <f aca="false">E8</f>
+        <v>758</v>
+      </c>
+      <c r="F29" s="33" t="n">
+        <f aca="false">F8</f>
+        <v>34026</v>
+      </c>
+      <c r="G29" s="33"/>
+      <c r="H29" s="22"/>
+      <c r="K29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="7" t="n">
+        <v>2271</v>
+      </c>
+      <c r="E30" s="7" t="n">
+        <v>121</v>
+      </c>
+      <c r="F30" s="7" t="n">
+        <v>6004</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="8" t="n">
+        <f aca="false">SUM(B30:G30)</f>
+        <v>8396</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="30" t="n">
+        <v>4505</v>
+      </c>
+      <c r="E31" s="30" t="n">
+        <v>293</v>
+      </c>
+      <c r="F31" s="30" t="n">
+        <v>12318</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="8" t="n">
+        <f aca="false">SUM(B31:G31)</f>
+        <v>17116</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="8" t="n">
+        <f aca="false">SUM(B33:G33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="116" t="n">
+        <v>1918</v>
+      </c>
+      <c r="E34" s="30" t="n">
+        <v>114</v>
+      </c>
+      <c r="F34" s="116" t="n">
+        <v>5516</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="8" t="n">
+        <f aca="false">SUM(B34:G34)</f>
+        <v>7548</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="8" t="n">
+        <f aca="false">SUM(B36:G36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14" t="n">
+        <v>3540</v>
+      </c>
+      <c r="E37" s="14" t="n">
+        <v>230</v>
+      </c>
+      <c r="F37" s="14" t="n">
+        <v>10189</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="15"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D38" s="0" t="n">
+        <f aca="false">SUM(D30+D31+D34+D3+D37)</f>
+        <v>12473</v>
+      </c>
+      <c r="E38" s="7" t="n">
+        <f aca="false">SUM(E30+E34+E37+E31)</f>
+        <v>758</v>
+      </c>
+      <c r="F38" s="7" t="n">
+        <f aca="false">SUM(F30+F34+F37+F31)</f>
+        <v>34027</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A27:H27"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/statsDataset.xlsx
+++ b/statsDataset.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="170">
   <si>
     <t xml:space="preserve">SN</t>
   </si>
@@ -535,6 +535,9 @@
   </si>
   <si>
     <t xml:space="preserve">3 neigh ast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 neigh 700:</t>
   </si>
 </sst>
 </file>
@@ -797,7 +800,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="116">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1258,10 +1261,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1351,11 +1350,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6110,9 +6107,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5561224489796"/>
     <col collapsed="false" hidden="false" max="6" min="2" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6840,10 +6837,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3061224489796"/>
     <col collapsed="false" hidden="false" max="6" min="2" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8573,11 +8570,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.36734693877551"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9293,10 +9291,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10213,10 +10212,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1632653061224"/>
     <col collapsed="false" hidden="false" max="6" min="2" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11189,13 +11189,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11557,8 +11556,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="2" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11847,17 +11847,18 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G32" activeCellId="0" sqref="G32"/>
+      <selection pane="topLeft" activeCell="J33" activeCellId="0" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
     <col collapsed="false" hidden="false" max="6" min="4" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12014,8 +12015,12 @@
       <c r="A7" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="B7" s="7" t="n">
+        <v>10617</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <v>5370</v>
+      </c>
       <c r="D7" s="5" t="n">
         <v>1751</v>
       </c>
@@ -12025,7 +12030,9 @@
       <c r="F7" s="5" t="n">
         <v>5352</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="5" t="n">
+        <v>5758</v>
+      </c>
       <c r="H7" s="47"/>
       <c r="J7" s="0" t="s">
         <v>2</v>
@@ -12040,11 +12047,11 @@
       </c>
       <c r="B8" s="88" t="n">
         <f aca="false">B5+B6-B7</f>
-        <v>83692</v>
+        <v>73075</v>
       </c>
       <c r="C8" s="88" t="n">
         <f aca="false">C5+C6-C7</f>
-        <v>43764</v>
+        <v>38394</v>
       </c>
       <c r="D8" s="88" t="n">
         <f aca="false">D5+D6-D7</f>
@@ -12060,11 +12067,11 @@
       </c>
       <c r="G8" s="88" t="n">
         <f aca="false">G5+G6-G7</f>
-        <v>43227</v>
+        <v>37469</v>
       </c>
       <c r="H8" s="89" t="n">
         <f aca="false">SUM(B8:G8)</f>
-        <v>217700</v>
+        <v>195955</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>4</v>
@@ -12099,7 +12106,7 @@
         <f aca="false">SUM(B9:G9)</f>
         <v>4110</v>
       </c>
-      <c r="J9" s="115" t="s">
+      <c r="J9" s="39" t="s">
         <v>164</v>
       </c>
       <c r="K9" s="0" t="s">
@@ -12320,7 +12327,7 @@
       <c r="A19" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="116" t="n">
+      <c r="B19" s="30" t="n">
         <v>7586</v>
       </c>
       <c r="C19" s="30" t="n">
@@ -12470,8 +12477,14 @@
       <c r="A29" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
+      <c r="B29" s="33" t="n">
+        <f aca="false">B8</f>
+        <v>73075</v>
+      </c>
+      <c r="C29" s="33" t="n">
+        <f aca="false">C8</f>
+        <v>38394</v>
+      </c>
       <c r="D29" s="33" t="n">
         <f aca="false">D8</f>
         <v>12233</v>
@@ -12484,7 +12497,10 @@
         <f aca="false">F8</f>
         <v>34026</v>
       </c>
-      <c r="G29" s="33"/>
+      <c r="G29" s="33" t="n">
+        <f aca="false">G8</f>
+        <v>37469</v>
+      </c>
       <c r="H29" s="22"/>
       <c r="K29" s="0" t="s">
         <v>2</v>
@@ -12497,8 +12513,12 @@
       <c r="A30" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="96"/>
+      <c r="B30" s="7" t="n">
+        <v>12887</v>
+      </c>
+      <c r="C30" s="96" t="n">
+        <v>7027</v>
+      </c>
       <c r="D30" s="7" t="n">
         <v>2271</v>
       </c>
@@ -12508,18 +12528,30 @@
       <c r="F30" s="7" t="n">
         <v>6004</v>
       </c>
-      <c r="G30" s="7"/>
+      <c r="G30" s="7" t="n">
+        <v>6511</v>
+      </c>
       <c r="H30" s="8" t="n">
         <f aca="false">SUM(B30:G30)</f>
-        <v>8396</v>
+        <v>34821</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
+      <c r="B31" s="115" t="n">
+        <v>26793</v>
+      </c>
+      <c r="C31" s="115" t="n">
+        <v>13888</v>
+      </c>
       <c r="D31" s="30" t="n">
         <v>4505</v>
       </c>
@@ -12529,10 +12561,18 @@
       <c r="F31" s="30" t="n">
         <v>12318</v>
       </c>
-      <c r="G31" s="7"/>
+      <c r="G31" s="115" t="n">
+        <v>13845</v>
+      </c>
       <c r="H31" s="8" t="n">
         <f aca="false">SUM(B31:G31)</f>
-        <v>17116</v>
+        <v>71642</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12566,21 +12606,27 @@
       <c r="A34" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="116" t="n">
+      <c r="B34" s="7" t="n">
+        <v>11584</v>
+      </c>
+      <c r="C34" s="7" t="n">
+        <v>5887</v>
+      </c>
+      <c r="D34" s="30" t="n">
         <v>1918</v>
       </c>
       <c r="E34" s="30" t="n">
         <v>114</v>
       </c>
-      <c r="F34" s="116" t="n">
+      <c r="F34" s="115" t="n">
         <v>5516</v>
       </c>
-      <c r="G34" s="7"/>
+      <c r="G34" s="7" t="n">
+        <v>6004</v>
+      </c>
       <c r="H34" s="8" t="n">
         <f aca="false">SUM(B34:G34)</f>
-        <v>7548</v>
+        <v>31023</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12614,8 +12660,12 @@
       <c r="A37" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
+      <c r="B37" s="14" t="n">
+        <v>21814</v>
+      </c>
+      <c r="C37" s="14" t="n">
+        <v>11594</v>
+      </c>
       <c r="D37" s="14" t="n">
         <v>3540</v>
       </c>
@@ -12625,10 +12675,20 @@
       <c r="F37" s="14" t="n">
         <v>10189</v>
       </c>
-      <c r="G37" s="14"/>
+      <c r="G37" s="14" t="n">
+        <v>11111</v>
+      </c>
       <c r="H37" s="15"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="n">
+        <f aca="false">SUM(B30+B31+B34+B37)</f>
+        <v>73078</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <f aca="false">SUM(C30+C31+C34+C37)</f>
+        <v>38396</v>
+      </c>
       <c r="D38" s="0" t="n">
         <f aca="false">SUM(D30+D31+D34+D3+D37)</f>
         <v>12473</v>
@@ -12640,6 +12700,10 @@
       <c r="F38" s="7" t="n">
         <f aca="false">SUM(F30+F34+F37+F31)</f>
         <v>34027</v>
+      </c>
+      <c r="G38" s="7" t="n">
+        <f aca="false">SUM(G30+G34+G37+G31)</f>
+        <v>37471</v>
       </c>
     </row>
   </sheetData>

--- a/statsDataset.xlsx
+++ b/statsDataset.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -551,7 +551,7 @@
     <numFmt numFmtId="167" formatCode="0.00"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -575,6 +575,13 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -800,7 +807,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="118">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1261,7 +1268,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1350,9 +1365,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6088,8 +6105,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -6107,9 +6124,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4183673469388"/>
     <col collapsed="false" hidden="false" max="6" min="2" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6818,8 +6835,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -6837,10 +6854,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.0357142857143"/>
     <col collapsed="false" hidden="false" max="6" min="2" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8551,8 +8568,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -8570,12 +8587,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.23469387755102"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9272,8 +9288,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -9291,11 +9307,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10193,8 +10208,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -10212,11 +10227,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.7602040816327"/>
     <col collapsed="false" hidden="false" max="6" min="2" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11170,8 +11184,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -11189,12 +11203,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11537,8 +11549,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -11556,9 +11568,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="2" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11833,8 +11844,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -11846,19 +11857,18 @@
   </sheetPr>
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J33" activeCellId="0" sqref="J33"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L22" activeCellId="0" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.6173469387755"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
     <col collapsed="false" hidden="false" max="6" min="4" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12248,8 +12258,12 @@
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="D15" s="5" t="n">
+        <v>212</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>23</v>
+      </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="47"/>
@@ -12260,13 +12274,17 @@
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
+      <c r="D16" s="59" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" s="59" t="n">
+        <v>28</v>
+      </c>
       <c r="F16" s="59"/>
       <c r="G16" s="59"/>
       <c r="H16" s="60" t="n">
         <f aca="false">SUM(B16:G16)</f>
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12356,8 +12374,12 @@
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="D20" s="5" t="n">
+        <v>163</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>19</v>
+      </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="47"/>
@@ -12368,13 +12390,17 @@
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
+      <c r="D21" s="59" t="n">
+        <v>65</v>
+      </c>
+      <c r="E21" s="59" t="n">
+        <v>60</v>
+      </c>
       <c r="F21" s="59"/>
       <c r="G21" s="59"/>
       <c r="H21" s="60" t="n">
         <f aca="false">SUM(B21:G21)</f>
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12403,6 +12429,7 @@
         <f aca="false">SUM(B22:G22)</f>
         <v>53033</v>
       </c>
+      <c r="L22" s="115"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="35" t="s">
@@ -12429,12 +12456,13 @@
       <c r="H23" s="49"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="115"/>
       <c r="G24" s="31" t="s">
         <v>6</v>
       </c>
       <c r="H24" s="31" t="n">
         <f aca="false">H11+H14-H16+H19-H21+H13+H18</f>
-        <v>146334</v>
+        <v>146176</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12546,10 +12574,10 @@
       <c r="A31" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="115" t="n">
+      <c r="B31" s="116" t="n">
         <v>26793</v>
       </c>
-      <c r="C31" s="115" t="n">
+      <c r="C31" s="116" t="n">
         <v>13888</v>
       </c>
       <c r="D31" s="30" t="n">
@@ -12561,7 +12589,7 @@
       <c r="F31" s="30" t="n">
         <v>12318</v>
       </c>
-      <c r="G31" s="115" t="n">
+      <c r="G31" s="116" t="n">
         <v>13845</v>
       </c>
       <c r="H31" s="8" t="n">
@@ -12618,7 +12646,7 @@
       <c r="E34" s="30" t="n">
         <v>114</v>
       </c>
-      <c r="F34" s="115" t="n">
+      <c r="F34" s="116" t="n">
         <v>5516</v>
       </c>
       <c r="G34" s="7" t="n">
@@ -12666,7 +12694,7 @@
       <c r="C37" s="14" t="n">
         <v>11594</v>
       </c>
-      <c r="D37" s="14" t="n">
+      <c r="D37" s="117" t="n">
         <v>3540</v>
       </c>
       <c r="E37" s="14" t="n">
@@ -12715,8 +12743,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/statsDataset.xlsx
+++ b/statsDataset.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,6 +17,7 @@
     <sheet name="resultsCNN" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Sheet8" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="ExtraNegObjs" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="AddNegObjs" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="171">
   <si>
     <t xml:space="preserve">SN</t>
   </si>
@@ -538,6 +539,9 @@
   </si>
   <si>
     <t xml:space="preserve">1 neigh 700:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL</t>
   </si>
 </sst>
 </file>
@@ -551,7 +555,7 @@
     <numFmt numFmtId="167" formatCode="0.00"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -580,15 +584,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -665,6 +662,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF3333"/>
         <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1268,15 +1271,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1359,17 +1362,15 @@
   </sheetPr>
   <dimension ref="A1:O225"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6105,8 +6106,577 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.6836734693878"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.04591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.14795918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.84183673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.44387755102041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.14795918367347"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.44387755102041"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.03571428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="33" t="n">
+        <v>1372</v>
+      </c>
+      <c r="C3" s="33" t="n">
+        <v>776</v>
+      </c>
+      <c r="D3" s="33" t="n">
+        <v>239</v>
+      </c>
+      <c r="E3" s="33" t="n">
+        <v>24</v>
+      </c>
+      <c r="F3" s="33" t="n">
+        <v>606</v>
+      </c>
+      <c r="G3" s="33" t="n">
+        <v>821</v>
+      </c>
+      <c r="H3" s="22" t="n">
+        <f aca="false">SUM(B3:G3)</f>
+        <v>3838</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="7" t="n">
+        <v>80542</v>
+      </c>
+      <c r="C4" s="7" t="n">
+        <v>43104</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>12992</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1359</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>37200</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>42533</v>
+      </c>
+      <c r="H4" s="47" t="n">
+        <f aca="false">SUM(B4:G4)</f>
+        <v>217730</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="7" t="n">
+        <v>41171</v>
+      </c>
+      <c r="C5" s="7" t="n">
+        <v>21557</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>6753</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>604</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>18448</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>21123</v>
+      </c>
+      <c r="H5" s="47" t="n">
+        <f aca="false">SUM(B5:G5)</f>
+        <v>109656</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="25" t="n">
+        <v>37744</v>
+      </c>
+      <c r="C6" s="25" t="n">
+        <v>20573</v>
+      </c>
+      <c r="D6" s="52" t="n">
+        <v>6018</v>
+      </c>
+      <c r="E6" s="52" t="n">
+        <v>691</v>
+      </c>
+      <c r="F6" s="53" t="n">
+        <v>18238</v>
+      </c>
+      <c r="G6" s="53" t="n">
+        <v>20547</v>
+      </c>
+      <c r="H6" s="54" t="n">
+        <f aca="false">SUM(B6:G6)</f>
+        <v>103811</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="47"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="88" t="n">
+        <f aca="false">B5+B6-B7</f>
+        <v>78915</v>
+      </c>
+      <c r="C8" s="88" t="n">
+        <f aca="false">C5+C6-C7</f>
+        <v>42130</v>
+      </c>
+      <c r="D8" s="88" t="n">
+        <f aca="false">D5+D6-D7</f>
+        <v>12771</v>
+      </c>
+      <c r="E8" s="88" t="n">
+        <f aca="false">E5+E6-E7</f>
+        <v>1295</v>
+      </c>
+      <c r="F8" s="88" t="n">
+        <f aca="false">F5+F6-F7</f>
+        <v>36686</v>
+      </c>
+      <c r="G8" s="88" t="n">
+        <f aca="false">G5+G6-G7</f>
+        <v>41670</v>
+      </c>
+      <c r="H8" s="89" t="n">
+        <f aca="false">SUM(B8:G8)</f>
+        <v>213467</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="7" t="n">
+        <v>1627</v>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>974</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>221</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>64</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>514</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>863</v>
+      </c>
+      <c r="H9" s="47" t="n">
+        <f aca="false">SUM(B9:G9)</f>
+        <v>4263</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="47"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="115" t="n">
+        <v>17742</v>
+      </c>
+      <c r="C11" s="115" t="n">
+        <v>9895</v>
+      </c>
+      <c r="D11" s="116" t="n">
+        <v>2575</v>
+      </c>
+      <c r="E11" s="117" t="n">
+        <v>189</v>
+      </c>
+      <c r="F11" s="117" t="n">
+        <v>7015</v>
+      </c>
+      <c r="G11" s="117" t="n">
+        <v>8925</v>
+      </c>
+      <c r="H11" s="47" t="n">
+        <f aca="false">SUM(B11:G11)</f>
+        <v>46341</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="33" t="n">
+        <v>26890</v>
+      </c>
+      <c r="C12" s="33" t="n">
+        <v>14445</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>4003</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>381</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>11091</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>13976</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <f aca="false">SUM(B12:G12)</f>
+        <v>70786</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="7" t="n">
+        <v>10631</v>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>6248</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1630</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>122</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>3706</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>6063</v>
+      </c>
+      <c r="H13" s="47" t="n">
+        <f aca="false">SUM(B13:G13)</f>
+        <v>28400</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="25" t="n">
+        <v>16259</v>
+      </c>
+      <c r="C14" s="25" t="n">
+        <v>8197</v>
+      </c>
+      <c r="D14" s="25" t="n">
+        <v>2373</v>
+      </c>
+      <c r="E14" s="53" t="n">
+        <v>259</v>
+      </c>
+      <c r="F14" s="53" t="n">
+        <v>7385</v>
+      </c>
+      <c r="G14" s="53" t="n">
+        <v>7913</v>
+      </c>
+      <c r="H14" s="54" t="n">
+        <f aca="false">SUM(B14:G14)</f>
+        <v>42386</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="47"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="60" t="n">
+        <f aca="false">SUM(B16:G16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="33" t="n">
+        <v>8625</v>
+      </c>
+      <c r="C17" s="33" t="n">
+        <v>5036</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>1456</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>4146</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>4957</v>
+      </c>
+      <c r="H17" s="3" t="n">
+        <f aca="false">SUM(B17:G17)</f>
+        <v>24360</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="7" t="n">
+        <v>1475</v>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>1273</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>309</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>601</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>1055</v>
+      </c>
+      <c r="H18" s="47" t="n">
+        <f aca="false">SUM(B18:G18)</f>
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="25" t="n">
+        <v>7150</v>
+      </c>
+      <c r="C19" s="25" t="n">
+        <v>3763</v>
+      </c>
+      <c r="D19" s="53" t="n">
+        <v>1147</v>
+      </c>
+      <c r="E19" s="53" t="n">
+        <v>121</v>
+      </c>
+      <c r="F19" s="53" t="n">
+        <v>3545</v>
+      </c>
+      <c r="G19" s="53" t="n">
+        <v>3902</v>
+      </c>
+      <c r="H19" s="54" t="n">
+        <f aca="false">SUM(B19:G19)</f>
+        <v>19628</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="47"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="60" t="n">
+        <f aca="false">SUM(B21:G21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="7" t="n">
+        <v>19790</v>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>10711</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>3022</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>279</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>7673</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>10428</v>
+      </c>
+      <c r="H22" s="47" t="n">
+        <f aca="false">SUM(B22:G22)</f>
+        <v>51903</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="14" t="n">
+        <v>19</v>
+      </c>
+      <c r="C23" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="H23" s="49"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G24" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="31" t="n">
+        <f aca="false">H11+H14-H16+H19-H21+H13+H18</f>
+        <v>141487</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -6124,9 +6694,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.1479591836735"/>
     <col collapsed="false" hidden="false" max="6" min="2" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6835,8 +7404,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -6854,10 +7423,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4948979591837"/>
     <col collapsed="false" hidden="false" max="6" min="2" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8568,8 +9138,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -8587,11 +9157,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.50510204081633"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9288,8 +9860,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -9307,10 +9879,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10208,8 +10781,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -10221,16 +10794,16 @@
   </sheetPr>
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H40" activeCellId="0" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9489795918367"/>
     <col collapsed="false" hidden="false" max="6" min="2" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11184,8 +11757,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -11203,10 +11776,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11549,8 +12123,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -11568,8 +12142,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
     <col collapsed="false" hidden="false" max="7" min="2" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11844,8 +12419,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -11855,20 +12430,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L22" activeCellId="0" sqref="L22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.7704081632653"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
     <col collapsed="false" hidden="false" max="6" min="4" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12148,22 +12723,22 @@
       <c r="A11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="7" t="n">
+      <c r="B11" s="30" t="n">
         <v>18626</v>
       </c>
-      <c r="C11" s="7" t="n">
+      <c r="C11" s="30" t="n">
         <v>10099</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="52" t="n">
         <v>2676</v>
       </c>
-      <c r="E11" s="5" t="n">
+      <c r="E11" s="52" t="n">
         <v>338</v>
       </c>
-      <c r="F11" s="5" t="n">
+      <c r="F11" s="52" t="n">
         <v>7412</v>
       </c>
-      <c r="G11" s="5" t="n">
+      <c r="G11" s="52" t="n">
         <v>9347</v>
       </c>
       <c r="H11" s="47" t="n">
@@ -12256,35 +12831,51 @@
       <c r="A15" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="B15" s="7" t="n">
+        <v>1254</v>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>731</v>
+      </c>
       <c r="D15" s="5" t="n">
         <v>212</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="F15" s="5" t="n">
+        <v>542</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>755</v>
+      </c>
       <c r="H15" s="47"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="B16" s="14" t="n">
+        <v>99</v>
+      </c>
+      <c r="C16" s="14" t="n">
+        <v>146</v>
+      </c>
       <c r="D16" s="59" t="n">
         <v>5</v>
       </c>
       <c r="E16" s="59" t="n">
         <v>28</v>
       </c>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
+      <c r="F16" s="59" t="n">
+        <v>34</v>
+      </c>
+      <c r="G16" s="59" t="n">
+        <v>69</v>
+      </c>
       <c r="H16" s="60" t="n">
         <f aca="false">SUM(B16:G16)</f>
-        <v>33</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12372,35 +12963,51 @@
       <c r="A20" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="B20" s="7" t="n">
+        <v>888</v>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>504</v>
+      </c>
       <c r="D20" s="5" t="n">
         <v>163</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="F20" s="5" t="n">
+        <v>385</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>507</v>
+      </c>
       <c r="H20" s="47"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
+      <c r="B21" s="14" t="n">
+        <v>303</v>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>418</v>
+      </c>
       <c r="D21" s="59" t="n">
         <v>65</v>
       </c>
       <c r="E21" s="59" t="n">
         <v>60</v>
       </c>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
+      <c r="F21" s="59" t="n">
+        <v>111</v>
+      </c>
+      <c r="G21" s="59" t="n">
+        <v>205</v>
+      </c>
       <c r="H21" s="60" t="n">
         <f aca="false">SUM(B21:G21)</f>
-        <v>125</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12429,7 +13036,6 @@
         <f aca="false">SUM(B22:G22)</f>
         <v>53033</v>
       </c>
-      <c r="L22" s="115"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="35" t="s">
@@ -12456,13 +13062,12 @@
       <c r="H23" s="49"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="115"/>
       <c r="G24" s="31" t="s">
         <v>6</v>
       </c>
       <c r="H24" s="31" t="n">
         <f aca="false">H11+H14-H16+H19-H21+H13+H18</f>
-        <v>146176</v>
+        <v>144791</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12541,22 +13146,22 @@
       <c r="A30" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="7" t="n">
+      <c r="B30" s="30" t="n">
         <v>12887</v>
       </c>
-      <c r="C30" s="96" t="n">
+      <c r="C30" s="97" t="n">
         <v>7027</v>
       </c>
-      <c r="D30" s="7" t="n">
+      <c r="D30" s="30" t="n">
         <v>2271</v>
       </c>
-      <c r="E30" s="7" t="n">
+      <c r="E30" s="30" t="n">
         <v>121</v>
       </c>
-      <c r="F30" s="7" t="n">
+      <c r="F30" s="30" t="n">
         <v>6004</v>
       </c>
-      <c r="G30" s="7" t="n">
+      <c r="G30" s="30" t="n">
         <v>6511</v>
       </c>
       <c r="H30" s="8" t="n">
@@ -12564,7 +13169,7 @@
         <v>34821</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="L30" s="0" t="s">
         <v>165</v>
@@ -12574,10 +13179,10 @@
       <c r="A31" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="116" t="n">
+      <c r="B31" s="30" t="n">
         <v>26793</v>
       </c>
-      <c r="C31" s="116" t="n">
+      <c r="C31" s="30" t="n">
         <v>13888</v>
       </c>
       <c r="D31" s="30" t="n">
@@ -12589,7 +13194,7 @@
       <c r="F31" s="30" t="n">
         <v>12318</v>
       </c>
-      <c r="G31" s="116" t="n">
+      <c r="G31" s="30" t="n">
         <v>13845</v>
       </c>
       <c r="H31" s="8" t="n">
@@ -12607,37 +13212,61 @@
       <c r="A32" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
+      <c r="B32" s="7" t="n">
+        <v>1308</v>
+      </c>
+      <c r="C32" s="7" t="n">
+        <v>753</v>
+      </c>
+      <c r="D32" s="7" t="n">
+        <v>226</v>
+      </c>
+      <c r="E32" s="7" t="n">
+        <v>23</v>
+      </c>
+      <c r="F32" s="7" t="n">
+        <v>569</v>
+      </c>
+      <c r="G32" s="7" t="n">
+        <v>786</v>
+      </c>
       <c r="H32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
+      <c r="B33" s="7" t="n">
+        <v>87</v>
+      </c>
+      <c r="C33" s="7" t="n">
+        <v>50</v>
+      </c>
+      <c r="D33" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E33" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="G33" s="7" t="n">
+        <v>67</v>
+      </c>
       <c r="H33" s="8" t="n">
         <f aca="false">SUM(B33:G33)</f>
-        <v>0</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="7" t="n">
+      <c r="B34" s="30" t="n">
         <v>11584</v>
       </c>
-      <c r="C34" s="7" t="n">
+      <c r="C34" s="30" t="n">
         <v>5887</v>
       </c>
       <c r="D34" s="30" t="n">
@@ -12646,10 +13275,10 @@
       <c r="E34" s="30" t="n">
         <v>114</v>
       </c>
-      <c r="F34" s="116" t="n">
+      <c r="F34" s="30" t="n">
         <v>5516</v>
       </c>
-      <c r="G34" s="7" t="n">
+      <c r="G34" s="30" t="n">
         <v>6004</v>
       </c>
       <c r="H34" s="8" t="n">
@@ -12661,27 +13290,51 @@
       <c r="A35" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
+      <c r="B35" s="7" t="n">
+        <v>725</v>
+      </c>
+      <c r="C35" s="7" t="n">
+        <v>687</v>
+      </c>
+      <c r="D35" s="7" t="n">
+        <v>207</v>
+      </c>
+      <c r="E35" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="F35" s="7" t="n">
+        <v>531</v>
+      </c>
+      <c r="G35" s="7" t="n">
+        <v>725</v>
+      </c>
       <c r="H35" s="8"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
+      <c r="B36" s="7" t="n">
+        <v>289</v>
+      </c>
+      <c r="C36" s="7" t="n">
+        <v>394</v>
+      </c>
+      <c r="D36" s="7" t="n">
+        <v>95</v>
+      </c>
+      <c r="E36" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F36" s="7" t="n">
+        <v>137</v>
+      </c>
+      <c r="G36" s="7" t="n">
+        <v>289</v>
+      </c>
       <c r="H36" s="8" t="n">
         <f aca="false">SUM(B36:G36)</f>
-        <v>0</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12694,7 +13347,7 @@
       <c r="C37" s="14" t="n">
         <v>11594</v>
       </c>
-      <c r="D37" s="117" t="n">
+      <c r="D37" s="14" t="n">
         <v>3540</v>
       </c>
       <c r="E37" s="14" t="n">
@@ -12732,6 +13385,19 @@
       <c r="G38" s="7" t="n">
         <f aca="false">SUM(G30+G34+G37+G31)</f>
         <v>37471</v>
+      </c>
+      <c r="H38" s="31" t="n">
+        <f aca="false">SUM(H30+H31-H33+H34-H36)</f>
+        <v>136060</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G40" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="H40" s="31" t="n">
+        <f aca="false">H38+H24</f>
+        <v>280851</v>
       </c>
     </row>
   </sheetData>
@@ -12743,8 +13409,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/statsDataset.xlsx
+++ b/statsDataset.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="181">
   <si>
     <t xml:space="preserve">SN</t>
   </si>
@@ -542,6 +542,36 @@
   </si>
   <si>
     <t xml:space="preserve">ALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 neigh 0:700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTHER 3neig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGN 3 neigh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV 3 neigh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV 1 neigh 500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 neigh BZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 neigh AGN neg</t>
   </si>
 </sst>
 </file>
@@ -810,7 +840,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="121">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1275,11 +1305,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1368,9 +1410,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6117,23 +6159,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G32" activeCellId="0" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.6836734693878"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.04591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.14795918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.84183673469388"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.44387755102041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.14795918367347"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.44387755102041"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.03571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6257,10 +6299,10 @@
       <c r="A6" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="25" t="n">
+      <c r="B6" s="30" t="n">
         <v>37744</v>
       </c>
-      <c r="C6" s="25" t="n">
+      <c r="C6" s="30" t="n">
         <v>20573</v>
       </c>
       <c r="D6" s="52" t="n">
@@ -6269,10 +6311,10 @@
       <c r="E6" s="52" t="n">
         <v>691</v>
       </c>
-      <c r="F6" s="53" t="n">
+      <c r="F6" s="52" t="n">
         <v>18238</v>
       </c>
-      <c r="G6" s="53" t="n">
+      <c r="G6" s="52" t="n">
         <v>20547</v>
       </c>
       <c r="H6" s="54" t="n">
@@ -6285,10 +6327,18 @@
         <v>82</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="C7" s="7" t="n">
+        <v>5321</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1295</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>128</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>4769</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="47"/>
     </row>
@@ -6302,19 +6352,19 @@
       </c>
       <c r="C8" s="88" t="n">
         <f aca="false">C5+C6-C7</f>
-        <v>42130</v>
+        <v>36809</v>
       </c>
       <c r="D8" s="88" t="n">
         <f aca="false">D5+D6-D7</f>
-        <v>12771</v>
+        <v>11476</v>
       </c>
       <c r="E8" s="88" t="n">
         <f aca="false">E5+E6-E7</f>
-        <v>1295</v>
+        <v>1167</v>
       </c>
       <c r="F8" s="88" t="n">
         <f aca="false">F5+F6-F7</f>
-        <v>36686</v>
+        <v>31917</v>
       </c>
       <c r="G8" s="88" t="n">
         <f aca="false">G5+G6-G7</f>
@@ -6322,7 +6372,7 @@
       </c>
       <c r="H8" s="89" t="n">
         <f aca="false">SUM(B8:G8)</f>
-        <v>213467</v>
+        <v>201954</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6377,7 +6427,7 @@
       <c r="D11" s="116" t="n">
         <v>2575</v>
       </c>
-      <c r="E11" s="117" t="n">
+      <c r="E11" s="52" t="n">
         <v>189</v>
       </c>
       <c r="F11" s="117" t="n">
@@ -6449,22 +6499,22 @@
       <c r="A14" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="25" t="n">
+      <c r="B14" s="30" t="n">
         <v>16259</v>
       </c>
-      <c r="C14" s="25" t="n">
+      <c r="C14" s="118" t="n">
         <v>8197</v>
       </c>
-      <c r="D14" s="25" t="n">
+      <c r="D14" s="30" t="n">
         <v>2373</v>
       </c>
-      <c r="E14" s="53" t="n">
+      <c r="E14" s="52" t="n">
         <v>259</v>
       </c>
-      <c r="F14" s="53" t="n">
+      <c r="F14" s="52" t="n">
         <v>7385</v>
       </c>
-      <c r="G14" s="53" t="n">
+      <c r="G14" s="52" t="n">
         <v>7913</v>
       </c>
       <c r="H14" s="54" t="n">
@@ -6478,8 +6528,12 @@
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="D15" s="5" t="n">
+        <v>207</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>22</v>
+      </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="47"/>
@@ -6490,13 +6544,17 @@
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
+      <c r="D16" s="59" t="n">
+        <v>11</v>
+      </c>
+      <c r="E16" s="59" t="n">
+        <v>23</v>
+      </c>
       <c r="F16" s="59"/>
       <c r="G16" s="59"/>
       <c r="H16" s="60" t="n">
         <f aca="false">SUM(B16:G16)</f>
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6525,6 +6583,12 @@
         <f aca="false">SUM(B17:G17)</f>
         <v>24360</v>
       </c>
+      <c r="J17" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
@@ -6552,33 +6616,45 @@
         <f aca="false">SUM(B18:G18)</f>
         <v>4732</v>
       </c>
+      <c r="J18" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="25" t="n">
+      <c r="B19" s="118" t="n">
         <v>7150</v>
       </c>
-      <c r="C19" s="25" t="n">
+      <c r="C19" s="118" t="n">
         <v>3763</v>
       </c>
-      <c r="D19" s="53" t="n">
+      <c r="D19" s="52" t="n">
         <v>1147</v>
       </c>
-      <c r="E19" s="53" t="n">
+      <c r="E19" s="52" t="n">
         <v>121</v>
       </c>
-      <c r="F19" s="53" t="n">
+      <c r="F19" s="119" t="n">
         <v>3545</v>
       </c>
-      <c r="G19" s="53" t="n">
+      <c r="G19" s="119" t="n">
         <v>3902</v>
       </c>
       <c r="H19" s="54" t="n">
         <f aca="false">SUM(B19:G19)</f>
         <v>19628</v>
       </c>
+      <c r="J19" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
@@ -6586,11 +6662,21 @@
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="D20" s="5" t="n">
+        <v>153</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>14</v>
+      </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="47"/>
+      <c r="J20" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="s">
@@ -6598,13 +6684,23 @@
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
+      <c r="D21" s="59" t="n">
+        <v>46</v>
+      </c>
+      <c r="E21" s="59" t="n">
+        <v>44</v>
+      </c>
       <c r="F21" s="59"/>
       <c r="G21" s="59"/>
       <c r="H21" s="60" t="n">
         <f aca="false">SUM(B21:G21)</f>
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6633,6 +6729,12 @@
         <f aca="false">SUM(B22:G22)</f>
         <v>51903</v>
       </c>
+      <c r="J22" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="35" t="s">
@@ -6657,6 +6759,12 @@
         <v>4</v>
       </c>
       <c r="H23" s="49"/>
+      <c r="J23" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G24" s="31" t="s">
@@ -6664,12 +6772,252 @@
       </c>
       <c r="H24" s="31" t="n">
         <f aca="false">H11+H14-H16+H19-H21+H13+H18</f>
-        <v>141487</v>
+        <v>141363</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="18"/>
+      <c r="B27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33" t="n">
+        <f aca="false">C8</f>
+        <v>36809</v>
+      </c>
+      <c r="D28" s="33" t="n">
+        <f aca="false">D8</f>
+        <v>11476</v>
+      </c>
+      <c r="E28" s="33" t="n">
+        <f aca="false">E8</f>
+        <v>1167</v>
+      </c>
+      <c r="F28" s="33" t="n">
+        <f aca="false">F8</f>
+        <v>31917</v>
+      </c>
+      <c r="G28" s="33"/>
+      <c r="H28" s="22"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="25"/>
+      <c r="C29" s="120" t="n">
+        <v>6269</v>
+      </c>
+      <c r="D29" s="25" t="n">
+        <v>2098</v>
+      </c>
+      <c r="E29" s="30" t="n">
+        <v>262</v>
+      </c>
+      <c r="F29" s="25" t="n">
+        <v>6084</v>
+      </c>
+      <c r="G29" s="25"/>
+      <c r="H29" s="8" t="n">
+        <f aca="false">SUM(B29:G29)</f>
+        <v>14713</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25" t="n">
+        <v>13748</v>
+      </c>
+      <c r="D30" s="30" t="n">
+        <v>4255</v>
+      </c>
+      <c r="E30" s="30" t="n">
+        <v>460</v>
+      </c>
+      <c r="F30" s="118" t="n">
+        <v>11941</v>
+      </c>
+      <c r="G30" s="25"/>
+      <c r="H30" s="8" t="n">
+        <f aca="false">SUM(B30:G30)</f>
+        <v>30404</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="8" t="n">
+        <f aca="false">SUM(B32:G32)</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25" t="n">
+        <v>6172</v>
+      </c>
+      <c r="D33" s="30" t="n">
+        <v>1833</v>
+      </c>
+      <c r="E33" s="30" t="n">
+        <v>179</v>
+      </c>
+      <c r="F33" s="25" t="n">
+        <v>5143</v>
+      </c>
+      <c r="G33" s="25"/>
+      <c r="H33" s="8" t="n">
+        <f aca="false">SUM(B33:G33)</f>
+        <v>13327</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="8" t="n">
+        <f aca="false">SUM(B35:G35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14" t="n">
+        <v>10624</v>
+      </c>
+      <c r="D36" s="14" t="n">
+        <v>3291</v>
+      </c>
+      <c r="E36" s="14" t="n">
+        <v>266</v>
+      </c>
+      <c r="F36" s="14" t="n">
+        <v>8750</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="15"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="0" t="n">
+        <f aca="false">SUM(C29+C30+C33+C36)</f>
+        <v>36813</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <f aca="false">SUM(D29+D30+D33+D36)</f>
+        <v>11477</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <f aca="false">SUM(E29+E30+E33+E36)</f>
+        <v>1167</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <f aca="false">SUM(F29+F30+F33+F36)</f>
+        <v>31918</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A26:H26"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -6694,8 +7042,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8010204081633"/>
     <col collapsed="false" hidden="false" max="6" min="2" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7423,11 +7772,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
     <col collapsed="false" hidden="false" max="6" min="2" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9157,13 +9505,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.36734693877551"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9879,11 +10226,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10800,10 +11147,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5969387755102"/>
     <col collapsed="false" hidden="false" max="6" min="2" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11776,11 +12124,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12142,9 +12491,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="2" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12432,18 +12781,18 @@
   </sheetPr>
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G41" activeCellId="0" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.8061224489796"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
     <col collapsed="false" hidden="false" max="6" min="4" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/statsDataset.xlsx
+++ b/statsDataset.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="184">
   <si>
     <t xml:space="preserve">SN</t>
   </si>
@@ -547,10 +547,10 @@
     <t xml:space="preserve">1 neigh 0:700</t>
   </si>
   <si>
-    <t xml:space="preserve">OTHER 3neig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGN 3 neigh</t>
+    <t xml:space="preserve">OTHER neg 1 0:400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGN 3 neg</t>
   </si>
   <si>
     <t xml:space="preserve">CV </t>
@@ -562,16 +562,25 @@
     <t xml:space="preserve">extra</t>
   </si>
   <si>
-    <t xml:space="preserve">CV 1 neigh 500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 neigh BZ</t>
+    <t xml:space="preserve">CV 1 neg 0:400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 neg SN 700:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cv 1 neg 400:</t>
   </si>
   <si>
     <t xml:space="preserve">1 neigh AGN neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">more</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTHER neg 1 400:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 neg SN 0:700</t>
   </si>
 </sst>
 </file>
@@ -1313,11 +1322,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1410,9 +1419,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6161,21 +6172,19 @@
   </sheetPr>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G32" activeCellId="0" sqref="G32"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.1530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6326,7 +6335,9 @@
       <c r="A7" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="7" t="n">
+        <v>9709</v>
+      </c>
       <c r="C7" s="7" t="n">
         <v>5321</v>
       </c>
@@ -6339,7 +6350,9 @@
       <c r="F7" s="5" t="n">
         <v>4769</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="5" t="n">
+        <v>5391</v>
+      </c>
       <c r="H7" s="47"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6348,7 +6361,7 @@
       </c>
       <c r="B8" s="88" t="n">
         <f aca="false">B5+B6-B7</f>
-        <v>78915</v>
+        <v>69206</v>
       </c>
       <c r="C8" s="88" t="n">
         <f aca="false">C5+C6-C7</f>
@@ -6368,11 +6381,11 @@
       </c>
       <c r="G8" s="88" t="n">
         <f aca="false">G5+G6-G7</f>
-        <v>41670</v>
+        <v>36279</v>
       </c>
       <c r="H8" s="89" t="n">
         <f aca="false">SUM(B8:G8)</f>
-        <v>201954</v>
+        <v>186854</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6430,7 +6443,7 @@
       <c r="E11" s="52" t="n">
         <v>189</v>
       </c>
-      <c r="F11" s="117" t="n">
+      <c r="F11" s="52" t="n">
         <v>7015</v>
       </c>
       <c r="G11" s="117" t="n">
@@ -6502,7 +6515,7 @@
       <c r="B14" s="30" t="n">
         <v>16259</v>
       </c>
-      <c r="C14" s="118" t="n">
+      <c r="C14" s="30" t="n">
         <v>8197</v>
       </c>
       <c r="D14" s="30" t="n">
@@ -6583,7 +6596,7 @@
         <f aca="false">SUM(B17:G17)</f>
         <v>24360</v>
       </c>
-      <c r="J17" s="39" t="s">
+      <c r="J17" s="118" t="s">
         <v>0</v>
       </c>
       <c r="K17" s="0" t="s">
@@ -6616,7 +6629,7 @@
         <f aca="false">SUM(B18:G18)</f>
         <v>4732</v>
       </c>
-      <c r="J18" s="39" t="s">
+      <c r="J18" s="118" t="s">
         <v>143</v>
       </c>
       <c r="K18" s="0" t="s">
@@ -6627,10 +6640,10 @@
       <c r="A19" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="118" t="n">
+      <c r="B19" s="119" t="n">
         <v>7150</v>
       </c>
-      <c r="C19" s="118" t="n">
+      <c r="C19" s="119" t="n">
         <v>3763</v>
       </c>
       <c r="D19" s="52" t="n">
@@ -6639,17 +6652,17 @@
       <c r="E19" s="52" t="n">
         <v>121</v>
       </c>
-      <c r="F19" s="119" t="n">
+      <c r="F19" s="52" t="n">
         <v>3545</v>
       </c>
-      <c r="G19" s="119" t="n">
+      <c r="G19" s="52" t="n">
         <v>3902</v>
       </c>
       <c r="H19" s="54" t="n">
         <f aca="false">SUM(B19:G19)</f>
         <v>19628</v>
       </c>
-      <c r="J19" s="0" t="s">
+      <c r="J19" s="118" t="s">
         <v>5</v>
       </c>
       <c r="K19" s="0" t="s">
@@ -6759,12 +6772,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="49"/>
-      <c r="J23" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="K23" s="0" t="s">
-        <v>178</v>
-      </c>
+      <c r="J23" s="39"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G24" s="31" t="s">
@@ -6815,7 +6823,10 @@
       <c r="A28" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="33"/>
+      <c r="B28" s="33" t="n">
+        <f aca="false">B8</f>
+        <v>69206</v>
+      </c>
       <c r="C28" s="33" t="n">
         <f aca="false">C8</f>
         <v>36809</v>
@@ -6832,18 +6843,23 @@
         <f aca="false">F8</f>
         <v>31917</v>
       </c>
-      <c r="G28" s="33"/>
+      <c r="G28" s="33" t="n">
+        <f aca="false">G8</f>
+        <v>36279</v>
+      </c>
       <c r="H28" s="22"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="25"/>
+      <c r="B29" s="25" t="n">
+        <v>11934</v>
+      </c>
       <c r="C29" s="120" t="n">
         <v>6269</v>
       </c>
-      <c r="D29" s="25" t="n">
+      <c r="D29" s="30" t="n">
         <v>2098</v>
       </c>
       <c r="E29" s="30" t="n">
@@ -6852,18 +6868,22 @@
       <c r="F29" s="25" t="n">
         <v>6084</v>
       </c>
-      <c r="G29" s="25"/>
+      <c r="G29" s="25" t="n">
+        <v>6492</v>
+      </c>
       <c r="H29" s="8" t="n">
         <f aca="false">SUM(B29:G29)</f>
-        <v>14713</v>
+        <v>33139</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25" t="n">
+      <c r="B30" s="119" t="n">
+        <v>25658</v>
+      </c>
+      <c r="C30" s="119" t="n">
         <v>13748</v>
       </c>
       <c r="D30" s="30" t="n">
@@ -6872,13 +6892,15 @@
       <c r="E30" s="30" t="n">
         <v>460</v>
       </c>
-      <c r="F30" s="118" t="n">
+      <c r="F30" s="119" t="n">
         <v>11941</v>
       </c>
-      <c r="G30" s="25"/>
+      <c r="G30" s="119" t="n">
+        <v>13450</v>
+      </c>
       <c r="H30" s="8" t="n">
         <f aca="false">SUM(B30:G30)</f>
-        <v>30404</v>
+        <v>69512</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6887,8 +6909,12 @@
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+      <c r="D31" s="7" t="n">
+        <v>218</v>
+      </c>
+      <c r="E31" s="7" t="n">
+        <v>23</v>
+      </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="8"/>
@@ -6896,7 +6922,7 @@
         <v>2</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6905,13 +6931,17 @@
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
+      <c r="D32" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E32" s="7" t="n">
+        <v>9</v>
+      </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="8" t="n">
         <f aca="false">SUM(B32:G32)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I32" s="0" t="s">
         <v>109</v>
@@ -6924,7 +6954,9 @@
       <c r="A33" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="25"/>
+      <c r="B33" s="25" t="n">
+        <v>11215</v>
+      </c>
       <c r="C33" s="25" t="n">
         <v>6172</v>
       </c>
@@ -6934,13 +6966,15 @@
       <c r="E33" s="30" t="n">
         <v>179</v>
       </c>
-      <c r="F33" s="25" t="n">
+      <c r="F33" s="119" t="n">
         <v>5143</v>
       </c>
-      <c r="G33" s="25"/>
+      <c r="G33" s="25" t="n">
+        <v>5878</v>
+      </c>
       <c r="H33" s="8" t="n">
         <f aca="false">SUM(B33:G33)</f>
-        <v>13327</v>
+        <v>30420</v>
       </c>
       <c r="I33" s="0" t="s">
         <v>4</v>
@@ -6955,11 +6989,21 @@
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
+      <c r="D34" s="7" t="n">
+        <v>193</v>
+      </c>
+      <c r="E34" s="7" t="n">
+        <v>20</v>
+      </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="8"/>
+      <c r="I34" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="s">
@@ -6967,20 +7011,32 @@
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
+      <c r="D35" s="7" t="n">
+        <v>67</v>
+      </c>
+      <c r="E35" s="7" t="n">
+        <v>24</v>
+      </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="8" t="n">
         <f aca="false">SUM(B35:G35)</f>
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="14"/>
+      <c r="B36" s="14" t="n">
+        <v>20403</v>
+      </c>
       <c r="C36" s="14" t="n">
         <v>10624</v>
       </c>
@@ -6993,10 +7049,16 @@
       <c r="F36" s="14" t="n">
         <v>8750</v>
       </c>
-      <c r="G36" s="14"/>
+      <c r="G36" s="14" t="n">
+        <v>10461</v>
+      </c>
       <c r="H36" s="15"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="n">
+        <f aca="false">SUM(B29+B30+B33+B36)</f>
+        <v>69210</v>
+      </c>
       <c r="C37" s="0" t="n">
         <f aca="false">SUM(C29+C30+C33+C36)</f>
         <v>36813</v>
@@ -7012,6 +7074,10 @@
       <c r="F37" s="0" t="n">
         <f aca="false">SUM(F29+F30+F33+F36)</f>
         <v>31918</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <f aca="false">SUM(G29+G30+G33+G36)</f>
+        <v>36281</v>
       </c>
     </row>
   </sheetData>
@@ -7042,9 +7108,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6632653061225"/>
     <col collapsed="false" hidden="false" max="6" min="2" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7772,10 +7838,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
     <col collapsed="false" hidden="false" max="6" min="2" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9505,12 +9571,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.23469387755102"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10226,11 +10291,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11147,11 +11211,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3265306122449"/>
     <col collapsed="false" hidden="false" max="6" min="2" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12124,12 +12187,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12491,9 +12552,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="2" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12787,12 +12847,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.5408163265306"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
     <col collapsed="false" hidden="false" max="6" min="4" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/statsDataset.xlsx
+++ b/statsDataset.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="186">
   <si>
     <t xml:space="preserve">SN</t>
   </si>
@@ -544,10 +544,13 @@
     <t xml:space="preserve">ALL</t>
   </si>
   <si>
-    <t xml:space="preserve">1 neigh 0:700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTHER neg 1 0:400</t>
+    <t xml:space="preserve">3neg 0:700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3neg 700:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTHER neg 3 0:400</t>
   </si>
   <si>
     <t xml:space="preserve">AGN 3 neg</t>
@@ -556,7 +559,7 @@
     <t xml:space="preserve">CV </t>
   </si>
   <si>
-    <t xml:space="preserve">CV 3 neigh</t>
+    <t xml:space="preserve">CV 3 neigh neg 0:400</t>
   </si>
   <si>
     <t xml:space="preserve">extra</t>
@@ -565,19 +568,22 @@
     <t xml:space="preserve">CV 1 neg 0:400</t>
   </si>
   <si>
+    <t xml:space="preserve">three</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV 3neigh 400:</t>
+  </si>
+  <si>
     <t xml:space="preserve">1 neg SN 700:</t>
   </si>
   <si>
-    <t xml:space="preserve">Cv 1 neg 400:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 neigh AGN neg</t>
+    <t xml:space="preserve">AGN 3 neg 500:</t>
   </si>
   <si>
     <t xml:space="preserve">more</t>
   </si>
   <si>
-    <t xml:space="preserve">OTHER neg 1 400:</t>
+    <t xml:space="preserve">OTHER neg 3 400:</t>
   </si>
   <si>
     <t xml:space="preserve">1 neg SN 0:700</t>
@@ -849,7 +855,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="120">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1322,15 +1328,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1419,11 +1421,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6172,19 +6174,20 @@
   </sheetPr>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.2142857142857"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.20918367346939"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6596,7 +6599,7 @@
         <f aca="false">SUM(B17:G17)</f>
         <v>24360</v>
       </c>
-      <c r="J17" s="118" t="s">
+      <c r="J17" s="29" t="s">
         <v>0</v>
       </c>
       <c r="K17" s="0" t="s">
@@ -6629,21 +6632,21 @@
         <f aca="false">SUM(B18:G18)</f>
         <v>4732</v>
       </c>
-      <c r="J18" s="118" t="s">
+      <c r="J18" s="29" t="s">
         <v>143</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="119" t="n">
+      <c r="B19" s="30" t="n">
         <v>7150</v>
       </c>
-      <c r="C19" s="119" t="n">
+      <c r="C19" s="30" t="n">
         <v>3763</v>
       </c>
       <c r="D19" s="52" t="n">
@@ -6662,11 +6665,11 @@
         <f aca="false">SUM(B19:G19)</f>
         <v>19628</v>
       </c>
-      <c r="J19" s="118" t="s">
+      <c r="J19" s="29" t="s">
         <v>5</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6688,7 +6691,7 @@
         <v>141</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6710,10 +6713,10 @@
         <v>90</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6742,11 +6745,11 @@
         <f aca="false">SUM(B22:G22)</f>
         <v>51903</v>
       </c>
-      <c r="J22" s="0" t="s">
-        <v>176</v>
+      <c r="J22" s="39" t="s">
+        <v>177</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6772,7 +6775,12 @@
         <v>4</v>
       </c>
       <c r="H23" s="49"/>
-      <c r="J23" s="39"/>
+      <c r="J23" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G24" s="31" t="s">
@@ -6856,7 +6864,7 @@
       <c r="B29" s="25" t="n">
         <v>11934</v>
       </c>
-      <c r="C29" s="120" t="n">
+      <c r="C29" s="118" t="n">
         <v>6269</v>
       </c>
       <c r="D29" s="30" t="n">
@@ -6880,10 +6888,10 @@
       <c r="A30" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="119" t="n">
+      <c r="B30" s="30" t="n">
         <v>25658</v>
       </c>
-      <c r="C30" s="119" t="n">
+      <c r="C30" s="30" t="n">
         <v>13748</v>
       </c>
       <c r="D30" s="30" t="n">
@@ -6892,10 +6900,10 @@
       <c r="E30" s="30" t="n">
         <v>460</v>
       </c>
-      <c r="F30" s="119" t="n">
+      <c r="F30" s="30" t="n">
         <v>11941</v>
       </c>
-      <c r="G30" s="119" t="n">
+      <c r="G30" s="30" t="n">
         <v>13450</v>
       </c>
       <c r="H30" s="8" t="n">
@@ -6922,7 +6930,7 @@
         <v>2</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6943,21 +6951,15 @@
         <f aca="false">SUM(B32:G32)</f>
         <v>13</v>
       </c>
-      <c r="I32" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="J32" s="0" t="s">
-        <v>179</v>
-      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="25" t="n">
+      <c r="B33" s="119" t="n">
         <v>11215</v>
       </c>
-      <c r="C33" s="25" t="n">
+      <c r="C33" s="119" t="n">
         <v>6172</v>
       </c>
       <c r="D33" s="30" t="n">
@@ -6969,18 +6971,18 @@
       <c r="F33" s="119" t="n">
         <v>5143</v>
       </c>
-      <c r="G33" s="25" t="n">
+      <c r="G33" s="119" t="n">
         <v>5878</v>
       </c>
       <c r="H33" s="8" t="n">
         <f aca="false">SUM(B33:G33)</f>
         <v>30420</v>
       </c>
-      <c r="I33" s="0" t="s">
+      <c r="I33" s="39" t="s">
         <v>4</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6999,10 +7001,10 @@
       <c r="G34" s="7"/>
       <c r="H34" s="8"/>
       <c r="I34" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7023,11 +7025,11 @@
         <f aca="false">SUM(B35:G35)</f>
         <v>91</v>
       </c>
-      <c r="I35" s="0" t="s">
+      <c r="I35" s="39" t="s">
         <v>160</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7108,9 +7110,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.530612244898"/>
     <col collapsed="false" hidden="false" max="6" min="2" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7838,10 +7840,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
     <col collapsed="false" hidden="false" max="6" min="2" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9571,11 +9573,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.50510204081633"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10291,10 +10292,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11211,10 +11212,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0612244897959"/>
     <col collapsed="false" hidden="false" max="6" min="2" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12187,10 +12188,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12552,8 +12556,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
     <col collapsed="false" hidden="false" max="7" min="2" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12847,12 +12851,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.2704081632653"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
     <col collapsed="false" hidden="false" max="6" min="4" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/statsDataset.xlsx
+++ b/statsDataset.xlsx
@@ -6174,8 +6174,8 @@
   </sheetPr>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -6550,7 +6550,9 @@
       <c r="E15" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="5" t="n">
+        <v>517</v>
+      </c>
       <c r="G15" s="5"/>
       <c r="H15" s="47"/>
     </row>
@@ -6566,11 +6568,13 @@
       <c r="E16" s="59" t="n">
         <v>23</v>
       </c>
-      <c r="F16" s="59"/>
+      <c r="F16" s="59" t="n">
+        <v>45</v>
+      </c>
       <c r="G16" s="59"/>
       <c r="H16" s="60" t="n">
         <f aca="false">SUM(B16:G16)</f>
-        <v>34</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6684,7 +6688,9 @@
       <c r="E20" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="F20" s="5"/>
+      <c r="F20" s="5" t="n">
+        <v>373</v>
+      </c>
       <c r="G20" s="5"/>
       <c r="H20" s="47"/>
       <c r="J20" s="0" t="s">
@@ -6706,11 +6712,13 @@
       <c r="E21" s="59" t="n">
         <v>44</v>
       </c>
-      <c r="F21" s="59"/>
+      <c r="F21" s="59" t="n">
+        <v>88</v>
+      </c>
       <c r="G21" s="59"/>
       <c r="H21" s="60" t="n">
         <f aca="false">SUM(B21:G21)</f>
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="J21" s="0" t="s">
         <v>175</v>
@@ -6788,7 +6796,7 @@
       </c>
       <c r="H24" s="31" t="n">
         <f aca="false">H11+H14-H16+H19-H21+H13+H18</f>
-        <v>141363</v>
+        <v>141230</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6923,7 +6931,9 @@
       <c r="E31" s="7" t="n">
         <v>23</v>
       </c>
-      <c r="F31" s="7"/>
+      <c r="F31" s="7" t="n">
+        <v>538</v>
+      </c>
       <c r="G31" s="7"/>
       <c r="H31" s="8"/>
       <c r="I31" s="0" t="s">
@@ -6945,11 +6955,13 @@
       <c r="E32" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="F32" s="7"/>
+      <c r="F32" s="7" t="n">
+        <v>48</v>
+      </c>
       <c r="G32" s="7"/>
       <c r="H32" s="8" t="n">
         <f aca="false">SUM(B32:G32)</f>
-        <v>13</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6968,7 +6980,7 @@
       <c r="E33" s="30" t="n">
         <v>179</v>
       </c>
-      <c r="F33" s="119" t="n">
+      <c r="F33" s="30" t="n">
         <v>5143</v>
       </c>
       <c r="G33" s="119" t="n">
@@ -6997,7 +7009,9 @@
       <c r="E34" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="F34" s="7"/>
+      <c r="F34" s="7" t="n">
+        <v>514</v>
+      </c>
       <c r="G34" s="7"/>
       <c r="H34" s="8"/>
       <c r="I34" s="0" t="s">
@@ -7019,11 +7033,13 @@
       <c r="E35" s="7" t="n">
         <v>24</v>
       </c>
-      <c r="F35" s="7"/>
+      <c r="F35" s="7" t="n">
+        <v>167</v>
+      </c>
       <c r="G35" s="7"/>
       <c r="H35" s="8" t="n">
         <f aca="false">SUM(B35:G35)</f>
-        <v>91</v>
+        <v>258</v>
       </c>
       <c r="I35" s="39" t="s">
         <v>160</v>

--- a/statsDataset.xlsx
+++ b/statsDataset.xlsx
@@ -855,7 +855,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="118">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1324,14 +1324,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -6175,7 +6167,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
+      <selection pane="topLeft" activeCell="E36" activeCellId="0" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -6437,7 +6429,7 @@
       <c r="B11" s="115" t="n">
         <v>17742</v>
       </c>
-      <c r="C11" s="115" t="n">
+      <c r="C11" s="30" t="n">
         <v>9895</v>
       </c>
       <c r="D11" s="116" t="n">
@@ -6449,7 +6441,7 @@
       <c r="F11" s="52" t="n">
         <v>7015</v>
       </c>
-      <c r="G11" s="117" t="n">
+      <c r="G11" s="52" t="n">
         <v>8925</v>
       </c>
       <c r="H11" s="47" t="n">
@@ -6543,7 +6535,9 @@
         <v>42</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="C15" s="7" t="n">
+        <v>710</v>
+      </c>
       <c r="D15" s="5" t="n">
         <v>207</v>
       </c>
@@ -6553,7 +6547,9 @@
       <c r="F15" s="5" t="n">
         <v>517</v>
       </c>
-      <c r="G15" s="5"/>
+      <c r="G15" s="5" t="n">
+        <v>725</v>
+      </c>
       <c r="H15" s="47"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6561,7 +6557,9 @@
         <v>27</v>
       </c>
       <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="C16" s="14" t="n">
+        <v>138</v>
+      </c>
       <c r="D16" s="59" t="n">
         <v>11</v>
       </c>
@@ -6571,10 +6569,12 @@
       <c r="F16" s="59" t="n">
         <v>45</v>
       </c>
-      <c r="G16" s="59"/>
+      <c r="G16" s="59" t="n">
+        <v>100</v>
+      </c>
       <c r="H16" s="60" t="n">
         <f aca="false">SUM(B16:G16)</f>
-        <v>79</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6681,7 +6681,9 @@
         <v>53</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="C20" s="7" t="n">
+        <v>505</v>
+      </c>
       <c r="D20" s="5" t="n">
         <v>153</v>
       </c>
@@ -6691,7 +6693,9 @@
       <c r="F20" s="5" t="n">
         <v>373</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="5" t="n">
+        <v>515</v>
+      </c>
       <c r="H20" s="47"/>
       <c r="J20" s="0" t="s">
         <v>141</v>
@@ -6705,7 +6709,9 @@
         <v>30</v>
       </c>
       <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
+      <c r="C21" s="14" t="n">
+        <v>333</v>
+      </c>
       <c r="D21" s="59" t="n">
         <v>46</v>
       </c>
@@ -6715,10 +6721,12 @@
       <c r="F21" s="59" t="n">
         <v>88</v>
       </c>
-      <c r="G21" s="59"/>
+      <c r="G21" s="59" t="n">
+        <v>189</v>
+      </c>
       <c r="H21" s="60" t="n">
         <f aca="false">SUM(B21:G21)</f>
-        <v>178</v>
+        <v>700</v>
       </c>
       <c r="J21" s="0" t="s">
         <v>175</v>
@@ -6796,7 +6804,7 @@
       </c>
       <c r="H24" s="31" t="n">
         <f aca="false">H11+H14-H16+H19-H21+H13+H18</f>
-        <v>141230</v>
+        <v>140470</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6872,7 +6880,7 @@
       <c r="B29" s="25" t="n">
         <v>11934</v>
       </c>
-      <c r="C29" s="118" t="n">
+      <c r="C29" s="97" t="n">
         <v>6269</v>
       </c>
       <c r="D29" s="30" t="n">
@@ -6881,10 +6889,10 @@
       <c r="E29" s="30" t="n">
         <v>262</v>
       </c>
-      <c r="F29" s="25" t="n">
+      <c r="F29" s="30" t="n">
         <v>6084</v>
       </c>
-      <c r="G29" s="25" t="n">
+      <c r="G29" s="30" t="n">
         <v>6492</v>
       </c>
       <c r="H29" s="8" t="n">
@@ -6924,7 +6932,9 @@
         <v>42</v>
       </c>
       <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
+      <c r="C31" s="7" t="n">
+        <v>739</v>
+      </c>
       <c r="D31" s="7" t="n">
         <v>218</v>
       </c>
@@ -6934,7 +6944,9 @@
       <c r="F31" s="7" t="n">
         <v>538</v>
       </c>
-      <c r="G31" s="7"/>
+      <c r="G31" s="7" t="n">
+        <v>771</v>
+      </c>
       <c r="H31" s="8"/>
       <c r="I31" s="0" t="s">
         <v>2</v>
@@ -6948,7 +6960,9 @@
         <v>27</v>
       </c>
       <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
+      <c r="C32" s="7" t="n">
+        <v>52</v>
+      </c>
       <c r="D32" s="7" t="n">
         <v>4</v>
       </c>
@@ -6958,20 +6972,22 @@
       <c r="F32" s="7" t="n">
         <v>48</v>
       </c>
-      <c r="G32" s="7"/>
+      <c r="G32" s="7" t="n">
+        <v>23</v>
+      </c>
       <c r="H32" s="8" t="n">
         <f aca="false">SUM(B32:G32)</f>
-        <v>61</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="119" t="n">
+      <c r="B33" s="117" t="n">
         <v>11215</v>
       </c>
-      <c r="C33" s="119" t="n">
+      <c r="C33" s="30" t="n">
         <v>6172</v>
       </c>
       <c r="D33" s="30" t="n">
@@ -6983,7 +6999,7 @@
       <c r="F33" s="30" t="n">
         <v>5143</v>
       </c>
-      <c r="G33" s="119" t="n">
+      <c r="G33" s="30" t="n">
         <v>5878</v>
       </c>
       <c r="H33" s="8" t="n">
@@ -7002,7 +7018,9 @@
         <v>53</v>
       </c>
       <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
+      <c r="C34" s="7" t="n">
+        <v>688</v>
+      </c>
       <c r="D34" s="7" t="n">
         <v>193</v>
       </c>
@@ -7012,7 +7030,9 @@
       <c r="F34" s="7" t="n">
         <v>514</v>
       </c>
-      <c r="G34" s="7"/>
+      <c r="G34" s="7" t="n">
+        <v>699</v>
+      </c>
       <c r="H34" s="8"/>
       <c r="I34" s="0" t="s">
         <v>183</v>
@@ -7026,7 +7046,9 @@
         <v>30</v>
       </c>
       <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
+      <c r="C35" s="7" t="n">
+        <v>387</v>
+      </c>
       <c r="D35" s="7" t="n">
         <v>67</v>
       </c>
@@ -7036,10 +7058,12 @@
       <c r="F35" s="7" t="n">
         <v>167</v>
       </c>
-      <c r="G35" s="7"/>
+      <c r="G35" s="7" t="n">
+        <v>329</v>
+      </c>
       <c r="H35" s="8" t="n">
         <f aca="false">SUM(B35:G35)</f>
-        <v>258</v>
+        <v>974</v>
       </c>
       <c r="I35" s="39" t="s">
         <v>160</v>

--- a/statsDataset.xlsx
+++ b/statsDataset.xlsx
@@ -855,7 +855,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="117">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1324,10 +1324,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -6167,7 +6163,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E36" activeCellId="0" sqref="E36"/>
+      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -6984,7 +6980,7 @@
       <c r="A33" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="117" t="n">
+      <c r="B33" s="30" t="n">
         <v>11215</v>
       </c>
       <c r="C33" s="30" t="n">
